--- a/on_trucks/Processed_Stand_Alone/35_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/35_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>109</v>
       </c>
       <c r="E2">
-        <v>0.01939181935796019</v>
+        <v>0.01933178791621492</v>
       </c>
       <c r="F2">
         <v>0.5070709539763714</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>125</v>
       </c>
       <c r="E3">
-        <v>0.01670075667580082</v>
+        <v>0.01571361524422738</v>
       </c>
       <c r="F3">
         <v>0.5009774599521574</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>110</v>
       </c>
       <c r="E4">
-        <v>0.01042529678635657</v>
+        <v>0.01041399391677734</v>
       </c>
       <c r="F4">
         <v>0.5069002227937528</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>114</v>
       </c>
       <c r="E5">
-        <v>0.005109246022141193</v>
+        <v>0.005092500148287457</v>
       </c>
       <c r="F5">
         <v>0.5208567017077276</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.04323409375225949</v>
+        <v>0.04062270445707165</v>
       </c>
       <c r="F6">
         <v>0.500035237678836</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>155</v>
       </c>
       <c r="E2">
-        <v>0.01939181935796019</v>
+        <v>0.01933178791621492</v>
       </c>
       <c r="F2">
         <v>0.7023430451137415</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>155</v>
       </c>
       <c r="E3">
-        <v>0.01670075667580082</v>
+        <v>0.01571361524422738</v>
       </c>
       <c r="F3">
         <v>0.7164306853967832</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>158</v>
       </c>
       <c r="E4">
-        <v>0.01042529678635657</v>
+        <v>0.01041399391677734</v>
       </c>
       <c r="F4">
         <v>0.7204772169078626</v>
       </c>
       <c r="G4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.005109246022141193</v>
+        <v>0.005092500148287457</v>
       </c>
       <c r="F5">
         <v>0.7094335956227119</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>151</v>
       </c>
       <c r="E6">
-        <v>0.04323409375225949</v>
+        <v>0.04062270445707165</v>
       </c>
       <c r="F6">
         <v>0.7031056638270889</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>160</v>
       </c>
       <c r="E2">
-        <v>0.01939181935796019</v>
+        <v>0.01933178791621492</v>
       </c>
       <c r="F2">
         <v>0.8120231190471967</v>
       </c>
       <c r="G2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3">
-        <v>0.01670075667580082</v>
+        <v>0.01571361524422738</v>
       </c>
       <c r="F3">
         <v>0.8085668608975516</v>
       </c>
       <c r="G3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>160</v>
       </c>
       <c r="E4">
-        <v>0.01042529678635657</v>
+        <v>0.01041399391677734</v>
       </c>
       <c r="F4">
         <v>0.8036121807550466</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5">
-        <v>0.005109246022141193</v>
+        <v>0.005092500148287457</v>
       </c>
       <c r="F5">
         <v>0.8298320346331626</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>156</v>
       </c>
       <c r="E6">
-        <v>0.04323409375225949</v>
+        <v>0.04062270445707165</v>
       </c>
       <c r="F6">
         <v>0.8055056638573558</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>171</v>
       </c>
       <c r="E2">
-        <v>0.01939181935796019</v>
+        <v>0.01933178791621492</v>
       </c>
       <c r="F2">
         <v>0.9134422566085366</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>171</v>
       </c>
       <c r="E3">
-        <v>0.01670075667580082</v>
+        <v>0.01571361524422738</v>
       </c>
       <c r="F3">
         <v>0.9147959456926085</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>171</v>
       </c>
       <c r="E4">
-        <v>0.01042529678635657</v>
+        <v>0.01041399391677734</v>
       </c>
       <c r="F4">
         <v>0.9125438278878121</v>
       </c>
       <c r="G4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>170</v>
       </c>
       <c r="E5">
-        <v>0.005109246022141193</v>
+        <v>0.005092500148287457</v>
       </c>
       <c r="F5">
         <v>0.9114282888039489</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>167</v>
       </c>
       <c r="E6">
-        <v>0.04323409375225949</v>
+        <v>0.04062270445707165</v>
       </c>
       <c r="F6">
         <v>0.9079502081855848</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6">
         <v>35</v>

--- a/on_trucks/Processed_Stand_Alone/35_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/35_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0006152540666426577</v>
+        <v>0.0006079688130648988</v>
       </c>
       <c r="C2">
-        <v>0.0004152289574874557</v>
+        <v>0.0004076323243487863</v>
       </c>
       <c r="D2">
-        <v>0.0002513135163744891</v>
+        <v>0.0002434617156806275</v>
       </c>
       <c r="E2">
-        <v>0.0002116535885247387</v>
+        <v>0.0002037400491273126</v>
       </c>
       <c r="F2">
-        <v>0.0001418828523075114</v>
+        <v>0.0001338607006398585</v>
       </c>
       <c r="G2">
-        <v>1.13998083819345E-05</v>
+        <v>3.174533450930292E-06</v>
       </c>
       <c r="H2">
-        <v>7.16318461163231E-08</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.946816277580373E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.23020905378125E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.213486500470717E-06</v>
+        <v>9.848081170182891E-07</v>
       </c>
       <c r="L2">
-        <v>5.242441015769616E-05</v>
+        <v>4.426299832138747E-05</v>
       </c>
       <c r="M2">
-        <v>0.0001132230438613655</v>
+        <v>0.0001051562774020625</v>
       </c>
       <c r="N2">
-        <v>0.0002237044878713729</v>
+        <v>0.0002158097081374859</v>
       </c>
       <c r="O2">
-        <v>0.0004098337777799671</v>
+        <v>0.0004022287459522759</v>
       </c>
       <c r="P2">
-        <v>0.0004806448739407889</v>
+        <v>0.0004731500739141115</v>
       </c>
       <c r="Q2">
-        <v>0.0003472438311734176</v>
+        <v>0.0003395413654276845</v>
       </c>
       <c r="R2">
-        <v>0.0003493158210610802</v>
+        <v>0.0003416165807869099</v>
       </c>
       <c r="S2">
-        <v>0.0003735866797451826</v>
+        <v>0.0003659252219741785</v>
       </c>
       <c r="T2">
-        <v>0.000273075345194624</v>
+        <v>0.0002652574211912002</v>
       </c>
       <c r="U2">
-        <v>0.0001031218794090222</v>
+        <v>9.503938844310533E-05</v>
       </c>
       <c r="V2">
-        <v>7.113229614340729E-05</v>
+        <v>6.300000691749684E-05</v>
       </c>
       <c r="W2">
-        <v>3.606374004472561E-05</v>
+        <v>2.787685951452398E-05</v>
       </c>
       <c r="X2">
-        <v>1.309178729020017E-05</v>
+        <v>4.869146266767618E-06</v>
       </c>
       <c r="Y2">
-        <v>1.193388535297836E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>4.953814431418136E-07</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.890366897509632E-05</v>
+        <v>1.069007532164021E-05</v>
       </c>
       <c r="AB2">
-        <v>4.898002334444111E-05</v>
+        <v>4.081324962302686E-05</v>
       </c>
       <c r="AC2">
-        <v>8.270415551601367E-05</v>
+        <v>7.458988023098082E-05</v>
       </c>
       <c r="AD2">
-        <v>0.0002116535885247387</v>
+        <v>0.0002037400491273126</v>
       </c>
       <c r="AE2">
-        <v>0.000202467859022763</v>
+        <v>0.0001945400201784772</v>
       </c>
       <c r="AF2">
-        <v>0.0003049474134666103</v>
+        <v>0.0002971791047873112</v>
       </c>
       <c r="AG2">
-        <v>0.0002276951176550122</v>
+        <v>0.0002198065501439558</v>
       </c>
       <c r="AH2">
-        <v>0.0003342153618797846</v>
+        <v>0.0003264926146850618</v>
       </c>
       <c r="AI2">
-        <v>0.0003398203815758962</v>
+        <v>0.0003321063597286022</v>
       </c>
       <c r="AJ2">
-        <v>0.0002561770261108033</v>
+        <v>0.0002483327964540609</v>
       </c>
       <c r="AK2">
-        <v>0.0002460610266592643</v>
+        <v>0.0002382010494022296</v>
       </c>
       <c r="AL2">
-        <v>0.0001843306900061092</v>
+        <v>0.0001763746169878819</v>
       </c>
       <c r="AM2">
-        <v>0.0001617066912327188</v>
+        <v>0.0001537153993820466</v>
       </c>
       <c r="AN2">
-        <v>0.0001046978243235789</v>
+        <v>9.661778663484101E-05</v>
       </c>
       <c r="AO2">
-        <v>3.305714020773498E-05</v>
+        <v>2.486557929645004E-05</v>
       </c>
       <c r="AP2">
-        <v>1.231382033237935E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.392398416073714E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>3.344607318664813E-05</v>
+        <v>2.525511772825213E-05</v>
       </c>
       <c r="AS2">
-        <v>8.742171526024086E-05</v>
+        <v>7.931478381162901E-05</v>
       </c>
       <c r="AT2">
-        <v>0.0001777690103618651</v>
+        <v>0.0001698027227614031</v>
       </c>
       <c r="AU2">
-        <v>0.0004685515345964557</v>
+        <v>0.0004610379088397942</v>
       </c>
       <c r="AV2">
-        <v>0.0004757890742040567</v>
+        <v>0.0004682867151424346</v>
       </c>
       <c r="AW2">
-        <v>0.000421149047166485</v>
+        <v>0.0004135616298454327</v>
       </c>
       <c r="AX2">
-        <v>0.00061968896640221</v>
+        <v>0.0006124106166434047</v>
       </c>
       <c r="AY2">
-        <v>0.0004709578744659908</v>
+        <v>0.0004634479946643003</v>
       </c>
       <c r="AZ2">
-        <v>0.0003970117284751425</v>
+        <v>0.0003893867365329468</v>
       </c>
       <c r="BA2">
-        <v>0.0003369763517300915</v>
+        <v>0.0003292579025748043</v>
       </c>
       <c r="BB2">
-        <v>0.0002002739891417085</v>
+        <v>0.0001923427350949856</v>
       </c>
       <c r="BC2">
-        <v>0.0001132230438613655</v>
+        <v>0.0001051562774020625</v>
       </c>
       <c r="BD2">
-        <v>3.606374004472561E-05</v>
+        <v>2.787685951452398E-05</v>
       </c>
       <c r="BE2">
-        <v>2.478368765629827E-05</v>
+        <v>1.657924744184205E-05</v>
       </c>
       <c r="BF2">
-        <v>7.575472589279217E-07</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>3.957396785441094E-05</v>
+        <v>3.139255170414986E-05</v>
       </c>
       <c r="BH2">
-        <v>7.995081566529199E-05</v>
+        <v>7.183225424959597E-05</v>
       </c>
       <c r="BI2">
-        <v>0.0001684825008653534</v>
+        <v>0.0001605017569335757</v>
       </c>
       <c r="BJ2">
-        <v>0.0004112792177015994</v>
+        <v>0.0004036764359936558</v>
       </c>
       <c r="BK2">
-        <v>0.0006701272636675875</v>
+        <v>0.0006629274313255301</v>
       </c>
       <c r="BL2">
-        <v>0.0005399153707273096</v>
+        <v>0.0005325128372232815</v>
       </c>
       <c r="BM2">
-        <v>0.0005839916083376201</v>
+        <v>0.000576657688417015</v>
       </c>
       <c r="BN2">
-        <v>0.000618011066493181</v>
+        <v>0.0006107301047436156</v>
       </c>
       <c r="BO2">
-        <v>0.0004791673740208948</v>
+        <v>0.0004716702739665945</v>
       </c>
       <c r="BP2">
-        <v>0.0004725072343819888</v>
+        <v>0.0004649997664725472</v>
       </c>
       <c r="BQ2">
-        <v>0.0002276951176550122</v>
+        <v>0.0002198065501439558</v>
       </c>
       <c r="BR2">
-        <v>0.0001113319139638973</v>
+        <v>0.0001032622035782063</v>
       </c>
       <c r="BS2">
-        <v>8.094663561130145E-05</v>
+        <v>7.282962439087263E-05</v>
       </c>
       <c r="BT2">
-        <v>3.767656495728278E-05</v>
+        <v>2.949219511544031E-05</v>
       </c>
       <c r="BU2">
-        <v>2.740555251414815E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>3.599972604819626E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>3.092701832322419E-05</v>
+        <v>2.273214144615932E-05</v>
       </c>
       <c r="BX2">
-        <v>0.0001179978836024871</v>
+        <v>0.0001099385501475119</v>
       </c>
       <c r="BY2">
-        <v>0.0002657858555898396</v>
+        <v>0.0002579565840206927</v>
       </c>
       <c r="BZ2">
-        <v>0.0005544784699377394</v>
+        <v>0.0005470986068447252</v>
       </c>
       <c r="CA2">
-        <v>0.0005564409398313398</v>
+        <v>0.0005490641317198544</v>
       </c>
       <c r="CB2">
-        <v>0.0005096708723670811</v>
+        <v>0.0005022212571808625</v>
       </c>
       <c r="CC2">
-        <v>0.0005021791127732632</v>
+        <v>0.000494717835147151</v>
       </c>
       <c r="CD2">
-        <v>0.0003992269983550368</v>
+        <v>0.000391605454928707</v>
       </c>
       <c r="CE2">
-        <v>0.0002675989854915368</v>
+        <v>0.0002597725364259998</v>
       </c>
       <c r="CF2">
-        <v>0.0002320844574170345</v>
+        <v>0.0002242027228015759</v>
       </c>
       <c r="CG2">
-        <v>0.0001225638533549331</v>
+        <v>0.0001145116277558798</v>
       </c>
       <c r="CH2">
-        <v>7.75933397931077E-05</v>
+        <v>6.947110848914097E-05</v>
       </c>
       <c r="CI2">
-        <v>9.812681467984053E-06</v>
+        <v>1.584935852755935E-06</v>
       </c>
       <c r="CJ2">
-        <v>4.259674769052433E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>1.102802740209142E-05</v>
+        <v>2.802173718755828E-06</v>
       </c>
       <c r="CL2">
-        <v>6.003144174526434E-05</v>
+        <v>5.188187179303497E-05</v>
       </c>
       <c r="CM2">
-        <v>0.001261973231579367</v>
+        <v>0.001255694727256543</v>
       </c>
       <c r="CN2">
-        <v>0.05905069479843768</v>
+        <v>0.05913437613377229</v>
       </c>
       <c r="CO2">
-        <v>0.01252560232089713</v>
+        <v>0.01253685793464029</v>
       </c>
       <c r="CP2">
-        <v>0.01837822300358452</v>
+        <v>0.01839858940579843</v>
       </c>
       <c r="CQ2">
-        <v>0.01604186913025505</v>
+        <v>0.01605859852486385</v>
       </c>
       <c r="CR2">
-        <v>0.06198364863942118</v>
+        <v>0.06207189571094277</v>
       </c>
       <c r="CS2">
-        <v>0.03745602196924</v>
+        <v>0.03750608682626367</v>
       </c>
       <c r="CT2">
-        <v>1.84240280011011E-05</v>
+        <v>1.02096876894054E-05</v>
       </c>
       <c r="CU2">
-        <v>0.04418210760457059</v>
+        <v>0.04424264297502439</v>
       </c>
       <c r="CV2">
-        <v>0.0004733704043351902</v>
+        <v>0.0004658642801244579</v>
       </c>
       <c r="CW2">
-        <v>0.017142923070559</v>
+        <v>0.01716136647844303</v>
       </c>
       <c r="CX2">
-        <v>0.001834589700533715</v>
+        <v>0.001829202589623579</v>
       </c>
       <c r="CY2">
-        <v>0.0797518656760785</v>
+        <v>0.07986777257312101</v>
       </c>
       <c r="CZ2">
-        <v>0.08212075554764398</v>
+        <v>0.08224035010115704</v>
       </c>
       <c r="DA2">
-        <v>0.0006086829669989242</v>
+        <v>0.0006013874841747951</v>
       </c>
       <c r="DB2">
-        <v>0.001597856413368727</v>
+        <v>0.001592100779190079</v>
       </c>
       <c r="DC2">
-        <v>0.01275161130864356</v>
+        <v>0.01276321875111294</v>
       </c>
       <c r="DD2">
-        <v>0.003455574812648468</v>
+        <v>0.003452711093099468</v>
       </c>
       <c r="DE2">
-        <v>0.01527434317186814</v>
+        <v>0.01528987775700068</v>
       </c>
       <c r="DF2">
-        <v>0.02176899681974632</v>
+        <v>0.0217946416475863</v>
       </c>
       <c r="DG2">
-        <v>0.00189745139712553</v>
+        <v>0.001892162143167282</v>
       </c>
       <c r="DH2">
-        <v>0.0002203956580507683</v>
+        <v>0.0002124957274536671</v>
       </c>
       <c r="DI2">
-        <v>0.01044547243367591</v>
+        <v>0.01045348990429967</v>
       </c>
       <c r="DJ2">
-        <v>0.0008112266260175776</v>
+        <v>0.0008042464433868931</v>
       </c>
       <c r="DK2">
-        <v>0.006795134631586942</v>
+        <v>0.006797469612713308</v>
       </c>
       <c r="DL2">
-        <v>0.0002920008441685368</v>
+        <v>0.000284212381534165</v>
       </c>
       <c r="DM2">
-        <v>0.004860070236500683</v>
+        <v>0.004859392898302639</v>
       </c>
       <c r="DN2">
-        <v>0.007425917597387667</v>
+        <v>0.007429234519850049</v>
       </c>
       <c r="DO2">
-        <v>0.003850628191229787</v>
+        <v>0.003848379452210373</v>
       </c>
       <c r="DP2">
-        <v>2.669426455271217E-05</v>
+        <v>1.849279853783321E-05</v>
       </c>
       <c r="DQ2">
-        <v>0.0003529566308636858</v>
+        <v>0.0003452630582467535</v>
       </c>
       <c r="DR2">
-        <v>0.0009008770111569863</v>
+        <v>0.0008940363874930637</v>
       </c>
       <c r="DS2">
-        <v>0.0004459986258192109</v>
+        <v>0.0004384498918960699</v>
       </c>
       <c r="DT2">
-        <v>4.499847056030969E-08</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001052567642932748</v>
+        <v>0.001045963156434384</v>
       </c>
       <c r="DV2">
-        <v>0.005225502116687996</v>
+        <v>0.00522539364716287</v>
       </c>
       <c r="DW2">
-        <v>0.006254905060876668</v>
+        <v>0.006256399065351507</v>
       </c>
       <c r="DX2">
-        <v>0.000355867180705884</v>
+        <v>0.0003481781389487807</v>
       </c>
       <c r="DY2">
-        <v>0.001473268020123558</v>
+        <v>0.001467318438898227</v>
       </c>
       <c r="DZ2">
-        <v>0.004977706130122796</v>
+        <v>0.004977211915998815</v>
       </c>
       <c r="EA2">
-        <v>0.0001436837922098696</v>
+        <v>0.0001356644440696257</v>
       </c>
       <c r="EB2">
-        <v>0.0009507002484557106</v>
+        <v>0.0009439371847432299</v>
       </c>
       <c r="EC2">
-        <v>0.0004619658349535138</v>
+        <v>0.0004544419572226288</v>
       </c>
       <c r="ED2">
-        <v>7.564967589848768E-05</v>
+        <v>6.752441888833526E-05</v>
       </c>
       <c r="EE2">
-        <v>0.004534814254135145</v>
+        <v>0.004533630589179424</v>
       </c>
       <c r="EF2">
-        <v>0.008969768513684421</v>
+        <v>0.008975488752522721</v>
       </c>
       <c r="EG2">
-        <v>0.002671484455159639</v>
+        <v>0.00266740014029508</v>
       </c>
       <c r="EH2">
-        <v>0.006430797351340284</v>
+        <v>0.006432565167760049</v>
       </c>
       <c r="EI2">
-        <v>0.005971862676222428</v>
+        <v>0.005972916067947073</v>
       </c>
       <c r="EJ2">
-        <v>0.003710688098816944</v>
+        <v>0.003708221514724413</v>
       </c>
       <c r="EK2">
-        <v>0.002409944169339616</v>
+        <v>0.002405452714093018</v>
       </c>
       <c r="EL2">
-        <v>0.0007476958594620368</v>
+        <v>0.0007406167783366688</v>
       </c>
       <c r="EM2">
-        <v>0.002550932661695617</v>
+        <v>0.00254666068356881</v>
       </c>
       <c r="EN2">
-        <v>9.716998473171717E-05</v>
+        <v>8.907822843726713E-05</v>
       </c>
       <c r="EO2">
-        <v>0.00038439344915927</v>
+        <v>0.000376748814311794</v>
       </c>
       <c r="EP2">
-        <v>0.001399635224115721</v>
+        <v>0.001393571018542545</v>
       </c>
       <c r="EQ2">
-        <v>0.0009176159502494481</v>
+        <v>0.0009108013841316343</v>
       </c>
       <c r="ER2">
-        <v>0.002340187473121627</v>
+        <v>0.002335587427460902</v>
       </c>
       <c r="ES2">
-        <v>0.004323194065608597</v>
+        <v>0.00432168097100446</v>
       </c>
       <c r="ET2">
-        <v>0.002713872852861459</v>
+        <v>0.002709854524115942</v>
       </c>
       <c r="EU2">
-        <v>0.001921709795810308</v>
+        <v>0.001916458304958715</v>
       </c>
       <c r="EV2">
-        <v>0.003577370806045033</v>
+        <v>0.003574696686607262</v>
       </c>
       <c r="EW2">
-        <v>0.01078701641515836</v>
+        <v>0.01079556556810657</v>
       </c>
       <c r="EX2">
-        <v>0.02470575466052358</v>
+        <v>0.02473597114624602</v>
       </c>
       <c r="EY2">
-        <v>0.03221412225344104</v>
+        <v>0.03225602703276878</v>
       </c>
       <c r="EZ2">
-        <v>0.01259537531711423</v>
+        <v>0.01260673954664577</v>
       </c>
       <c r="FA2">
-        <v>0.000341064861508424</v>
+        <v>0.0003333527769459869</v>
       </c>
       <c r="FB2">
-        <v>0.002004805891305072</v>
+        <v>0.001999683756342036</v>
       </c>
       <c r="FC2">
-        <v>0.0251068706387762</v>
+        <v>0.02513771154269149</v>
       </c>
       <c r="FD2">
-        <v>0.04128813476147365</v>
+        <v>0.04134416507755215</v>
       </c>
       <c r="FE2">
-        <v>0.04093919778039203</v>
+        <v>0.0409946849054461</v>
       </c>
       <c r="FF2">
-        <v>0.03418924514635544</v>
+        <v>0.03423422460416599</v>
       </c>
       <c r="FG2">
-        <v>0.02709300253109373</v>
+        <v>0.02712693525122726</v>
       </c>
       <c r="FH2">
-        <v>0.01124604139027132</v>
+        <v>0.01125530510848487</v>
       </c>
       <c r="FI2">
-        <v>0.0004112792177015994</v>
+        <v>0.0004036764359936558</v>
       </c>
       <c r="FJ2">
-        <v>0.000257257686052213</v>
+        <v>0.0002494151386613594</v>
       </c>
       <c r="FK2">
-        <v>0.001617254112317038</v>
+        <v>0.00161152867458226</v>
       </c>
       <c r="FL2">
-        <v>0.0002804634447940621</v>
+        <v>0.0002726570218627734</v>
       </c>
       <c r="FM2">
-        <v>0.0001189041535533518</v>
+        <v>0.0001108462308909543</v>
       </c>
       <c r="FN2">
-        <v>0.001280777230559866</v>
+        <v>0.001274527998466768</v>
       </c>
       <c r="FO2">
-        <v>0.005934234678262513</v>
+        <v>0.005935229494393663</v>
       </c>
       <c r="FP2">
-        <v>0.01899067797037894</v>
+        <v>0.01901199778268942</v>
       </c>
       <c r="FQ2">
-        <v>0.02552832661592604</v>
+        <v>0.02555982360135861</v>
       </c>
       <c r="FR2">
-        <v>0.008470685540743293</v>
+        <v>0.008475628855936215</v>
       </c>
       <c r="FS2">
-        <v>0.007741164880295848</v>
+        <v>0.007744972548949769</v>
       </c>
       <c r="FT2">
-        <v>0.004379954462531207</v>
+        <v>0.004378529726971321</v>
       </c>
       <c r="FU2">
-        <v>0.0007763740579071856</v>
+        <v>0.0007693396202012226</v>
       </c>
       <c r="FV2">
-        <v>7.244218607238873E-05</v>
+        <v>6.431193595523142E-05</v>
       </c>
       <c r="FW2">
-        <v>0.002014760490765362</v>
+        <v>0.00200965385215087</v>
       </c>
       <c r="FX2">
-        <v>0.002158003882999109</v>
+        <v>0.002153120231712385</v>
       </c>
       <c r="FY2">
-        <v>0.003246037624008984</v>
+        <v>0.003242847717422425</v>
       </c>
       <c r="FZ2">
-        <v>0.003190924226997077</v>
+        <v>0.003187648525254928</v>
       </c>
       <c r="GA2">
-        <v>0.001783824403286066</v>
+        <v>0.001778358265917536</v>
       </c>
       <c r="GB2">
-        <v>0.004792580740159773</v>
+        <v>0.004791798340903018</v>
       </c>
       <c r="GC2">
-        <v>0.004777220740992549</v>
+        <v>0.004776414430788731</v>
       </c>
       <c r="GD2">
-        <v>0.001707291407435469</v>
+        <v>0.001701706130971134</v>
       </c>
       <c r="GE2">
-        <v>0.0001136871938362006</v>
+        <v>0.0001056211499202622</v>
       </c>
       <c r="GF2">
-        <v>3.282853022012957E-07</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.002652052156213203</v>
+        <v>0.002647937591042875</v>
       </c>
       <c r="GH2">
-        <v>0.003603982104602243</v>
+        <v>0.003601349411035929</v>
       </c>
       <c r="GI2">
-        <v>0.003570733206404904</v>
+        <v>0.003568048754200062</v>
       </c>
       <c r="GJ2">
-        <v>0.000694362762353607</v>
+        <v>0.0006872006574697231</v>
       </c>
       <c r="GK2">
-        <v>7.16318461163231E-08</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0004516259955141107</v>
+        <v>0.0004440860217306946</v>
       </c>
       <c r="GM2">
-        <v>0.001252691932082572</v>
+        <v>0.001246398979538852</v>
       </c>
       <c r="GN2">
-        <v>0.0007775887578413281</v>
+        <v>0.0007705562110616279</v>
       </c>
       <c r="GO2">
-        <v>0.0005031561327202918</v>
+        <v>0.0004956963760234438</v>
       </c>
       <c r="GP2">
-        <v>4.385071862253757E-07</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0001679173508959943</v>
+        <v>0.0001599357271939214</v>
       </c>
       <c r="GR2">
-        <v>0.0007495412893619828</v>
+        <v>0.0007424650810217083</v>
       </c>
       <c r="GS2">
-        <v>0.001379974825181653</v>
+        <v>0.001373880014218916</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>5.947895128719358E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9.069802038818275E-07</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.90082358766857E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.539501754089253E-05</v>
+        <v>7.127859932035045E-05</v>
       </c>
       <c r="F3">
-        <v>0.0001532737655861984</v>
+        <v>0.0001393403742765469</v>
       </c>
       <c r="G3">
-        <v>8.364580359126438E-05</v>
+        <v>6.952466882489749E-05</v>
       </c>
       <c r="H3">
-        <v>4.090981582192619E-06</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.272208348177009E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.595943867651296E-05</v>
+        <v>3.173668714272373E-05</v>
       </c>
       <c r="K3">
-        <v>7.537760182936254E-05</v>
+        <v>6.123417284763844E-05</v>
       </c>
       <c r="L3">
-        <v>0.0003263319306026685</v>
+        <v>0.0003128651698992002</v>
       </c>
       <c r="M3">
-        <v>0.0003450680700631267</v>
+        <v>0.0003316518291147543</v>
       </c>
       <c r="N3">
-        <v>0.0003949049186279825</v>
+        <v>0.0003816230567703271</v>
       </c>
       <c r="O3">
-        <v>0.0002132810538581776</v>
+        <v>0.000199509465011294</v>
       </c>
       <c r="P3">
-        <v>9.580426724113892E-05</v>
+        <v>8.171591631518001E-05</v>
       </c>
       <c r="Q3">
-        <v>1.430809558797192E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.272947905749411E-05</v>
+        <v>1.847105452280245E-05</v>
       </c>
       <c r="S3">
-        <v>5.276726848046891E-07</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2.28393663422982E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.662908952113461E-05</v>
+        <v>2.327252215202577E-06</v>
       </c>
       <c r="V3">
-        <v>2.051878540912362E-05</v>
+        <v>6.22743620209122E-06</v>
       </c>
       <c r="W3">
-        <v>0.0001055449509606379</v>
+        <v>9.148286462120249E-05</v>
       </c>
       <c r="X3">
-        <v>0.0001294917662710451</v>
+        <v>0.0001154942496497931</v>
       </c>
       <c r="Y3">
-        <v>4.821638861151991E-05</v>
+        <v>3.399972267280328E-05</v>
       </c>
       <c r="Z3">
-        <v>2.364621231906358E-05</v>
+        <v>9.363295843966365E-06</v>
       </c>
       <c r="AA3">
-        <v>8.557752753563681E-05</v>
+        <v>7.146160143142727E-05</v>
       </c>
       <c r="AB3">
-        <v>6.711609806726782E-05</v>
+        <v>5.295039293054042E-05</v>
       </c>
       <c r="AC3">
-        <v>4.323267875503506E-05</v>
+        <v>2.900257483983721E-05</v>
       </c>
       <c r="AD3">
-        <v>7.167236393606172E-05</v>
+        <v>5.751894422431895E-05</v>
       </c>
       <c r="AE3">
-        <v>0.0001952128443784851</v>
+        <v>0.0001813925367696676</v>
       </c>
       <c r="AF3">
-        <v>9.810628117484819E-05</v>
+        <v>8.402413735363483E-05</v>
       </c>
       <c r="AG3">
-        <v>2.493550928193589E-05</v>
+        <v>1.065606924161584E-05</v>
       </c>
       <c r="AH3">
-        <v>5.208961549998318E-05</v>
+        <v>3.788339325348226E-05</v>
       </c>
       <c r="AI3">
-        <v>6.403476815600041E-05</v>
+        <v>4.986075458237141E-05</v>
       </c>
       <c r="AJ3">
-        <v>3.562507897410996E-05</v>
+        <v>2.137446207764344E-05</v>
       </c>
       <c r="AK3">
-        <v>9.334141731206125E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.41655495920768E-06</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>5.492912241821432E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.246278148923717E-05</v>
+        <v>3.825756544011363E-05</v>
       </c>
       <c r="AO3">
-        <v>0.0003131489109822979</v>
+        <v>0.0002996466038460093</v>
       </c>
       <c r="AP3">
-        <v>0.0006963752499465866</v>
+        <v>0.0006839062667152366</v>
       </c>
       <c r="AQ3">
-        <v>0.0006344278817304758</v>
+        <v>0.0006217918648432482</v>
       </c>
       <c r="AR3">
-        <v>0.0005278954447982743</v>
+        <v>0.0005149721759595475</v>
       </c>
       <c r="AS3">
-        <v>0.0005510958841301747</v>
+        <v>0.0005382351724962359</v>
       </c>
       <c r="AT3">
-        <v>0.0003625135195607527</v>
+        <v>0.0003491443181766415</v>
       </c>
       <c r="AU3">
-        <v>0.0001477302857458332</v>
+        <v>0.0001337819471070104</v>
       </c>
       <c r="AV3">
-        <v>5.596469638839305E-05</v>
+        <v>4.176892283319656E-05</v>
       </c>
       <c r="AW3">
-        <v>1.874567146018372E-05</v>
+        <v>4.449541263842043E-06</v>
       </c>
       <c r="AX3">
-        <v>2.067548940461104E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.81157074783247E-05</v>
+        <v>3.817878659588057E-06</v>
       </c>
       <c r="AZ3">
-        <v>5.140526451969033E-05</v>
+        <v>3.719719700276981E-05</v>
       </c>
       <c r="BA3">
-        <v>5.899920830100868E-05</v>
+        <v>4.481161694359014E-05</v>
       </c>
       <c r="BB3">
-        <v>0.0001152893426800301</v>
+        <v>0.0001012535309252956</v>
       </c>
       <c r="BC3">
-        <v>0.0002546510926668508</v>
+        <v>0.0002409910531726676</v>
       </c>
       <c r="BD3">
-        <v>0.0004048112483427113</v>
+        <v>0.000391556097716158</v>
       </c>
       <c r="BE3">
-        <v>0.0003919941587118032</v>
+        <v>0.0003787044483388004</v>
       </c>
       <c r="BF3">
-        <v>0.0001751537749561231</v>
+        <v>0.0001612793804700806</v>
       </c>
       <c r="BG3">
-        <v>0.0002400643530869029</v>
+        <v>0.0002263649821972218</v>
       </c>
       <c r="BH3">
-        <v>0.0003826329889813754</v>
+        <v>0.0003693180373358474</v>
       </c>
       <c r="BI3">
-        <v>0.000509388325331221</v>
+        <v>0.0004964151542623695</v>
       </c>
       <c r="BJ3">
-        <v>0.00033708722029295</v>
+        <v>0.0003236494599394357</v>
       </c>
       <c r="BK3">
-        <v>0.0001456648558053111</v>
+        <v>0.0001317109479821329</v>
       </c>
       <c r="BL3">
-        <v>0.0001468153157721814</v>
+        <v>0.0001328645100264561</v>
       </c>
       <c r="BM3">
-        <v>1.771305248991989E-05</v>
+        <v>3.414137960253035E-06</v>
       </c>
       <c r="BN3">
-        <v>7.130437794665856E-05</v>
+        <v>5.714996600478734E-05</v>
       </c>
       <c r="BO3">
-        <v>4.844377460497191E-06</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1.87297884606411E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>6.236527220407664E-05</v>
+        <v>4.818675703465184E-05</v>
       </c>
       <c r="BR3">
-        <v>0.000178369544863519</v>
+        <v>0.0001645038213157191</v>
       </c>
       <c r="BS3">
-        <v>8.782973747078026E-05</v>
+        <v>7.371988418080162E-05</v>
       </c>
       <c r="BT3">
-        <v>0.0004077690682575355</v>
+        <v>0.0003945218930379773</v>
       </c>
       <c r="BU3">
-        <v>0.0003131489109822979</v>
+        <v>0.0002996466038460093</v>
       </c>
       <c r="BV3">
-        <v>0.0003486115499610857</v>
+        <v>0.0003352048635816793</v>
       </c>
       <c r="BW3">
-        <v>0.0005471944842425228</v>
+        <v>0.0005343232529512517</v>
       </c>
       <c r="BX3">
-        <v>0.0006136340523292725</v>
+        <v>0.0006009419673725758</v>
       </c>
       <c r="BY3">
-        <v>0.0004819465261214584</v>
+        <v>0.0004688993615291068</v>
       </c>
       <c r="BZ3">
-        <v>0.000521358384986521</v>
+        <v>0.0005084174897492807</v>
       </c>
       <c r="CA3">
-        <v>0.0004247517377684881</v>
+        <v>0.0004115503542824072</v>
       </c>
       <c r="CB3">
-        <v>0.0001999499142420724</v>
+        <v>0.0001861423795745476</v>
       </c>
       <c r="CC3">
-        <v>2.531341227105347E-05</v>
+        <v>1.103499120086334E-05</v>
       </c>
       <c r="CD3">
-        <v>2.173981937396169E-05</v>
+        <v>7.451762538711509E-06</v>
       </c>
       <c r="CE3">
-        <v>2.019685341839425E-05</v>
+        <v>5.904636160322653E-06</v>
       </c>
       <c r="CF3">
-        <v>0.0002803162919277739</v>
+        <v>0.0002667254555682005</v>
       </c>
       <c r="CG3">
-        <v>0.0004647831566157094</v>
+        <v>0.000451689713053996</v>
       </c>
       <c r="CH3">
-        <v>0.0002851150917895836</v>
+        <v>0.0002715371948188466</v>
       </c>
       <c r="CI3">
-        <v>0.0003323009904307784</v>
+        <v>0.0003188503245819255</v>
       </c>
       <c r="CJ3">
-        <v>0.0004197814179116177</v>
+        <v>0.0004065666325535852</v>
       </c>
       <c r="CK3">
-        <v>0.0004350233474726981</v>
+        <v>0.0004218496601514431</v>
       </c>
       <c r="CL3">
-        <v>0.0005521180841007386</v>
+        <v>0.0005392601287065407</v>
       </c>
       <c r="CM3">
-        <v>0.001450882958219142</v>
+        <v>0.001440448414618234</v>
       </c>
       <c r="CN3">
-        <v>0.1440128158528846</v>
+        <v>0.144386782479601</v>
       </c>
       <c r="CO3">
-        <v>0.001278609163180084</v>
+        <v>0.001267710103932655</v>
       </c>
       <c r="CP3">
-        <v>0.03919911687118893</v>
+        <v>0.03929046591735093</v>
       </c>
       <c r="CQ3">
-        <v>0.03459626300373662</v>
+        <v>0.03467520100595777</v>
       </c>
       <c r="CR3">
-        <v>0.01556750755170483</v>
+        <v>0.01559513679487002</v>
       </c>
       <c r="CS3">
-        <v>0.005877900830734974</v>
+        <v>0.005879403210383194</v>
       </c>
       <c r="CT3">
-        <v>0.003920181887111112</v>
+        <v>0.003916405512201217</v>
       </c>
       <c r="CU3">
-        <v>0.001963185543466441</v>
+        <v>0.001954132362402693</v>
       </c>
       <c r="CV3">
-        <v>0.000178369544863519</v>
+        <v>0.0001645038213157191</v>
       </c>
       <c r="CW3">
-        <v>0.0008323528260308609</v>
+        <v>0.0008202504900406248</v>
       </c>
       <c r="CX3">
-        <v>0.01881913045806833</v>
+        <v>0.01885552731279194</v>
       </c>
       <c r="CY3">
-        <v>0.04862932859962854</v>
+        <v>0.04874610508179081</v>
       </c>
       <c r="CZ3">
-        <v>0.004578329468158535</v>
+        <v>0.004576327709341865</v>
       </c>
       <c r="DA3">
-        <v>0.005046770254668916</v>
+        <v>0.005046031590304621</v>
       </c>
       <c r="DB3">
-        <v>0.03090406711006023</v>
+        <v>0.03097304954845202</v>
       </c>
       <c r="DC3">
-        <v>0.005585914339143265</v>
+        <v>0.005586629412202652</v>
       </c>
       <c r="DD3">
-        <v>0.01106868068125687</v>
+        <v>0.01108417937681415</v>
       </c>
       <c r="DE3">
-        <v>0.01756556949416694</v>
+        <v>0.01759858627195273</v>
       </c>
       <c r="DF3">
-        <v>0.01290033162851109</v>
+        <v>0.01292076915137971</v>
       </c>
       <c r="DG3">
-        <v>0.006882068501818109</v>
+        <v>0.0068862784992723</v>
       </c>
       <c r="DH3">
-        <v>0.006653158308410001</v>
+        <v>0.006656751076955626</v>
       </c>
       <c r="DI3">
-        <v>0.01425793858941629</v>
+        <v>0.01428203673678688</v>
       </c>
       <c r="DJ3">
-        <v>0.002818125718846858</v>
+        <v>0.002811377781527317</v>
       </c>
       <c r="DK3">
-        <v>0.007616565380666913</v>
+        <v>0.007622755860947698</v>
       </c>
       <c r="DL3">
-        <v>0.002151015938057518</v>
+        <v>0.002142469219146996</v>
       </c>
       <c r="DM3">
-        <v>0.01732369050113229</v>
+        <v>0.01735605508119524</v>
       </c>
       <c r="DN3">
-        <v>0.0004044141283541472</v>
+        <v>0.0003911579069411276</v>
       </c>
       <c r="DO3">
-        <v>7.805014775240164E-05</v>
+        <v>6.391392497053526E-05</v>
       </c>
       <c r="DP3">
-        <v>0.0007717430477762315</v>
+        <v>0.0007594772847811795</v>
       </c>
       <c r="DQ3">
-        <v>1.65206195242582E-06</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.005053531254474221</v>
+        <v>0.005052810820335799</v>
       </c>
       <c r="DS3">
-        <v>0.002041941241198525</v>
+        <v>0.002033100415437225</v>
       </c>
       <c r="DT3">
-        <v>0.0009892793715118708</v>
+        <v>0.0009776001691486271</v>
       </c>
       <c r="DU3">
-        <v>0.005339827246229798</v>
+        <v>0.005339878774929235</v>
       </c>
       <c r="DV3">
-        <v>0.007918393771975207</v>
+        <v>0.007925398096348155</v>
       </c>
       <c r="DW3">
-        <v>0.01971704943221109</v>
+        <v>0.01975586741786007</v>
       </c>
       <c r="DX3">
-        <v>0.00363780489524268</v>
+        <v>0.003633267124608548</v>
       </c>
       <c r="DY3">
-        <v>0.004522177869775524</v>
+        <v>0.004520024704901883</v>
       </c>
       <c r="DZ3">
-        <v>0.01023145870536622</v>
+        <v>0.01024469993218123</v>
       </c>
       <c r="EA3">
-        <v>2.173981937396169E-05</v>
+        <v>7.451762538711509E-06</v>
       </c>
       <c r="EB3">
-        <v>0.001065631469313171</v>
+        <v>0.00105415814123316</v>
       </c>
       <c r="EC3">
-        <v>0.00149545665693556</v>
+        <v>0.001485142300972432</v>
       </c>
       <c r="ED3">
-        <v>0.0003919941587118032</v>
+        <v>0.0003787044483388004</v>
       </c>
       <c r="EE3">
-        <v>0.007687655778619733</v>
+        <v>0.007694037945640565</v>
       </c>
       <c r="EF3">
-        <v>0.0129517086270316</v>
+        <v>0.01297228468182075</v>
       </c>
       <c r="EG3">
-        <v>0.001264335963591107</v>
+        <v>0.001253398418371197</v>
       </c>
       <c r="EH3">
-        <v>0.003810761390262078</v>
+        <v>0.003806689976093164</v>
       </c>
       <c r="EI3">
-        <v>0.01230760564557973</v>
+        <v>0.01232644495385565</v>
       </c>
       <c r="EJ3">
-        <v>0.004959578457179765</v>
+        <v>0.004958604690580838</v>
       </c>
       <c r="EK3">
-        <v>0.001778253848791891</v>
+        <v>0.00176870202157192</v>
       </c>
       <c r="EL3">
-        <v>0.003514314198798823</v>
+        <v>0.003509443450298353</v>
       </c>
       <c r="EM3">
-        <v>0.005963914428258053</v>
+        <v>0.005965648733265868</v>
       </c>
       <c r="EN3">
-        <v>0.0005908718829847513</v>
+        <v>0.0005781184225657742</v>
       </c>
       <c r="EO3">
-        <v>6.479831813401257E-05</v>
+        <v>5.062636338141092E-05</v>
       </c>
       <c r="EP3">
-        <v>6.664308808088902E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>9.143225736703905E-05</v>
+        <v>7.733211784030769E-05</v>
       </c>
       <c r="ER3">
-        <v>0.0007447811485526493</v>
+        <v>0.0007324426860269085</v>
       </c>
       <c r="ES3">
-        <v>0.001922302544643743</v>
+        <v>0.001913139127472259</v>
       </c>
       <c r="ET3">
-        <v>0.002156346937904001</v>
+        <v>0.002147814593395807</v>
       </c>
       <c r="EU3">
-        <v>0.003391099902347006</v>
+        <v>0.003385896921259659</v>
       </c>
       <c r="EV3">
-        <v>0.00748841778435716</v>
+        <v>0.007494262729999107</v>
       </c>
       <c r="EW3">
-        <v>0.02148143938140222</v>
+        <v>0.02152501483314045</v>
       </c>
       <c r="EX3">
-        <v>0.0299540231374185</v>
+        <v>0.03002044389607208</v>
       </c>
       <c r="EY3">
-        <v>0.03210289307553782</v>
+        <v>0.03217510800450251</v>
       </c>
       <c r="EZ3">
-        <v>0.02013671342012609</v>
+        <v>0.02017666297943445</v>
       </c>
       <c r="FA3">
-        <v>0.0001055449509606379</v>
+        <v>9.148286462120249E-05</v>
       </c>
       <c r="FB3">
-        <v>0.003890456087967121</v>
+        <v>0.003886599561001572</v>
       </c>
       <c r="FC3">
-        <v>0.01497384656880039</v>
+        <v>0.01499987507625749</v>
       </c>
       <c r="FD3">
-        <v>0.03328620204146224</v>
+        <v>0.03336160762126978</v>
       </c>
       <c r="FE3">
-        <v>0.03988012585157802</v>
+        <v>0.03997331115685732</v>
       </c>
       <c r="FF3">
-        <v>0.03490662099479928</v>
+        <v>0.03498639584015632</v>
       </c>
       <c r="FG3">
-        <v>0.02495506728137268</v>
+        <v>0.02500800895453401</v>
       </c>
       <c r="FH3">
-        <v>0.008493924255401741</v>
+        <v>0.008502480428763339</v>
       </c>
       <c r="FI3">
-        <v>0.0002219927236073089</v>
+        <v>0.0002082446247340739</v>
       </c>
       <c r="FJ3">
-        <v>0.0009603199723458102</v>
+        <v>0.0009485626844326228</v>
       </c>
       <c r="FK3">
-        <v>0.0002546510926668508</v>
+        <v>0.0002409910531726676</v>
       </c>
       <c r="FL3">
-        <v>1.642941152688471E-07</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.00033708722029295</v>
+        <v>0.0003236494599394357</v>
       </c>
       <c r="FN3">
-        <v>0.005080618853694182</v>
+        <v>0.005079971458021428</v>
       </c>
       <c r="FO3">
-        <v>0.01113089867946518</v>
+        <v>0.01114656513839969</v>
       </c>
       <c r="FP3">
-        <v>0.01988773942729576</v>
+        <v>0.01992701765806445</v>
       </c>
       <c r="FQ3">
-        <v>0.0211584743907026</v>
+        <v>0.02120117900604098</v>
       </c>
       <c r="FR3">
-        <v>0.007886679772888469</v>
+        <v>0.007893598584262843</v>
       </c>
       <c r="FS3">
-        <v>0.004453665871748454</v>
+        <v>0.004451327972481223</v>
       </c>
       <c r="FT3">
-        <v>0.001516685556324234</v>
+        <v>0.001506428441544667</v>
       </c>
       <c r="FU3">
-        <v>0.0006555681311217032</v>
+        <v>0.00064298911638394</v>
       </c>
       <c r="FV3">
-        <v>0.001476359857485487</v>
+        <v>0.001465994009290816</v>
       </c>
       <c r="FW3">
-        <v>0.002941926415281787</v>
+        <v>0.002935512291706417</v>
       </c>
       <c r="FX3">
-        <v>0.002582132725642712</v>
+        <v>0.002574748461493615</v>
       </c>
       <c r="FY3">
-        <v>0.005070740253978656</v>
+        <v>0.005070066221845419</v>
       </c>
       <c r="FZ3">
-        <v>0.006108038824107724</v>
+        <v>0.006110161743280001</v>
       </c>
       <c r="GA3">
-        <v>0.005116570852658879</v>
+        <v>0.005116020397243574</v>
       </c>
       <c r="GB3">
-        <v>0.004348223874784851</v>
+        <v>0.00434560166380684</v>
       </c>
       <c r="GC3">
-        <v>0.004527249269629483</v>
+        <v>0.004525109779177896</v>
       </c>
       <c r="GD3">
-        <v>0.001893391645476286</v>
+        <v>0.001884150273529293</v>
       </c>
       <c r="GE3">
-        <v>0.0002241844835441932</v>
+        <v>0.0002104422944890118</v>
       </c>
       <c r="GF3">
-        <v>0.0001284114563021546</v>
+        <v>0.0001144110267545139</v>
       </c>
       <c r="GG3">
-        <v>0.002918533615955426</v>
+        <v>0.002912056416499591</v>
       </c>
       <c r="GH3">
-        <v>0.003466302200181417</v>
+        <v>0.00346130199307946</v>
       </c>
       <c r="GI3">
-        <v>0.00330030650496157</v>
+        <v>0.003294858710357014</v>
       </c>
       <c r="GJ3">
-        <v>0.0002867237117432604</v>
+        <v>0.0002731501522234841</v>
       </c>
       <c r="GK3">
-        <v>5.899920830100868E-05</v>
+        <v>4.481161694359014E-05</v>
       </c>
       <c r="GL3">
-        <v>0.0003189967108138997</v>
+        <v>0.0003055101715691751</v>
       </c>
       <c r="GM3">
-        <v>6.59849680998408E-05</v>
+        <v>5.181621300668792E-05</v>
       </c>
       <c r="GN3">
-        <v>0.0001090356718601162</v>
+        <v>9.498299783132891E-05</v>
       </c>
       <c r="GO3">
-        <v>2.786731519750912E-05</v>
+        <v>1.35957804205522E-05</v>
       </c>
       <c r="GP3">
-        <v>0.0005942472328875518</v>
+        <v>0.0005815028736951541</v>
       </c>
       <c r="GQ3">
-        <v>0.0009862892715979763</v>
+        <v>0.0009746020067885878</v>
       </c>
       <c r="GR3">
-        <v>0.0009405232729158928</v>
+        <v>0.0009287126055747279</v>
       </c>
       <c r="GS3">
-        <v>0.002041941241198525</v>
+        <v>0.002033100415437225</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0005057482990703502</v>
+        <v>0.0004820387027005491</v>
       </c>
       <c r="C4">
-        <v>0.0001129491497923806</v>
+        <v>8.737628100864811E-05</v>
       </c>
       <c r="D4">
-        <v>2.014119296297713E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4.48779719175068E-05</v>
+        <v>1.898220236336475E-05</v>
       </c>
       <c r="F4">
-        <v>3.027547294434863E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.037846488901431E-05</v>
+        <v>3.455622309329342E-05</v>
       </c>
       <c r="H4">
-        <v>2.598538795223452E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.1989114922817E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3.982280392679904E-05</v>
+        <v>1.390305480171802E-05</v>
       </c>
       <c r="K4">
-        <v>7.688872585866568E-05</v>
+        <v>5.114480173208462E-05</v>
       </c>
       <c r="L4">
-        <v>3.421042993711552E-05</v>
+        <v>8.264058092380282E-06</v>
       </c>
       <c r="M4">
-        <v>8.069971985166045E-05</v>
+        <v>5.497387346274725E-05</v>
       </c>
       <c r="N4">
-        <v>0.0001875677596552192</v>
+        <v>0.0001623488498797455</v>
       </c>
       <c r="O4">
-        <v>0.0002197097595961368</v>
+        <v>0.0001946433178235307</v>
       </c>
       <c r="P4">
-        <v>0.0001457983997319982</v>
+        <v>0.0001203813538448869</v>
       </c>
       <c r="Q4">
-        <v>0.0001004906498152814</v>
+        <v>7.485868319651295E-05</v>
       </c>
       <c r="R4">
-        <v>0.0001063852198044462</v>
+        <v>8.078121452335627E-05</v>
       </c>
       <c r="S4">
-        <v>0.0002016410396293501</v>
+        <v>0.0001764888875197154</v>
       </c>
       <c r="T4">
-        <v>0.0003467957393625315</v>
+        <v>0.0003223321395276726</v>
       </c>
       <c r="U4">
-        <v>0.0002693289395049284</v>
+        <v>0.000244497870057583</v>
       </c>
       <c r="V4">
-        <v>0.000113360219791625</v>
+        <v>8.778930094946235E-05</v>
       </c>
       <c r="W4">
-        <v>3.768470193072923E-05</v>
+        <v>1.175481055744128E-05</v>
       </c>
       <c r="X4">
-        <v>9.091348983288582E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>2.159392996030675E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.224735097748732E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.720852991322285E-05</v>
+        <v>2.132381553684904E-05</v>
       </c>
       <c r="AB4">
-        <v>6.966937687193606E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>3.850621192921916E-05</v>
+        <v>1.25802174506184E-05</v>
       </c>
       <c r="AD4">
-        <v>0.0002924225994624784</v>
+        <v>0.0002677010765343011</v>
       </c>
       <c r="AE4">
-        <v>0.000219137339597189</v>
+        <v>0.0001940681825071104</v>
       </c>
       <c r="AF4">
-        <v>0.000176903969674821</v>
+        <v>0.0001516344754066493</v>
       </c>
       <c r="AG4">
-        <v>0.0004544928691645662</v>
+        <v>0.0004305401387941361</v>
       </c>
       <c r="AH4">
-        <v>0.0005038189690738966</v>
+        <v>0.0004801002207816273</v>
       </c>
       <c r="AI4">
-        <v>0.0002229674995901485</v>
+        <v>0.0001979165111531053</v>
       </c>
       <c r="AJ4">
-        <v>0.0002578968995259425</v>
+        <v>0.0002330116013340415</v>
       </c>
       <c r="AK4">
-        <v>0.0001648389396969985</v>
+        <v>0.0001395122140484324</v>
       </c>
       <c r="AL4">
-        <v>0.0001120383697940548</v>
+        <v>8.646118065665256E-05</v>
       </c>
       <c r="AM4">
-        <v>5.744566789440527E-05</v>
+        <v>3.160951415476657E-05</v>
       </c>
       <c r="AN4">
-        <v>3.152784494204656E-05</v>
+        <v>5.568748052899883E-06</v>
       </c>
       <c r="AO4">
-        <v>4.799664991177414E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>7.427629986346776E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>4.747441991273409E-05</v>
+        <v>2.159096680564293E-05</v>
       </c>
       <c r="AR4">
-        <v>7.993014985307503E-05</v>
+        <v>5.420065295078473E-05</v>
       </c>
       <c r="AS4">
-        <v>0.0001090589397995315</v>
+        <v>8.34676175110564E-05</v>
       </c>
       <c r="AT4">
-        <v>3.522233193525547E-05</v>
+        <v>9.280760124028968E-06</v>
       </c>
       <c r="AU4">
-        <v>0.0001126755397928835</v>
+        <v>8.710137311946575E-05</v>
       </c>
       <c r="AV4">
-        <v>0.0002065480796203302</v>
+        <v>0.0001814192044252867</v>
       </c>
       <c r="AW4">
-        <v>0.0002322952995730025</v>
+        <v>0.0002072885582592605</v>
       </c>
       <c r="AX4">
-        <v>0.0001282175497643147</v>
+        <v>0.000102717107788341</v>
       </c>
       <c r="AY4">
-        <v>0.0001476185697286524</v>
+        <v>0.0001222101579553106</v>
       </c>
       <c r="AZ4">
-        <v>0.0002640700995145951</v>
+        <v>0.0002392140843628068</v>
       </c>
       <c r="BA4">
-        <v>0.0003019707794449273</v>
+        <v>0.0002772945490292141</v>
       </c>
       <c r="BB4">
-        <v>0.0001457983997319982</v>
+        <v>0.0001203813538448869</v>
       </c>
       <c r="BC4">
-        <v>5.660268289595482E-05</v>
+        <v>3.076253039334563E-05</v>
       </c>
       <c r="BD4">
-        <v>9.312027982882938E-07</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1.861298196578623E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>5.550970689796389E-05</v>
+        <v>2.966436978120804E-05</v>
       </c>
       <c r="BG4">
-        <v>9.190201983106874E-05</v>
+        <v>6.622931239768176E-05</v>
       </c>
       <c r="BH4">
-        <v>5.066206390687467E-05</v>
+        <v>2.479373162967999E-05</v>
       </c>
       <c r="BI4">
-        <v>3.104751994292947E-05</v>
+        <v>5.086144595893513E-06</v>
       </c>
       <c r="BJ4">
-        <v>0.0001492401497256717</v>
+        <v>0.0001238394300394461</v>
       </c>
       <c r="BK4">
-        <v>0.0002252170795860134</v>
+        <v>0.0002001767622014838</v>
       </c>
       <c r="BL4">
-        <v>4.89951669099387E-05</v>
+        <v>2.311892758101805E-05</v>
       </c>
       <c r="BM4">
-        <v>6.604368987860068E-05</v>
+        <v>4.024832150524135E-05</v>
       </c>
       <c r="BN4">
-        <v>0.0001692784896888379</v>
+        <v>0.0001439728233807649</v>
       </c>
       <c r="BO4">
-        <v>0.0001974560696370428</v>
+        <v>0.000172284065806359</v>
       </c>
       <c r="BP4">
-        <v>0.0001138636197906997</v>
+        <v>8.829508886443038E-05</v>
       </c>
       <c r="BQ4">
-        <v>0.0001402021297422851</v>
+        <v>0.000114758537526059</v>
       </c>
       <c r="BR4">
-        <v>0.0001412207597404127</v>
+        <v>0.0001157819994724711</v>
       </c>
       <c r="BS4">
-        <v>1.023879598117938E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>9.773364982034922E-07</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1.946294196422386E-07</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>3.248076394029493E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>4.243841592199111E-05</v>
+        <v>1.653107414984135E-05</v>
       </c>
       <c r="BX4">
-        <v>0.0001189123137814193</v>
+        <v>9.336773171618135E-05</v>
       </c>
       <c r="BY4">
-        <v>0.0001253170797696463</v>
+        <v>9.980287919531912E-05</v>
       </c>
       <c r="BZ4">
-        <v>0.0001970942696377078</v>
+        <v>0.0001719205495814177</v>
       </c>
       <c r="CA4">
-        <v>0.0001820230196654113</v>
+        <v>0.000156777807997267</v>
       </c>
       <c r="CB4">
-        <v>0.0001207924997779632</v>
+        <v>9.525683651692039E-05</v>
       </c>
       <c r="CC4">
-        <v>0.0002479281995442665</v>
+        <v>0.0002229956140715434</v>
       </c>
       <c r="CD4">
-        <v>0.0002789255194872883</v>
+        <v>0.0002541399721414598</v>
       </c>
       <c r="CE4">
-        <v>0.000113360219791625</v>
+        <v>8.778930094946235E-05</v>
       </c>
       <c r="CF4">
-        <v>5.404794990065084E-05</v>
+        <v>2.819567882924165E-05</v>
       </c>
       <c r="CG4">
-        <v>3.928274992779175E-05</v>
+        <v>1.3360439015802E-05</v>
       </c>
       <c r="CH4">
-        <v>7.189010986785397E-05</v>
+        <v>4.612247442901412E-05</v>
       </c>
       <c r="CI4">
-        <v>7.916426985448285E-05</v>
+        <v>5.343113994260894E-05</v>
       </c>
       <c r="CJ4">
-        <v>2.867819994728468E-05</v>
+        <v>2.705585552007969E-06</v>
       </c>
       <c r="CK4">
-        <v>1.064073598044055E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>1.023879598117938E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01259691697684476</v>
+        <v>0.01263056275176561</v>
       </c>
       <c r="CN4">
-        <v>0.0859289798420482</v>
+        <v>0.08631048179243324</v>
       </c>
       <c r="CO4">
-        <v>0.005002080490805341</v>
+        <v>0.004999699585579937</v>
       </c>
       <c r="CP4">
-        <v>0.08778782983863131</v>
+        <v>0.08817814938428517</v>
       </c>
       <c r="CQ4">
-        <v>0.04955122990891657</v>
+        <v>0.04976017125662236</v>
       </c>
       <c r="CR4">
-        <v>0.0044517716918169</v>
+        <v>0.004446780355264993</v>
       </c>
       <c r="CS4">
-        <v>0.006014681388944012</v>
+        <v>0.006017103832512239</v>
       </c>
       <c r="CT4">
-        <v>0.000564729998961932</v>
+        <v>0.0005413001867376333</v>
       </c>
       <c r="CU4">
-        <v>0.002959245094560413</v>
+        <v>0.002947173845435277</v>
       </c>
       <c r="CV4">
-        <v>0.002817571994820832</v>
+        <v>0.002804828708653288</v>
       </c>
       <c r="CW4">
-        <v>0.03255083394016613</v>
+        <v>0.03267913262636742</v>
       </c>
       <c r="CX4">
-        <v>0.01487710797265339</v>
+        <v>0.01492157000567662</v>
       </c>
       <c r="CY4">
-        <v>9.190201983106874E-05</v>
+        <v>6.622931239768176E-05</v>
       </c>
       <c r="CZ4">
-        <v>0.02972182294536633</v>
+        <v>0.02983670200437389</v>
       </c>
       <c r="DA4">
-        <v>0.08717951983974949</v>
+        <v>0.08756695382100708</v>
       </c>
       <c r="DB4">
-        <v>0.001555345497141015</v>
+        <v>0.001536614744306135</v>
       </c>
       <c r="DC4">
-        <v>0.02506364095392884</v>
+        <v>0.02515642357505034</v>
       </c>
       <c r="DD4">
-        <v>0.001033449998100346</v>
+        <v>0.001012243594571963</v>
       </c>
       <c r="DE4">
-        <v>0.0009266306982966981</v>
+        <v>0.0009049175893567432</v>
       </c>
       <c r="DF4">
-        <v>0.03039474994412938</v>
+        <v>0.03051282108314956</v>
       </c>
       <c r="DG4">
-        <v>0.01540488497168325</v>
+        <v>0.01545185055473913</v>
       </c>
       <c r="DH4">
-        <v>0.0001253170797696463</v>
+        <v>9.980287919531912E-05</v>
       </c>
       <c r="DI4">
-        <v>0.0003641996593305403</v>
+        <v>0.0003398186163037352</v>
       </c>
       <c r="DJ4">
-        <v>0.001183460597824602</v>
+        <v>0.001162965780899135</v>
       </c>
       <c r="DK4">
-        <v>0.0001667185596935435</v>
+        <v>0.0001414007501643088</v>
       </c>
       <c r="DL4">
-        <v>0.005067582190684938</v>
+        <v>0.005065511997717123</v>
       </c>
       <c r="DM4">
-        <v>0.004728083491308993</v>
+        <v>0.00472440286063459</v>
       </c>
       <c r="DN4">
-        <v>0.004428883491858973</v>
+        <v>0.004423783583402915</v>
       </c>
       <c r="DO4">
-        <v>0.003158693994193793</v>
+        <v>0.003147568845978903</v>
       </c>
       <c r="DP4">
-        <v>0.0003745971793114279</v>
+        <v>0.0003502654577054795</v>
       </c>
       <c r="DQ4">
-        <v>8.863863983706739E-05</v>
+        <v>6.295045231435187E-05</v>
       </c>
       <c r="DR4">
-        <v>0.0001120383697940548</v>
+        <v>8.646118065665256E-05</v>
       </c>
       <c r="DS4">
-        <v>0.001251773197699032</v>
+        <v>0.001231602426747453</v>
       </c>
       <c r="DT4">
-        <v>0.002533400695343187</v>
+        <v>0.002519309421166704</v>
       </c>
       <c r="DU4">
-        <v>0.002279680495809567</v>
+        <v>0.002264385680715246</v>
       </c>
       <c r="DV4">
-        <v>0.007320848286543059</v>
+        <v>0.007329466631382357</v>
       </c>
       <c r="DW4">
-        <v>0.009860786981874226</v>
+        <v>0.009881453717634908</v>
       </c>
       <c r="DX4">
-        <v>0.004993278490821521</v>
+        <v>0.004990855832644799</v>
       </c>
       <c r="DY4">
-        <v>0.002458326995481185</v>
+        <v>0.002443879603542681</v>
       </c>
       <c r="DZ4">
-        <v>0.001457864097320202</v>
+        <v>0.001438670934107164</v>
       </c>
       <c r="EA4">
-        <v>1.247902497706147E-05</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.00164551439697527</v>
+        <v>0.001627211367122897</v>
       </c>
       <c r="EC4">
-        <v>6.990178987150884E-05</v>
+        <v>4.412472268668362E-05</v>
       </c>
       <c r="ED4">
-        <v>0.001715741596846181</v>
+        <v>0.001697771695017297</v>
       </c>
       <c r="EE4">
-        <v>0.001537447997173914</v>
+        <v>0.001518632346196997</v>
       </c>
       <c r="EF4">
-        <v>0.004210203992260943</v>
+        <v>0.004204066761092138</v>
       </c>
       <c r="EG4">
-        <v>0.004440319991837951</v>
+        <v>0.004435274333282795</v>
       </c>
       <c r="EH4">
-        <v>0.002577678795261796</v>
+        <v>0.002563797557594485</v>
       </c>
       <c r="EI4">
-        <v>0.0001262802097678759</v>
+        <v>0.0001007705778733945</v>
       </c>
       <c r="EJ4">
-        <v>0.0005390110990092076</v>
+        <v>0.0005154592872416647</v>
       </c>
       <c r="EK4">
-        <v>0.005406215290062474</v>
+        <v>0.005405751428762317</v>
       </c>
       <c r="EL4">
-        <v>0.001760491596763923</v>
+        <v>0.001742733969937476</v>
       </c>
       <c r="EM4">
-        <v>0.0002392836895601566</v>
+        <v>0.0002143100982018176</v>
       </c>
       <c r="EN4">
-        <v>5.343416990177907E-07</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0003753454693100524</v>
+        <v>0.000351017297274195</v>
       </c>
       <c r="EP4">
-        <v>0.0004577022291586669</v>
+        <v>0.0004337647226296182</v>
       </c>
       <c r="EQ4">
-        <v>0.0009952990981704742</v>
+        <v>0.0009739117229685603</v>
       </c>
       <c r="ER4">
-        <v>0.0001692784896888379</v>
+        <v>0.0001439728233807649</v>
       </c>
       <c r="ES4">
-        <v>2.835719994787473E-05</v>
+        <v>2.383062864871043E-06</v>
       </c>
       <c r="ET4">
-        <v>0.0002330156695716783</v>
+        <v>0.0002080123453874001</v>
       </c>
       <c r="EU4">
-        <v>0.001416359597396495</v>
+        <v>0.001396969554455219</v>
       </c>
       <c r="EV4">
-        <v>0.004420600991874197</v>
+        <v>0.00441546179475428</v>
       </c>
       <c r="EW4">
-        <v>0.01946036296422861</v>
+        <v>0.01952656601325839</v>
       </c>
       <c r="EX4">
-        <v>0.0280760659483915</v>
+        <v>0.02818313823485861</v>
       </c>
       <c r="EY4">
-        <v>0.02754620794936547</v>
+        <v>0.02765076681441936</v>
       </c>
       <c r="EZ4">
-        <v>0.005892106289169325</v>
+        <v>0.005893947288499538</v>
       </c>
       <c r="FA4">
-        <v>0.002715722995008048</v>
+        <v>0.002702496580422109</v>
       </c>
       <c r="FB4">
-        <v>0.01543687597162445</v>
+        <v>0.01548399330640329</v>
       </c>
       <c r="FC4">
-        <v>0.03011841694463732</v>
+        <v>0.0302351772772162</v>
       </c>
       <c r="FD4">
-        <v>0.04165939592342308</v>
+        <v>0.04183090176092594</v>
       </c>
       <c r="FE4">
-        <v>0.04147556792376098</v>
+        <v>0.04164620175927172</v>
       </c>
       <c r="FF4">
-        <v>0.03179533994155485</v>
+        <v>0.0319200548849474</v>
       </c>
       <c r="FG4">
-        <v>0.01152169097882121</v>
+        <v>0.01155023633806004</v>
       </c>
       <c r="FH4">
-        <v>1.179107297832604E-05</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.002648128695132297</v>
+        <v>0.002634581641882733</v>
       </c>
       <c r="FJ4">
-        <v>0.001373066697476074</v>
+        <v>0.001353471291396184</v>
       </c>
       <c r="FK4">
-        <v>0.0004632302991485054</v>
+        <v>0.0004393190154367242</v>
       </c>
       <c r="FL4">
-        <v>0.0001166291597856161</v>
+        <v>9.107374740706167E-05</v>
       </c>
       <c r="FM4">
-        <v>0.002652549395124171</v>
+        <v>0.002639023311798703</v>
       </c>
       <c r="FN4">
-        <v>0.01185871197820171</v>
+        <v>0.01188885602199018</v>
       </c>
       <c r="FO4">
-        <v>0.02152804996042785</v>
+        <v>0.0216040612387976</v>
       </c>
       <c r="FP4">
-        <v>0.02496245895411483</v>
+        <v>0.02505476161078278</v>
       </c>
       <c r="FQ4">
-        <v>0.0232396719572816</v>
+        <v>0.02332380244379037</v>
       </c>
       <c r="FR4">
-        <v>0.00645535498813398</v>
+        <v>0.006459867800182964</v>
       </c>
       <c r="FS4">
-        <v>0.002678040595077314</v>
+        <v>0.002664635431182954</v>
       </c>
       <c r="FT4">
-        <v>5.660268289595482E-05</v>
+        <v>3.076253039334563E-05</v>
       </c>
       <c r="FU4">
-        <v>0.001838809196619962</v>
+        <v>0.001821423075240014</v>
       </c>
       <c r="FV4">
-        <v>0.001192339597808281</v>
+        <v>0.001171886899089443</v>
       </c>
       <c r="FW4">
-        <v>0.003121401394262343</v>
+        <v>0.003110099345784751</v>
       </c>
       <c r="FX4">
-        <v>0.003917382992799196</v>
+        <v>0.003909856743116681</v>
       </c>
       <c r="FY4">
-        <v>0.005479068989928556</v>
+        <v>0.005478950715652868</v>
       </c>
       <c r="FZ4">
-        <v>0.006358780988311499</v>
+        <v>0.006362835694302711</v>
       </c>
       <c r="GA4">
-        <v>0.006425720588188453</v>
+        <v>0.006430092827224427</v>
       </c>
       <c r="GB4">
-        <v>0.002901141294667218</v>
+        <v>0.002888794425781487</v>
       </c>
       <c r="GC4">
-        <v>0.004615101991516673</v>
+        <v>0.004610885424569916</v>
       </c>
       <c r="GD4">
-        <v>0.002407289295575001</v>
+        <v>0.002392599802454556</v>
       </c>
       <c r="GE4">
-        <v>9.091348983288582E-06</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.000915034968318013</v>
+        <v>0.0008932668541576334</v>
       </c>
       <c r="GG4">
-        <v>0.00493429099092995</v>
+        <v>0.004931588521094989</v>
       </c>
       <c r="GH4">
-        <v>0.001669111296931895</v>
+        <v>0.001650920200755611</v>
       </c>
       <c r="GI4">
-        <v>0.0007422365986356451</v>
+        <v>0.0007196488023654816</v>
       </c>
       <c r="GJ4">
-        <v>5.62742138965586E-08</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0002087134596163498</v>
+        <v>0.000183594856064765</v>
       </c>
       <c r="GL4">
-        <v>8.519630984339496E-05</v>
+        <v>5.949179336851992E-05</v>
       </c>
       <c r="GM4">
-        <v>0.0006814221987474321</v>
+        <v>0.0006585459247809961</v>
       </c>
       <c r="GN4">
-        <v>0.0002654674195120265</v>
+        <v>0.0002406180326531188</v>
       </c>
       <c r="GO4">
-        <v>2.29067329578936E-08</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0005169134990498267</v>
+        <v>0.0004932568656489017</v>
       </c>
       <c r="GQ4">
-        <v>0.001883448896537906</v>
+        <v>0.001866274526944021</v>
       </c>
       <c r="GR4">
-        <v>0.002458326995481185</v>
+        <v>0.002443879603542681</v>
       </c>
       <c r="GS4">
-        <v>0.002400132395588156</v>
+        <v>0.002385408953172405</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.797903962823682E-05</v>
+        <v>1.670357480812638E-05</v>
       </c>
       <c r="C5">
-        <v>0.0001084461017575961</v>
+        <v>0.0001071927996336739</v>
       </c>
       <c r="D5">
-        <v>2.473077248862726E-05</v>
+        <v>2.345696171365332E-05</v>
       </c>
       <c r="E5">
-        <v>0.0001205609925070894</v>
+        <v>0.0001193106582991878</v>
       </c>
       <c r="F5">
-        <v>7.326421848507264E-05</v>
+        <v>7.200229747409976E-05</v>
       </c>
       <c r="G5">
-        <v>4.615825904555851E-05</v>
+        <v>4.488969759407824E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001716311064510826</v>
+        <v>0.0001703932834422075</v>
       </c>
       <c r="I5">
-        <v>0.0001537917968199565</v>
+        <v>0.0001525496035221579</v>
       </c>
       <c r="J5">
-        <v>1.552654567894848E-05</v>
+        <v>1.42504800448288E-05</v>
       </c>
       <c r="K5">
-        <v>7.628694342256997E-08</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.27955587354187E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1.115612476931824E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>5.669483882768745E-05</v>
+        <v>5.54288586362932E-05</v>
       </c>
       <c r="O5">
-        <v>0.0001467820769649006</v>
+        <v>0.0001455381664200968</v>
       </c>
       <c r="P5">
-        <v>0.0001868651561360792</v>
+        <v>0.0001856310651773772</v>
       </c>
       <c r="Q5">
-        <v>0.0002628476545649443</v>
+        <v>0.0002616321778619578</v>
       </c>
       <c r="R5">
-        <v>0.0002264032953185258</v>
+        <v>0.0002251788904460737</v>
       </c>
       <c r="S5">
-        <v>0.0001893015860856997</v>
+        <v>0.000188068092005635</v>
       </c>
       <c r="T5">
-        <v>0.000245154164930803</v>
+        <v>0.0002439343536619973</v>
       </c>
       <c r="U5">
-        <v>0.0001693837964975516</v>
+        <v>0.0001681454229408133</v>
       </c>
       <c r="V5">
-        <v>0.0002437652949595215</v>
+        <v>0.0002425451434441941</v>
       </c>
       <c r="W5">
-        <v>0.0001467820769649006</v>
+        <v>0.0001455381664200968</v>
       </c>
       <c r="X5">
-        <v>0.0001446375970092433</v>
+        <v>0.0001433931611079548</v>
       </c>
       <c r="Y5">
-        <v>0.0002423803949881579</v>
+        <v>0.0002411599041988827</v>
       </c>
       <c r="Z5">
-        <v>4.937722897899798E-06</v>
+        <v>3.659063205160735E-06</v>
       </c>
       <c r="AA5">
-        <v>2.745225143235364E-05</v>
+        <v>2.617910736755679E-05</v>
       </c>
       <c r="AB5">
-        <v>8.006806834438543E-05</v>
+        <v>7.880781414621483E-05</v>
       </c>
       <c r="AC5">
-        <v>8.086488832790911E-05</v>
+        <v>7.960482933536138E-05</v>
       </c>
       <c r="AD5">
-        <v>0.0001022919778848486</v>
+        <v>0.0001010371681185371</v>
       </c>
       <c r="AE5">
-        <v>8.715233819789982E-06</v>
+        <v>7.437499544821089E-06</v>
       </c>
       <c r="AF5">
-        <v>0.000152692176842694</v>
+        <v>0.000151449714159078</v>
       </c>
       <c r="AG5">
-        <v>0.0001496885769048012</v>
+        <v>0.0001484453783967722</v>
       </c>
       <c r="AH5">
-        <v>2.183887554842472E-05</v>
+        <v>2.056435631413106E-05</v>
       </c>
       <c r="AI5">
-        <v>3.813574621144473E-06</v>
+        <v>2.534639533624792E-06</v>
       </c>
       <c r="AJ5">
-        <v>1.252634674098536E-07</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0001031923578662309</v>
+        <v>0.0001019377686757568</v>
       </c>
       <c r="AL5">
-        <v>3.51401132733872E-05</v>
+        <v>3.386885258738379E-05</v>
       </c>
       <c r="AM5">
-        <v>2.033496757952191E-05</v>
+        <v>1.906007991660212E-05</v>
       </c>
       <c r="AN5">
-        <v>1.252634674098536E-07</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>3.117770335532028E-05</v>
+        <v>2.99054719548367E-05</v>
       </c>
       <c r="AP5">
-        <v>0.0001140673316413627</v>
+        <v>0.0001128154066110167</v>
       </c>
       <c r="AQ5">
-        <v>7.250586850075349E-05</v>
+        <v>7.124376170857018E-05</v>
       </c>
       <c r="AR5">
-        <v>1.831273762133675E-06</v>
+        <v>5.5185304889942E-07</v>
       </c>
       <c r="AS5">
-        <v>7.212834850855969E-06</v>
+        <v>5.93473251693702E-06</v>
       </c>
       <c r="AT5">
-        <v>1.991159258827628E-05</v>
+        <v>1.863660120659871E-05</v>
       </c>
       <c r="AU5">
-        <v>1.699248664863635E-07</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>4.044648916366414E-06</v>
+        <v>2.76577043761993E-06</v>
       </c>
       <c r="AW5">
-        <v>9.439307804817878E-11</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>4.455060407880094E-05</v>
+        <v>4.328164878266865E-05</v>
       </c>
       <c r="AY5">
-        <v>3.373921130235448E-05</v>
+        <v>3.246760742222005E-05</v>
       </c>
       <c r="AZ5">
-        <v>1.392918271197809E-05</v>
+        <v>1.265272575454907E-05</v>
       </c>
       <c r="BA5">
-        <v>3.615639925237285E-08</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.311148672888607E-06</v>
+        <v>3.160053897702032E-08</v>
       </c>
       <c r="BC5">
-        <v>3.120870935467915E-05</v>
+        <v>2.99364855500711E-05</v>
       </c>
       <c r="BD5">
-        <v>4.802497500695933E-05</v>
+        <v>4.67568708651092E-05</v>
       </c>
       <c r="BE5">
-        <v>3.477903328085346E-05</v>
+        <v>3.350768413717291E-05</v>
       </c>
       <c r="BF5">
-        <v>3.271517532352907E-05</v>
+        <v>3.144332057420811E-05</v>
       </c>
       <c r="BG5">
-        <v>9.536830802801336E-06</v>
+        <v>8.259297803345264E-06</v>
       </c>
       <c r="BH5">
-        <v>2.890787940225477E-06</v>
+        <v>1.611626787656546E-06</v>
       </c>
       <c r="BI5">
-        <v>2.39909455039251E-05</v>
+        <v>2.271695348552059E-05</v>
       </c>
       <c r="BJ5">
-        <v>3.89573861944552E-05</v>
+        <v>3.768706066714962E-05</v>
       </c>
       <c r="BK5">
-        <v>8.471121824837628E-06</v>
+        <v>7.193327747109004E-06</v>
       </c>
       <c r="BL5">
-        <v>5.372506888909514E-08</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>1.494150869104563E-05</v>
+        <v>1.366529973407766E-05</v>
       </c>
       <c r="BN5">
-        <v>1.831273762133675E-06</v>
+        <v>5.5185304889942E-07</v>
       </c>
       <c r="BO5">
-        <v>9.304941807596241E-07</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>3.200736233816493E-06</v>
+        <v>1.921651012638538E-06</v>
       </c>
       <c r="BQ5">
-        <v>8.715233819789982E-06</v>
+        <v>7.437499544821089E-06</v>
       </c>
       <c r="BR5">
-        <v>0.0001093731077384279</v>
+        <v>0.0001081200327132025</v>
       </c>
       <c r="BS5">
-        <v>9.286206807983636E-05</v>
+        <v>9.16049481663711E-05</v>
       </c>
       <c r="BT5">
-        <v>6.265428870446039E-05</v>
+        <v>6.13897684640578E-05</v>
       </c>
       <c r="BU5">
-        <v>3.26834293241855E-05</v>
+        <v>3.141156679770319E-05</v>
       </c>
       <c r="BV5">
-        <v>0.0001131205976609388</v>
+        <v>0.0001118684406989142</v>
       </c>
       <c r="BW5">
-        <v>4.046166516335033E-05</v>
+        <v>3.919170815555877E-05</v>
       </c>
       <c r="BX5">
-        <v>3.989860417499308E-05</v>
+        <v>3.862850922805187E-05</v>
       </c>
       <c r="BY5">
-        <v>2.698880744193654E-05</v>
+        <v>2.571554984224513E-05</v>
       </c>
       <c r="BZ5">
-        <v>2.881356240420501E-06</v>
+        <v>1.602192777265901E-06</v>
       </c>
       <c r="CA5">
-        <v>3.317723931397469E-07</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>5.513807585987756E-07</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>7.212834850855969E-06</v>
+        <v>5.93473251693702E-06</v>
       </c>
       <c r="CD5">
-        <v>1.01815257894706E-06</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>9.813120797088326E-06</v>
+        <v>8.535655483385047E-06</v>
       </c>
       <c r="CF5">
-        <v>4.395967909101984E-05</v>
+        <v>4.269057902959214E-05</v>
       </c>
       <c r="CG5">
-        <v>5.619431483803708E-05</v>
+        <v>5.49282120278592E-05</v>
       </c>
       <c r="CH5">
-        <v>2.890787940225477E-06</v>
+        <v>1.611626787656546E-06</v>
       </c>
       <c r="CI5">
-        <v>2.531395847656838E-05</v>
+        <v>2.404029057098324E-05</v>
       </c>
       <c r="CJ5">
-        <v>3.271517532352907E-05</v>
+        <v>3.144332057420811E-05</v>
       </c>
       <c r="CK5">
-        <v>1.563611767668279E-05</v>
+        <v>1.436007888560233E-05</v>
       </c>
       <c r="CL5">
-        <v>1.109756177052918E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.003564710926290374</v>
+        <v>0.003564304342800275</v>
       </c>
       <c r="CN5">
-        <v>0.1322905872645497</v>
+        <v>0.1323217160534006</v>
       </c>
       <c r="CO5">
-        <v>0.003222010533376592</v>
+        <v>0.003221519994858962</v>
       </c>
       <c r="CP5">
-        <v>0.06508450865420931</v>
+        <v>0.06509917324197771</v>
       </c>
       <c r="CQ5">
-        <v>0.02216461254168926</v>
+        <v>0.02216876257758008</v>
       </c>
       <c r="CR5">
-        <v>0.005746451581177239</v>
+        <v>0.005746579482328928</v>
       </c>
       <c r="CS5">
-        <v>0.0002160816955319516</v>
+        <v>0.0002148547620653917</v>
       </c>
       <c r="CT5">
-        <v>0.001821876962327978</v>
+        <v>0.001821043417922595</v>
       </c>
       <c r="CU5">
-        <v>0.0009708184799258149</v>
+        <v>0.0009697764425049638</v>
       </c>
       <c r="CV5">
-        <v>0.002860881540843868</v>
+        <v>0.002860302532645032</v>
       </c>
       <c r="CW5">
-        <v>0.001498338469017974</v>
+        <v>0.001497425663883175</v>
       </c>
       <c r="CX5">
-        <v>0.03162857434599736</v>
+        <v>0.03163504287112911</v>
       </c>
       <c r="CY5">
-        <v>0.05481079486664494</v>
+        <v>0.05482294259145749</v>
       </c>
       <c r="CZ5">
-        <v>0.005302128890364761</v>
+        <v>0.005302147940973785</v>
       </c>
       <c r="DA5">
-        <v>0.0005566610384895921</v>
+        <v>0.0005555175404339795</v>
       </c>
       <c r="DB5">
-        <v>0.01851879361707601</v>
+        <v>0.01852205049721177</v>
       </c>
       <c r="DC5">
-        <v>0.0217131655510241</v>
+        <v>0.02171720499105534</v>
       </c>
       <c r="DD5">
-        <v>0.007329036348453203</v>
+        <v>0.007329551952538575</v>
       </c>
       <c r="DE5">
-        <v>0.0401951031688622</v>
+        <v>0.04020367032935604</v>
       </c>
       <c r="DF5">
-        <v>0.003869274919992725</v>
+        <v>0.003868942948843333</v>
       </c>
       <c r="DG5">
-        <v>0.01028345478736295</v>
+        <v>0.01028469416733685</v>
       </c>
       <c r="DH5">
-        <v>0.003543528226728381</v>
+        <v>0.00354311645388291</v>
       </c>
       <c r="DI5">
-        <v>0.03948589918352682</v>
+        <v>0.03949429260263797</v>
       </c>
       <c r="DJ5">
-        <v>0.0004891568898854152</v>
+        <v>0.0004879968546072848</v>
       </c>
       <c r="DK5">
-        <v>0.03858100520223785</v>
+        <v>0.0385891769396682</v>
       </c>
       <c r="DL5">
-        <v>0.0142214117059355</v>
+        <v>0.01422361580987339</v>
       </c>
       <c r="DM5">
-        <v>0.04076700915703656</v>
+        <v>0.04077571642353545</v>
       </c>
       <c r="DN5">
-        <v>0.0005302603890354939</v>
+        <v>0.0005291104233268012</v>
       </c>
       <c r="DO5">
-        <v>0.002506457948172494</v>
+        <v>0.002505792112986891</v>
       </c>
       <c r="DP5">
-        <v>0.002311664852200346</v>
+        <v>0.002310951296439939</v>
       </c>
       <c r="DQ5">
-        <v>0.001212581074926747</v>
+        <v>0.001211598264707671</v>
       </c>
       <c r="DR5">
-        <v>0.003070982936499478</v>
+        <v>0.003070455399115445</v>
       </c>
       <c r="DS5">
-        <v>0.001033198278635951</v>
+        <v>0.001032171523070115</v>
       </c>
       <c r="DT5">
-        <v>0.0008889002816196857</v>
+        <v>0.0008878381758104221</v>
       </c>
       <c r="DU5">
-        <v>0.000338865672993075</v>
+        <v>0.000337668819247523</v>
       </c>
       <c r="DV5">
-        <v>0.0044411755081672</v>
+        <v>0.004440983641699967</v>
       </c>
       <c r="DW5">
-        <v>0.01515999268652791</v>
+        <v>0.01516242672481573</v>
       </c>
       <c r="DX5">
-        <v>6.265428870446039E-05</v>
+        <v>6.13897684640578E-05</v>
       </c>
       <c r="DY5">
-        <v>0.0004482997407302424</v>
+        <v>0.0004471296962337012</v>
       </c>
       <c r="DZ5">
-        <v>0.005041829895747116</v>
+        <v>0.005041785178091758</v>
       </c>
       <c r="EA5">
-        <v>0.000157114306751255</v>
+        <v>0.0001558729274047052</v>
       </c>
       <c r="EB5">
-        <v>0.001600599566903461</v>
+        <v>0.001599711813777548</v>
       </c>
       <c r="EC5">
-        <v>1.838794361978167E-06</v>
+        <v>5.593754911467226E-07</v>
       </c>
       <c r="ED5">
-        <v>4.844911899818905E-05</v>
+        <v>4.718111876348697E-05</v>
       </c>
       <c r="EE5">
-        <v>0.001522503968518289</v>
+        <v>0.001521597083467675</v>
       </c>
       <c r="EF5">
-        <v>0.01108031577088579</v>
+        <v>0.01108175036652676</v>
       </c>
       <c r="EG5">
-        <v>0.001412776370787192</v>
+        <v>0.001411842604578344</v>
       </c>
       <c r="EH5">
-        <v>1.698104564887293E-05</v>
+        <v>1.570533633936666E-05</v>
       </c>
       <c r="EI5">
-        <v>0.001276820473598432</v>
+        <v>0.001275853400800716</v>
       </c>
       <c r="EJ5">
-        <v>0.002545801647358961</v>
+        <v>0.002545145450625536</v>
       </c>
       <c r="EK5">
-        <v>0.001383713171388148</v>
+        <v>0.001382772285252519</v>
       </c>
       <c r="EL5">
-        <v>9.286206807983636E-05</v>
+        <v>9.16049481663711E-05</v>
       </c>
       <c r="EM5">
-        <v>2.217907854139014E-06</v>
+        <v>9.385818588464657E-07</v>
       </c>
       <c r="EN5">
-        <v>4.68017050322536E-05</v>
+        <v>4.553330121270677E-05</v>
       </c>
       <c r="EO5">
-        <v>0.0003848891520414204</v>
+        <v>0.0003837035731660771</v>
       </c>
       <c r="EP5">
-        <v>9.451299804569913E-06</v>
+        <v>8.173745851658695E-06</v>
       </c>
       <c r="EQ5">
-        <v>0.0001705418464736059</v>
+        <v>0.0001693037566169148</v>
       </c>
       <c r="ER5">
-        <v>0.000848162782462039</v>
+        <v>0.0008470906967463205</v>
       </c>
       <c r="ES5">
-        <v>0.00214373015567283</v>
+        <v>0.002142975459130674</v>
       </c>
       <c r="ET5">
-        <v>0.0008604954122070299</v>
+        <v>0.0008594263477492124</v>
       </c>
       <c r="EU5">
-        <v>0.001182418975550427</v>
+        <v>0.001181428776195137</v>
       </c>
       <c r="EV5">
-        <v>0.007649480241827196</v>
+        <v>0.007650074348524315</v>
       </c>
       <c r="EW5">
-        <v>0.02417109850019997</v>
+        <v>0.02417574008669117</v>
       </c>
       <c r="EX5">
-        <v>0.02169026555149762</v>
+        <v>0.02169429938146791</v>
       </c>
       <c r="EY5">
-        <v>0.01624227966414882</v>
+        <v>0.01624497884200135</v>
       </c>
       <c r="EZ5">
-        <v>0.005615478883885438</v>
+        <v>0.005615574699236719</v>
       </c>
       <c r="FA5">
-        <v>0.002429510449763582</v>
+        <v>0.002428825763915766</v>
       </c>
       <c r="FB5">
-        <v>0.011913574753656</v>
+        <v>0.0119152134817762</v>
       </c>
       <c r="FC5">
-        <v>0.02470309948919947</v>
+        <v>0.02470787140573581</v>
       </c>
       <c r="FD5">
-        <v>0.03929637618744571</v>
+        <v>0.03930472317705551</v>
       </c>
       <c r="FE5">
-        <v>0.03644039924650042</v>
+        <v>0.03644804657650182</v>
       </c>
       <c r="FF5">
-        <v>0.03256048532672768</v>
+        <v>0.03256718215218724</v>
       </c>
       <c r="FG5">
-        <v>0.01738895764043829</v>
+        <v>0.01739193773241599</v>
       </c>
       <c r="FH5">
-        <v>0.002400046650372823</v>
+        <v>0.002399354746458905</v>
       </c>
       <c r="FI5">
-        <v>0.002120146756160478</v>
+        <v>0.002119386282137477</v>
       </c>
       <c r="FJ5">
-        <v>0.001669514265478471</v>
+        <v>0.001668643395132782</v>
       </c>
       <c r="FK5">
-        <v>1.088434777493793E-05</v>
+        <v>9.607144891311415E-06</v>
       </c>
       <c r="FL5">
-        <v>0.0001808431062606007</v>
+        <v>0.0001796075400151073</v>
       </c>
       <c r="FM5">
-        <v>0.001457997569852126</v>
+        <v>0.001457074881970269</v>
       </c>
       <c r="FN5">
-        <v>0.009884303795616433</v>
+        <v>0.0098854453912481</v>
       </c>
       <c r="FO5">
-        <v>0.01392307471210439</v>
+        <v>0.01392520572919718</v>
       </c>
       <c r="FP5">
-        <v>0.02226639153958472</v>
+        <v>0.02227056650937916</v>
       </c>
       <c r="FQ5">
-        <v>0.01745270763912009</v>
+        <v>0.01745570334862553</v>
       </c>
       <c r="FR5">
-        <v>0.006791274359572823</v>
+        <v>0.006791658222278508</v>
       </c>
       <c r="FS5">
-        <v>0.005041829895747116</v>
+        <v>0.005041785178091758</v>
       </c>
       <c r="FT5">
-        <v>0.001991283058825068</v>
+        <v>0.001990491015666224</v>
       </c>
       <c r="FU5">
-        <v>0.0005386026888629953</v>
+        <v>0.0005374547668578588</v>
       </c>
       <c r="FV5">
-        <v>0.0005406661888203271</v>
+        <v>0.0005395187723331279</v>
       </c>
       <c r="FW5">
-        <v>0.0005710301181924742</v>
+        <v>0.0005698901402859685</v>
       </c>
       <c r="FX5">
-        <v>0.001264945473843978</v>
+        <v>0.001263975491898938</v>
       </c>
       <c r="FY5">
-        <v>0.002977257538437493</v>
+        <v>0.002976707040127423</v>
       </c>
       <c r="FZ5">
-        <v>0.005629216183601384</v>
+        <v>0.005629315364327784</v>
       </c>
       <c r="GA5">
-        <v>0.002541321747451595</v>
+        <v>0.002540664453228561</v>
       </c>
       <c r="GB5">
-        <v>0.001380410871456432</v>
+        <v>0.001379469176320616</v>
       </c>
       <c r="GC5">
-        <v>0.00414332891432595</v>
+        <v>0.004143064081152221</v>
       </c>
       <c r="GD5">
-        <v>0.002607800946076965</v>
+        <v>0.00260715993798335</v>
       </c>
       <c r="GE5">
-        <v>4.046166516335033E-05</v>
+        <v>3.919170815555877E-05</v>
       </c>
       <c r="GF5">
-        <v>0.0005751501881072811</v>
+        <v>0.0005740112195389329</v>
       </c>
       <c r="GG5">
-        <v>0.002336019151696757</v>
+        <v>0.002335311562272914</v>
       </c>
       <c r="GH5">
-        <v>0.0009093761811962935</v>
+        <v>0.0009083190915899529</v>
       </c>
       <c r="GI5">
-        <v>0.0002870528940644384</v>
+        <v>0.0002858433471811737</v>
       </c>
       <c r="GJ5">
-        <v>0.0006972577855823904</v>
+        <v>0.000696148731034918</v>
       </c>
       <c r="GK5">
-        <v>0.0005489595886488395</v>
+        <v>0.0005478142038856341</v>
       </c>
       <c r="GL5">
-        <v>7.426554846436756E-05</v>
+        <v>7.300387276004654E-05</v>
       </c>
       <c r="GM5">
-        <v>0.001542498768104845</v>
+        <v>0.001541596781396878</v>
       </c>
       <c r="GN5">
-        <v>0.0005710301181924742</v>
+        <v>0.0005698901402859685</v>
       </c>
       <c r="GO5">
-        <v>6.478138866047711E-05</v>
+        <v>6.351738951879241E-05</v>
       </c>
       <c r="GP5">
-        <v>1.057520128133034E-05</v>
+        <v>9.297922662738473E-06</v>
       </c>
       <c r="GQ5">
-        <v>0.0006498610465624407</v>
+        <v>0.0006487403807223886</v>
       </c>
       <c r="GR5">
-        <v>0.001373612271597011</v>
+        <v>0.001372668910934542</v>
       </c>
       <c r="GS5">
-        <v>0.003152742234808893</v>
+        <v>0.003152234726885819</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.461025820949799E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001221134150987884</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001773046428836028</v>
+        <v>1.332349403836854E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001815580227128867</v>
+        <v>1.768245427559397E-05</v>
       </c>
       <c r="F6">
-        <v>0.0001610638335354528</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001002644059757323</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001643038634054092</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001861505225285596</v>
+        <v>2.238895237580084E-05</v>
       </c>
       <c r="J6">
-        <v>4.517760818672652E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.623410794705333E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.774852328763545E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>5.632026473949868E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>8.676240651765604E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.258824909338553E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.134307514336253E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.880959424504772E-07</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>3.576020256470872E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.000112250420494655</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>7.151677712956305E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>8.537783657322789E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001951969121654687</v>
+        <v>3.165989790628106E-05</v>
       </c>
       <c r="W6">
-        <v>0.0001916639323072704</v>
+        <v>2.80392199186776E-05</v>
       </c>
       <c r="X6">
-        <v>0.0001045377858042136</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>7.866900684249721E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001499648539809276</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001489296940224754</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002544213897884023</v>
+        <v>9.235448747748181E-05</v>
       </c>
       <c r="AC6">
-        <v>0.0003139347873997396</v>
+        <v>0.0001533451688137586</v>
       </c>
       <c r="AD6">
-        <v>2.971076280751238E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>3.144006573810412E-07</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.541809938117063E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1.846460925889423E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1.794751327964867E-07</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>3.291396867894674E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>8.755292648592729E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0001314070247257749</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0002115099715107187</v>
+        <v>4.837789156954955E-05</v>
       </c>
       <c r="AM6">
-        <v>0.0001165636653215362</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>8.152017672806108E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002287816708174922</v>
+        <v>6.607832123473036E-05</v>
       </c>
       <c r="AP6">
-        <v>0.0002275026908688261</v>
+        <v>6.476759353953111E-05</v>
       </c>
       <c r="AQ6">
-        <v>0.0001122616554942041</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>5.632026473949868E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>7.644127693191061E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>4.141755433764212E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>7.792911187219404E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.356201845566732E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>4.661175812916468E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>9.272261127843395E-07</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>2.370336504862862E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>3.8862903440177E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>5.028734598163925E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0001140518554223516</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0001951969121654687</v>
+        <v>3.165989790628106E-05</v>
       </c>
       <c r="BD6">
-        <v>0.0002361890705201848</v>
+        <v>7.366959266150714E-05</v>
       </c>
       <c r="BE6">
-        <v>0.0001610503935359923</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0001113550955305903</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0001951969121654687</v>
+        <v>3.165989790628106E-05</v>
       </c>
       <c r="BH6">
-        <v>0.0001507435739496725</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0001239802150238615</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0001896179423893893</v>
+        <v>2.594244298932706E-05</v>
       </c>
       <c r="BK6">
-        <v>7.569352696192271E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>1.387922444293577E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1.00660685959827E-07</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>2.134307514336253E-06</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>3.353970565383181E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>2.701150191585141E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0001458585541457403</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0001507565739491507</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>4.033483338109881E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0001549439737810829</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0005378190284137979</v>
+        <v>0.0003827868230960099</v>
       </c>
       <c r="BV6">
-        <v>0.0002608944695285952</v>
+        <v>9.898824658961831E-05</v>
       </c>
       <c r="BW6">
-        <v>0.0001360581145390962</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0001438204242275439</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>3.438747661980521E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>3.516456858861542E-07</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>1.114723655258834E-08</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>3.636722754034483E-07</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1.643169634048834E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>4.25077082938871E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>7.942183681228121E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0001211678351367407</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0002189476712121951</v>
+        <v>5.600021512314969E-05</v>
       </c>
       <c r="CH6">
-        <v>6.676486732028834E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.001364539745232078</v>
+        <v>0.001230028987336967</v>
       </c>
       <c r="CJ6">
-        <v>0.02922052182718897</v>
+        <v>0.02977747199445604</v>
       </c>
       <c r="CK6">
-        <v>0.001508103239469934</v>
+        <v>0.001377156116353635</v>
       </c>
       <c r="CL6">
-        <v>0.002611389295187834</v>
+        <v>0.002507828720302386</v>
       </c>
       <c r="CM6">
-        <v>4.663460812824756E-06</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01952627221628273</v>
+        <v>0.01984258485064975</v>
       </c>
       <c r="CO6">
-        <v>0.05861716764730892</v>
+        <v>0.05990382218671556</v>
       </c>
       <c r="CP6">
-        <v>0.01054319657683243</v>
+        <v>0.01063652494253567</v>
       </c>
       <c r="CQ6">
-        <v>0.02140970114068838</v>
+        <v>0.02177276558235895</v>
       </c>
       <c r="CR6">
-        <v>0.005323058786350766</v>
+        <v>0.005286809192983651</v>
       </c>
       <c r="CS6">
-        <v>0.0334137286588881</v>
+        <v>0.03407476557731378</v>
       </c>
       <c r="CT6">
-        <v>0.000645827974078691</v>
+        <v>0.0004934768433421369</v>
       </c>
       <c r="CU6">
-        <v>0.1102340855755837</v>
+        <v>0.1128020118260253</v>
       </c>
       <c r="CV6">
-        <v>0.04709069610994176</v>
+        <v>0.04809123240553154</v>
       </c>
       <c r="CW6">
-        <v>0.0006626398734039193</v>
+        <v>0.0005107060595448299</v>
       </c>
       <c r="CX6">
-        <v>0.00156289053727096</v>
+        <v>0.001433303383281335</v>
       </c>
       <c r="CY6">
-        <v>0.0255410869748688</v>
+        <v>0.02600670360309302</v>
       </c>
       <c r="CZ6">
-        <v>0.003299629667564237</v>
+        <v>0.00321315308286866</v>
       </c>
       <c r="DA6">
-        <v>0.03803254147350487</v>
+        <v>0.03880822983636893</v>
       </c>
       <c r="DB6">
-        <v>0.05095177295497144</v>
+        <v>0.05204815163585324</v>
       </c>
       <c r="DC6">
-        <v>0.0006129304753990832</v>
+        <v>0.0004597627396401106</v>
       </c>
       <c r="DD6">
-        <v>0.01418666043059635</v>
+        <v>0.01437042943772829</v>
       </c>
       <c r="DE6">
-        <v>0.01514259339222849</v>
+        <v>0.01535009124467986</v>
       </c>
       <c r="DF6">
-        <v>0.02962702881087317</v>
+        <v>0.03019406958252806</v>
       </c>
       <c r="DG6">
-        <v>0.01029911458662904</v>
+        <v>0.01038638417622219</v>
       </c>
       <c r="DH6">
-        <v>0.004345524825585611</v>
+        <v>0.004285010191592772</v>
       </c>
       <c r="DI6">
-        <v>0.007799872386940005</v>
+        <v>0.007825104015763475</v>
       </c>
       <c r="DJ6">
-        <v>0.009281385627477171</v>
+        <v>0.009343392427713655</v>
       </c>
       <c r="DK6">
-        <v>0.001107387755553272</v>
+        <v>0.0009664937887600706</v>
       </c>
       <c r="DL6">
-        <v>8.755292648592729E-05</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0003892438143770948</v>
+        <v>0.0002305235698204917</v>
       </c>
       <c r="DN6">
-        <v>0.0001884682824355327</v>
+        <v>2.476424536148084E-05</v>
       </c>
       <c r="DO6">
-        <v>0.002949509381616859</v>
+        <v>0.002854341863098631</v>
       </c>
       <c r="DP6">
-        <v>0.000241423120310108</v>
+        <v>7.903356574400855E-05</v>
       </c>
       <c r="DQ6">
-        <v>3.200688671535388E-06</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001876853324669576</v>
+        <v>0.001755059577453491</v>
       </c>
       <c r="DS6">
-        <v>0.00868960565122918</v>
+        <v>0.008736922869577472</v>
       </c>
       <c r="DT6">
-        <v>0.004649286813393652</v>
+        <v>0.004596312374698931</v>
       </c>
       <c r="DU6">
-        <v>0.00473338251001834</v>
+        <v>0.004682495554292958</v>
       </c>
       <c r="DV6">
-        <v>0.004157812833119723</v>
+        <v>0.004092638679042737</v>
       </c>
       <c r="DW6">
-        <v>0.0001165522253219954</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0009067728136052646</v>
+        <v>0.0007608990405732235</v>
       </c>
       <c r="DY6">
-        <v>0.0001804188627586087</v>
+        <v>1.651501728575582E-05</v>
       </c>
       <c r="DZ6">
-        <v>9.627742613575594E-05</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0009067728136052646</v>
+        <v>0.0007608990405732235</v>
       </c>
       <c r="EB6">
-        <v>0.007370342704179846</v>
+        <v>0.00738491224286583</v>
       </c>
       <c r="EC6">
-        <v>0.002022599718819819</v>
+        <v>0.001904423791870909</v>
       </c>
       <c r="ED6">
-        <v>0.001792487528055728</v>
+        <v>0.00166859959325699</v>
       </c>
       <c r="EE6">
-        <v>0.00611328725463372</v>
+        <v>0.006096653272238811</v>
       </c>
       <c r="EF6">
-        <v>0.0001591753636112495</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0002236714110226005</v>
+        <v>6.084121095023105E-05</v>
       </c>
       <c r="EH6">
-        <v>0.001521285238940854</v>
+        <v>0.001390665328755796</v>
       </c>
       <c r="EI6">
-        <v>0.0007526675697905179</v>
+        <v>0.0006029684872020958</v>
       </c>
       <c r="EJ6">
-        <v>9.298270626799463E-05</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0003830249846266973</v>
+        <v>0.0002241503718715512</v>
       </c>
       <c r="EL6">
-        <v>1.125619454821515E-05</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.002199581911716363</v>
+        <v>0.002085799162163871</v>
       </c>
       <c r="EN6">
-        <v>3.8862903440177E-05</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.00126631974917429</v>
+        <v>0.001129370904941252</v>
       </c>
       <c r="EP6">
-        <v>0.004345524825585611</v>
+        <v>0.004285010191592772</v>
       </c>
       <c r="EQ6">
-        <v>0.002003650819580362</v>
+        <v>0.001885004529627902</v>
       </c>
       <c r="ER6">
-        <v>0.002104380915537403</v>
+        <v>0.001988235019401151</v>
       </c>
       <c r="ES6">
-        <v>0.01305294247609988</v>
+        <v>0.01320856953284635</v>
       </c>
       <c r="ET6">
-        <v>0.02648681493691054</v>
+        <v>0.02697590709472338</v>
       </c>
       <c r="EU6">
-        <v>0.02718731890879472</v>
+        <v>0.02769379947255405</v>
       </c>
       <c r="EV6">
-        <v>0.01130880054610372</v>
+        <v>0.01142113327601652</v>
       </c>
       <c r="EW6">
-        <v>2.171402412847391E-07</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.003261980869075331</v>
+        <v>0.003174569739226838</v>
       </c>
       <c r="EY6">
-        <v>0.01487030840315707</v>
+        <v>0.01507104740467663</v>
       </c>
       <c r="EZ6">
-        <v>0.04092588835737589</v>
+        <v>0.0417733974267313</v>
       </c>
       <c r="FA6">
-        <v>0.04334160526041735</v>
+        <v>0.04424907896644549</v>
       </c>
       <c r="FB6">
-        <v>0.02862989785089457</v>
+        <v>0.02917218713132341</v>
       </c>
       <c r="FC6">
-        <v>0.01915826223105338</v>
+        <v>0.01946543986080606</v>
       </c>
       <c r="FD6">
-        <v>0.01011720859393012</v>
+        <v>0.01019996278407929</v>
       </c>
       <c r="FE6">
-        <v>0.0008770598647978399</v>
+        <v>0.0007304485358967855</v>
       </c>
       <c r="FF6">
-        <v>0.0007256474008750143</v>
+        <v>0.0005752776045080802</v>
       </c>
       <c r="FG6">
-        <v>0.0007302164706916276</v>
+        <v>0.000579960091013189</v>
       </c>
       <c r="FH6">
-        <v>0.0002786241388169874</v>
+        <v>0.0001171580142918055</v>
       </c>
       <c r="FI6">
-        <v>0.0002980319480380248</v>
+        <v>0.0001370475779051263</v>
       </c>
       <c r="FJ6">
-        <v>0.002817654386909064</v>
+        <v>0.002719213870283655</v>
       </c>
       <c r="FK6">
-        <v>0.01216641051168221</v>
+        <v>0.01230003144383762</v>
       </c>
       <c r="FL6">
-        <v>0.02664553093054023</v>
+        <v>0.0271385628492084</v>
       </c>
       <c r="FM6">
-        <v>0.03138326374038396</v>
+        <v>0.03199389901987522</v>
       </c>
       <c r="FN6">
-        <v>0.009569204615925109</v>
+        <v>0.009638355863032858</v>
       </c>
       <c r="FO6">
-        <v>0.00444940322141629</v>
+        <v>0.004391467130569914</v>
       </c>
       <c r="FP6">
-        <v>0.003835353846062115</v>
+        <v>0.003762175386523498</v>
       </c>
       <c r="FQ6">
-        <v>0.0001621402734922483</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0001265865649192516</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.001464037441238583</v>
+        <v>0.001331996485654866</v>
       </c>
       <c r="FT6">
-        <v>0.002624386394666175</v>
+        <v>0.002521148442993339</v>
       </c>
       <c r="FU6">
-        <v>0.004194680831639968</v>
+        <v>0.004130421841145824</v>
       </c>
       <c r="FV6">
-        <v>0.006680336731874308</v>
+        <v>0.00667777845339793</v>
       </c>
       <c r="FW6">
-        <v>0.005149887793301253</v>
+        <v>0.005109339626840827</v>
       </c>
       <c r="FX6">
-        <v>0.002549022997691002</v>
+        <v>0.002443914322378177</v>
       </c>
       <c r="FY6">
-        <v>0.004078951836284932</v>
+        <v>0.004011820138665946</v>
       </c>
       <c r="FZ6">
-        <v>0.002429681702480951</v>
+        <v>0.002321610652976714</v>
       </c>
       <c r="GA6">
-        <v>0.0009749407908692369</v>
+        <v>0.0008307591316706518</v>
       </c>
       <c r="GB6">
-        <v>0.0001323672846872334</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.001260300449415884</v>
+        <v>0.001123202189859146</v>
       </c>
       <c r="GD6">
-        <v>0.001489295340224818</v>
+        <v>0.001357881354106736</v>
       </c>
       <c r="GE6">
-        <v>0.0005227079190203057</v>
+        <v>0.0003673006150378678</v>
       </c>
       <c r="GF6">
-        <v>0.0001294608048038895</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0003702689851386791</v>
+        <v>0.000211077733925718</v>
       </c>
       <c r="GH6">
-        <v>7.000591419020389E-06</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0002581491896387813</v>
+        <v>9.617482141715546E-05</v>
       </c>
       <c r="GJ6">
-        <v>0.0001987621620223719</v>
+        <v>3.53136469213627E-05</v>
       </c>
       <c r="GK6">
-        <v>4.952376101228692E-08</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>5.029485798133775E-05</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0007503751698825269</v>
+        <v>0.000600619183719262</v>
       </c>
       <c r="GN6">
-        <v>0.002349024805718241</v>
+        <v>0.002238951633571472</v>
       </c>
       <c r="GO6">
-        <v>0.003107937675258094</v>
+        <v>0.003016702776102225</v>
       </c>
       <c r="GP6">
-        <v>0.001678778832619604</v>
+        <v>0.001552068340012136</v>
       </c>
       <c r="GQ6">
-        <v>1.176247052789497E-05</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>3.247251269666526E-08</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>6.13444975378433E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0006152540666426577</v>
+        <v>0.0006079688130648988</v>
       </c>
       <c r="C2">
-        <v>0.001030483024130113</v>
+        <v>0.001015601137413685</v>
       </c>
       <c r="D2">
-        <v>0.001281796540504602</v>
+        <v>0.001259062853094313</v>
       </c>
       <c r="E2">
-        <v>0.001493450129029341</v>
+        <v>0.001462802902221625</v>
       </c>
       <c r="F2">
-        <v>0.001635332981336853</v>
+        <v>0.001596663602861484</v>
       </c>
       <c r="G2">
-        <v>0.001646732789718787</v>
+        <v>0.001599838136312414</v>
       </c>
       <c r="H2">
-        <v>0.001646804421564904</v>
+        <v>0.001599838136312414</v>
       </c>
       <c r="I2">
-        <v>0.001652751237842484</v>
+        <v>0.001599838136312414</v>
       </c>
       <c r="J2">
-        <v>0.001660981446896265</v>
+        <v>0.001599838136312414</v>
       </c>
       <c r="K2">
-        <v>0.001670194933396736</v>
+        <v>0.001600822944429432</v>
       </c>
       <c r="L2">
-        <v>0.001722619343554432</v>
+        <v>0.00164508594275082</v>
       </c>
       <c r="M2">
-        <v>0.001835842387415797</v>
+        <v>0.001750242220152882</v>
       </c>
       <c r="N2">
-        <v>0.00205954687528717</v>
+        <v>0.001966051928290368</v>
       </c>
       <c r="O2">
-        <v>0.002469380653067137</v>
+        <v>0.002368280674242644</v>
       </c>
       <c r="P2">
-        <v>0.002950025527007926</v>
+        <v>0.002841430748156755</v>
       </c>
       <c r="Q2">
-        <v>0.003297269358181344</v>
+        <v>0.00318097211358444</v>
       </c>
       <c r="R2">
-        <v>0.003646585179242424</v>
+        <v>0.00352258869437135</v>
       </c>
       <c r="S2">
-        <v>0.004020171858987606</v>
+        <v>0.003888513916345528</v>
       </c>
       <c r="T2">
-        <v>0.00429324720418223</v>
+        <v>0.004153771337536728</v>
       </c>
       <c r="U2">
-        <v>0.004396369083591253</v>
+        <v>0.004248810725979834</v>
       </c>
       <c r="V2">
-        <v>0.00446750137973466</v>
+        <v>0.004311810732897331</v>
       </c>
       <c r="W2">
-        <v>0.004503565119779385</v>
+        <v>0.004339687592411855</v>
       </c>
       <c r="X2">
-        <v>0.004516656907069585</v>
+        <v>0.004344556738678623</v>
       </c>
       <c r="Y2">
-        <v>0.004517850295604883</v>
+        <v>0.004344556738678623</v>
       </c>
       <c r="Z2">
-        <v>0.004518345677048024</v>
+        <v>0.004344556738678623</v>
       </c>
       <c r="AA2">
-        <v>0.004537249346023121</v>
+        <v>0.004355246814000263</v>
       </c>
       <c r="AB2">
-        <v>0.004586229369367562</v>
+        <v>0.00439606006362329</v>
       </c>
       <c r="AC2">
-        <v>0.004668933524883576</v>
+        <v>0.004470649943854271</v>
       </c>
       <c r="AD2">
-        <v>0.004880587113408314</v>
+        <v>0.004674389992981583</v>
       </c>
       <c r="AE2">
-        <v>0.005083054972431078</v>
+        <v>0.00486893001316006</v>
       </c>
       <c r="AF2">
-        <v>0.005388002385897688</v>
+        <v>0.005166109117947372</v>
       </c>
       <c r="AG2">
-        <v>0.005615697503552701</v>
+        <v>0.005385915668091328</v>
       </c>
       <c r="AH2">
-        <v>0.005949912865432485</v>
+        <v>0.00571240828277639</v>
       </c>
       <c r="AI2">
-        <v>0.006289733247008381</v>
+        <v>0.006044514642504992</v>
       </c>
       <c r="AJ2">
-        <v>0.006545910273119185</v>
+        <v>0.006292847438959053</v>
       </c>
       <c r="AK2">
-        <v>0.006791971299778449</v>
+        <v>0.006531048488361282</v>
       </c>
       <c r="AL2">
-        <v>0.006976301989784559</v>
+        <v>0.006707423105349164</v>
       </c>
       <c r="AM2">
-        <v>0.007138008681017278</v>
+        <v>0.006861138504731211</v>
       </c>
       <c r="AN2">
-        <v>0.007242706505340857</v>
+        <v>0.006957756291366052</v>
       </c>
       <c r="AO2">
-        <v>0.007275763645548591</v>
+        <v>0.006982621870662502</v>
       </c>
       <c r="AP2">
-        <v>0.007275886783751915</v>
+        <v>0.006982621870662502</v>
       </c>
       <c r="AQ2">
-        <v>0.00727927918216799</v>
+        <v>0.006982621870662502</v>
       </c>
       <c r="AR2">
-        <v>0.007312725255354638</v>
+        <v>0.007007876988390754</v>
       </c>
       <c r="AS2">
-        <v>0.007400146970614878</v>
+        <v>0.007087191772202383</v>
       </c>
       <c r="AT2">
-        <v>0.007577915980976744</v>
+        <v>0.007256994494963786</v>
       </c>
       <c r="AU2">
-        <v>0.008046467515573199</v>
+        <v>0.007718032403803581</v>
       </c>
       <c r="AV2">
-        <v>0.008522256589777255</v>
+        <v>0.008186319118946015</v>
       </c>
       <c r="AW2">
-        <v>0.008943405636943741</v>
+        <v>0.008599880748791448</v>
       </c>
       <c r="AX2">
-        <v>0.009563094603345951</v>
+        <v>0.009212291365434853</v>
       </c>
       <c r="AY2">
-        <v>0.01003405247781194</v>
+        <v>0.009675739360099155</v>
       </c>
       <c r="AZ2">
-        <v>0.01043106420628708</v>
+        <v>0.0100651260966321</v>
       </c>
       <c r="BA2">
-        <v>0.01076804055801718</v>
+        <v>0.0103943839992069</v>
       </c>
       <c r="BB2">
-        <v>0.01096831454715888</v>
+        <v>0.01058672673430189</v>
       </c>
       <c r="BC2">
-        <v>0.01108153759102025</v>
+        <v>0.01069188301170395</v>
       </c>
       <c r="BD2">
-        <v>0.01111760133106498</v>
+        <v>0.01071975987121848</v>
       </c>
       <c r="BE2">
-        <v>0.01114238501872127</v>
+        <v>0.01073633911866032</v>
       </c>
       <c r="BF2">
-        <v>0.0111431425659802</v>
+        <v>0.01073633911866032</v>
       </c>
       <c r="BG2">
-        <v>0.01118271653383461</v>
+        <v>0.01076773167036447</v>
       </c>
       <c r="BH2">
-        <v>0.01126266734949991</v>
+        <v>0.01083956392461406</v>
       </c>
       <c r="BI2">
-        <v>0.01143114985036526</v>
+        <v>0.01100006568154764</v>
       </c>
       <c r="BJ2">
-        <v>0.01184242906806686</v>
+        <v>0.0114037421175413</v>
       </c>
       <c r="BK2">
-        <v>0.01251255633173444</v>
+        <v>0.01206666954886683</v>
       </c>
       <c r="BL2">
-        <v>0.01305247170246175</v>
+        <v>0.01259918238609011</v>
       </c>
       <c r="BM2">
-        <v>0.01363646331079938</v>
+        <v>0.01317584007450712</v>
       </c>
       <c r="BN2">
-        <v>0.01425447437729256</v>
+        <v>0.01378657017925074</v>
       </c>
       <c r="BO2">
-        <v>0.01473364175131345</v>
+        <v>0.01425824045321733</v>
       </c>
       <c r="BP2">
-        <v>0.01520614898569544</v>
+        <v>0.01472324021968988</v>
       </c>
       <c r="BQ2">
-        <v>0.01543384410335045</v>
+        <v>0.01494304676983384</v>
       </c>
       <c r="BR2">
-        <v>0.01554517601731435</v>
+        <v>0.01504630897341204</v>
       </c>
       <c r="BS2">
-        <v>0.01562612265292565</v>
+        <v>0.01511913859780291</v>
       </c>
       <c r="BT2">
-        <v>0.01566379921788293</v>
+        <v>0.01514863079291835</v>
       </c>
       <c r="BU2">
-        <v>0.01566653977313435</v>
+        <v>0.01514863079291835</v>
       </c>
       <c r="BV2">
-        <v>0.01567013974573917</v>
+        <v>0.01514863079291835</v>
       </c>
       <c r="BW2">
-        <v>0.01570106676406239</v>
+        <v>0.01517136293436451</v>
       </c>
       <c r="BX2">
-        <v>0.01581906464766488</v>
+        <v>0.01528130148451202</v>
       </c>
       <c r="BY2">
-        <v>0.01608485050325472</v>
+        <v>0.01553925806853272</v>
       </c>
       <c r="BZ2">
-        <v>0.01663932897319246</v>
+        <v>0.01608635667537744</v>
       </c>
       <c r="CA2">
-        <v>0.0171957699130238</v>
+        <v>0.0166354208070973</v>
       </c>
       <c r="CB2">
-        <v>0.01770544078539088</v>
+        <v>0.01713764206427816</v>
       </c>
       <c r="CC2">
-        <v>0.01820761989816415</v>
+        <v>0.01763235989942532</v>
       </c>
       <c r="CD2">
-        <v>0.01860684689651918</v>
+        <v>0.01802396535435402</v>
       </c>
       <c r="CE2">
-        <v>0.01887444588201072</v>
+        <v>0.01828373789078002</v>
       </c>
       <c r="CF2">
-        <v>0.01910653033942775</v>
+        <v>0.0185079406135816</v>
       </c>
       <c r="CG2">
-        <v>0.01922909419278269</v>
+        <v>0.01862245224133748</v>
       </c>
       <c r="CH2">
-        <v>0.0193066875325758</v>
+        <v>0.01869192334982661</v>
       </c>
       <c r="CI2">
-        <v>0.01931650021404378</v>
+        <v>0.01869350828567937</v>
       </c>
       <c r="CJ2">
-        <v>0.01932075988881283</v>
+        <v>0.01869350828567937</v>
       </c>
       <c r="CK2">
-        <v>0.01933178791621492</v>
+        <v>0.01869631045939812</v>
       </c>
       <c r="CL2">
-        <v>0.01939181935796019</v>
+        <v>0.01874819233119116</v>
       </c>
       <c r="CM2">
-        <v>0.02065379258953955</v>
+        <v>0.0200038870584477</v>
       </c>
       <c r="CN2">
-        <v>0.07970448738797722</v>
+        <v>0.07913826319221999</v>
       </c>
       <c r="CO2">
-        <v>0.09223008970887435</v>
+        <v>0.09167512112686028</v>
       </c>
       <c r="CP2">
-        <v>0.1106083127124589</v>
+        <v>0.1100737105326587</v>
       </c>
       <c r="CQ2">
-        <v>0.1266501818427139</v>
+        <v>0.1261323090575226</v>
       </c>
       <c r="CR2">
-        <v>0.1886338304821351</v>
+        <v>0.1882042047684653</v>
       </c>
       <c r="CS2">
-        <v>0.2260898524513751</v>
+        <v>0.225710291594729</v>
       </c>
       <c r="CT2">
-        <v>0.2261082764793762</v>
+        <v>0.2257205012824184</v>
       </c>
       <c r="CU2">
-        <v>0.2702903840839468</v>
+        <v>0.2699631442574428</v>
       </c>
       <c r="CV2">
-        <v>0.270763754488282</v>
+        <v>0.2704290085375673</v>
       </c>
       <c r="CW2">
-        <v>0.287906677558841</v>
+        <v>0.2875903750160103</v>
       </c>
       <c r="CX2">
-        <v>0.2897412672593747</v>
+        <v>0.2894195776056339</v>
       </c>
       <c r="CY2">
-        <v>0.3694931329354532</v>
+        <v>0.3692873501787549</v>
       </c>
       <c r="CZ2">
-        <v>0.4516138884830972</v>
+        <v>0.451527700279912</v>
       </c>
       <c r="DA2">
-        <v>0.4522225714500961</v>
+        <v>0.4521290877640868</v>
       </c>
       <c r="DB2">
-        <v>0.4538204278634648</v>
+        <v>0.4537211885432769</v>
       </c>
       <c r="DC2">
-        <v>0.4665720391721084</v>
+        <v>0.4664844072943898</v>
       </c>
       <c r="DD2">
-        <v>0.4700276139847568</v>
+        <v>0.4699371183874893</v>
       </c>
       <c r="DE2">
-        <v>0.485301957156625</v>
+        <v>0.48522699614449</v>
       </c>
       <c r="DF2">
-        <v>0.5070709539763714</v>
+        <v>0.5070216377920763</v>
       </c>
       <c r="DG2">
-        <v>0.5089684053734969</v>
+        <v>0.5089137999352435</v>
       </c>
       <c r="DH2">
-        <v>0.5091888010315476</v>
+        <v>0.5091262956626972</v>
       </c>
       <c r="DI2">
-        <v>0.5196342734652235</v>
+        <v>0.5195797855669968</v>
       </c>
       <c r="DJ2">
-        <v>0.5204455000912411</v>
+        <v>0.5203840320103837</v>
       </c>
       <c r="DK2">
-        <v>0.5272406347228281</v>
+        <v>0.5271815016230971</v>
       </c>
       <c r="DL2">
-        <v>0.5275326355669967</v>
+        <v>0.5274657140046313</v>
       </c>
       <c r="DM2">
-        <v>0.5323927058034974</v>
+        <v>0.5323251069029339</v>
       </c>
       <c r="DN2">
-        <v>0.539818623400885</v>
+        <v>0.5397543414227839</v>
       </c>
       <c r="DO2">
-        <v>0.5436692515921149</v>
+        <v>0.5436027208749943</v>
       </c>
       <c r="DP2">
-        <v>0.5436959458566676</v>
+        <v>0.5436212136735321</v>
       </c>
       <c r="DQ2">
-        <v>0.5440489024875312</v>
+        <v>0.5439664767317789</v>
       </c>
       <c r="DR2">
-        <v>0.5449497794986882</v>
+        <v>0.544860513119272</v>
       </c>
       <c r="DS2">
-        <v>0.5453957781245073</v>
+        <v>0.5452989630111681</v>
       </c>
       <c r="DT2">
-        <v>0.5453958231229779</v>
+        <v>0.5452989630111681</v>
       </c>
       <c r="DU2">
-        <v>0.5464483907659106</v>
+        <v>0.5463449261676024</v>
       </c>
       <c r="DV2">
-        <v>0.5516738928825986</v>
+        <v>0.5515703198147653</v>
       </c>
       <c r="DW2">
-        <v>0.5579287979434753</v>
+        <v>0.5578267188801168</v>
       </c>
       <c r="DX2">
-        <v>0.5582846651241812</v>
+        <v>0.5581748970190656</v>
       </c>
       <c r="DY2">
-        <v>0.5597579331443048</v>
+        <v>0.5596422154579639</v>
       </c>
       <c r="DZ2">
-        <v>0.5647356392744276</v>
+        <v>0.5646194273739628</v>
       </c>
       <c r="EA2">
-        <v>0.5648793230666375</v>
+        <v>0.5647550918180324</v>
       </c>
       <c r="EB2">
-        <v>0.5658300233150931</v>
+        <v>0.5656990290027757</v>
       </c>
       <c r="EC2">
-        <v>0.5662919891500466</v>
+        <v>0.5661534709599984</v>
       </c>
       <c r="ED2">
-        <v>0.5663676388259451</v>
+        <v>0.5662209953788867</v>
       </c>
       <c r="EE2">
-        <v>0.5709024530800803</v>
+        <v>0.5707546259680661</v>
       </c>
       <c r="EF2">
-        <v>0.5798722215937647</v>
+        <v>0.5797301147205889</v>
       </c>
       <c r="EG2">
-        <v>0.5825437060489244</v>
+        <v>0.582397514860884</v>
       </c>
       <c r="EH2">
-        <v>0.5889745034002647</v>
+        <v>0.588830080028644</v>
       </c>
       <c r="EI2">
-        <v>0.5949463660764871</v>
+        <v>0.594802996096591</v>
       </c>
       <c r="EJ2">
-        <v>0.598657054175304</v>
+        <v>0.5985112176113154</v>
       </c>
       <c r="EK2">
-        <v>0.6010669983446436</v>
+        <v>0.6009166703254084</v>
       </c>
       <c r="EL2">
-        <v>0.6018146942041056</v>
+        <v>0.6016572871037451</v>
       </c>
       <c r="EM2">
-        <v>0.6043656268658012</v>
+        <v>0.6042039477873139</v>
       </c>
       <c r="EN2">
-        <v>0.6044627968505329</v>
+        <v>0.6042930260157512</v>
       </c>
       <c r="EO2">
-        <v>0.6048471902996923</v>
+        <v>0.604669774830063</v>
       </c>
       <c r="EP2">
-        <v>0.6062468255238079</v>
+        <v>0.6060633458486056</v>
       </c>
       <c r="EQ2">
-        <v>0.6071644414740573</v>
+        <v>0.6069741472327372</v>
       </c>
       <c r="ER2">
-        <v>0.6095046289471789</v>
+        <v>0.6093097346601981</v>
       </c>
       <c r="ES2">
-        <v>0.6138278230127875</v>
+        <v>0.6136314156312026</v>
       </c>
       <c r="ET2">
-        <v>0.616541695865649</v>
+        <v>0.6163412701553186</v>
       </c>
       <c r="EU2">
-        <v>0.6184634056614593</v>
+        <v>0.6182577284602773</v>
       </c>
       <c r="EV2">
-        <v>0.6220407764675043</v>
+        <v>0.6218324251468845</v>
       </c>
       <c r="EW2">
-        <v>0.6328277928826627</v>
+        <v>0.6326279907149911</v>
       </c>
       <c r="EX2">
-        <v>0.6575335475431863</v>
+        <v>0.6573639618612371</v>
       </c>
       <c r="EY2">
-        <v>0.6897476697966273</v>
+        <v>0.6896199888940059</v>
       </c>
       <c r="EZ2">
-        <v>0.7023430451137415</v>
+        <v>0.7022267284406517</v>
       </c>
       <c r="FA2">
-        <v>0.7026841099752499</v>
+        <v>0.7025600812175977</v>
       </c>
       <c r="FB2">
-        <v>0.7046889158665549</v>
+        <v>0.7045597649739398</v>
       </c>
       <c r="FC2">
-        <v>0.7297957865053311</v>
+        <v>0.7296974765166313</v>
       </c>
       <c r="FD2">
-        <v>0.7710839212668047</v>
+        <v>0.7710416415941834</v>
       </c>
       <c r="FE2">
-        <v>0.8120231190471967</v>
+        <v>0.8120363264996295</v>
       </c>
       <c r="FF2">
-        <v>0.8462123641935522</v>
+        <v>0.8462705511037956</v>
       </c>
       <c r="FG2">
-        <v>0.8733053667246459</v>
+        <v>0.8733974863550228</v>
       </c>
       <c r="FH2">
-        <v>0.8845514081149172</v>
+        <v>0.8846527914635076</v>
       </c>
       <c r="FI2">
-        <v>0.8849626873326187</v>
+        <v>0.8850564678995013</v>
       </c>
       <c r="FJ2">
-        <v>0.885219945018671</v>
+        <v>0.8853058830381627</v>
       </c>
       <c r="FK2">
-        <v>0.886837199130988</v>
+        <v>0.886917411712745</v>
       </c>
       <c r="FL2">
-        <v>0.8871176625757821</v>
+        <v>0.8871900687346077</v>
       </c>
       <c r="FM2">
-        <v>0.8872365667293354</v>
+        <v>0.8873009149654987</v>
       </c>
       <c r="FN2">
-        <v>0.8885173439598952</v>
+        <v>0.8885754429639654</v>
       </c>
       <c r="FO2">
-        <v>0.8944515786381577</v>
+        <v>0.894510672458359</v>
       </c>
       <c r="FP2">
-        <v>0.9134422566085366</v>
+        <v>0.9135226702410485</v>
       </c>
       <c r="FQ2">
-        <v>0.9389705832244627</v>
+        <v>0.9390824938424072</v>
       </c>
       <c r="FR2">
-        <v>0.947441268765206</v>
+        <v>0.9475581226983434</v>
       </c>
       <c r="FS2">
-        <v>0.9551824336455018</v>
+        <v>0.9553030952472932</v>
       </c>
       <c r="FT2">
-        <v>0.9595623881080331</v>
+        <v>0.9596816249742645</v>
       </c>
       <c r="FU2">
-        <v>0.9603387621659403</v>
+        <v>0.9604509645944657</v>
       </c>
       <c r="FV2">
-        <v>0.9604112043520127</v>
+        <v>0.9605152765304209</v>
       </c>
       <c r="FW2">
-        <v>0.962425964842778</v>
+        <v>0.9625249303825718</v>
       </c>
       <c r="FX2">
-        <v>0.9645839687257771</v>
+        <v>0.9646780506142842</v>
       </c>
       <c r="FY2">
-        <v>0.9678300063497861</v>
+        <v>0.9679208983317067</v>
       </c>
       <c r="FZ2">
-        <v>0.9710209305767832</v>
+        <v>0.9711085468569616</v>
       </c>
       <c r="GA2">
-        <v>0.9728047549800692</v>
+        <v>0.9728869051228791</v>
       </c>
       <c r="GB2">
-        <v>0.977597335720229</v>
+        <v>0.9776787034637822</v>
       </c>
       <c r="GC2">
-        <v>0.9823745564612215</v>
+        <v>0.9824551178945709</v>
       </c>
       <c r="GD2">
-        <v>0.9840818478686569</v>
+        <v>0.9841568240255419</v>
       </c>
       <c r="GE2">
-        <v>0.9841955350624931</v>
+        <v>0.9842624451754622</v>
       </c>
       <c r="GF2">
-        <v>0.9841958633477953</v>
+        <v>0.9842624451754622</v>
       </c>
       <c r="GG2">
-        <v>0.9868479155040085</v>
+        <v>0.9869103827665051</v>
       </c>
       <c r="GH2">
-        <v>0.9904518976086107</v>
+        <v>0.9905117321775411</v>
       </c>
       <c r="GI2">
-        <v>0.9940226308150156</v>
+        <v>0.9940797809317411</v>
       </c>
       <c r="GJ2">
-        <v>0.9947169935773692</v>
+        <v>0.9947669815892108</v>
       </c>
       <c r="GK2">
-        <v>0.9947170652092153</v>
+        <v>0.9947669815892108</v>
       </c>
       <c r="GL2">
-        <v>0.9951686912047294</v>
+        <v>0.9952110676109416</v>
       </c>
       <c r="GM2">
-        <v>0.9964213831368119</v>
+        <v>0.9964574665904804</v>
       </c>
       <c r="GN2">
-        <v>0.9971989718946532</v>
+        <v>0.997228022801542</v>
       </c>
       <c r="GO2">
-        <v>0.9977021280273736</v>
+        <v>0.9977237191775654</v>
       </c>
       <c r="GP2">
-        <v>0.9977025665345598</v>
+        <v>0.9977237191775654</v>
       </c>
       <c r="GQ2">
-        <v>0.9978704838854557</v>
+        <v>0.9978836549047594</v>
       </c>
       <c r="GR2">
-        <v>0.9986200251748177</v>
+        <v>0.9986261199857811</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>5.947895128719358E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.854875332601186E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.075569892026976E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9.615071646116228E-05</v>
+        <v>7.127859932035045E-05</v>
       </c>
       <c r="F3">
-        <v>0.0002494244820473607</v>
+        <v>0.0002106189735968973</v>
       </c>
       <c r="G3">
-        <v>0.0003330702856386251</v>
+        <v>0.0002801436424217948</v>
       </c>
       <c r="H3">
-        <v>0.0003371612672208177</v>
+        <v>0.0002801436424217948</v>
       </c>
       <c r="I3">
-        <v>0.0003424334755689947</v>
+        <v>0.0002801436424217948</v>
       </c>
       <c r="J3">
-        <v>0.0003883929142455077</v>
+        <v>0.0003118803295645185</v>
       </c>
       <c r="K3">
-        <v>0.0004637705160748702</v>
+        <v>0.000373114502412157</v>
       </c>
       <c r="L3">
-        <v>0.0007901024466775387</v>
+        <v>0.0006859796723113572</v>
       </c>
       <c r="M3">
-        <v>0.001135170516740665</v>
+        <v>0.001017631501426111</v>
       </c>
       <c r="N3">
-        <v>0.001530075435368648</v>
+        <v>0.001399254558196438</v>
       </c>
       <c r="O3">
-        <v>0.001743356489226825</v>
+        <v>0.001598764023207733</v>
       </c>
       <c r="P3">
-        <v>0.001839160756467964</v>
+        <v>0.001680479939522913</v>
       </c>
       <c r="Q3">
-        <v>0.001853468852055936</v>
+        <v>0.001680479939522913</v>
       </c>
       <c r="R3">
-        <v>0.00188619833111343</v>
+        <v>0.001698950994045715</v>
       </c>
       <c r="S3">
-        <v>0.001886726003798235</v>
+        <v>0.001698950994045715</v>
       </c>
       <c r="T3">
-        <v>0.001889009940432465</v>
+        <v>0.001698950994045715</v>
       </c>
       <c r="U3">
-        <v>0.0019056390299536</v>
+        <v>0.001701278246260918</v>
       </c>
       <c r="V3">
-        <v>0.001926157815362723</v>
+        <v>0.001707505682463009</v>
       </c>
       <c r="W3">
-        <v>0.002031702766323361</v>
+        <v>0.001798988547084211</v>
       </c>
       <c r="X3">
-        <v>0.002161194532594406</v>
+        <v>0.001914482796734004</v>
       </c>
       <c r="Y3">
-        <v>0.002209410921205926</v>
+        <v>0.001948482519406808</v>
       </c>
       <c r="Z3">
-        <v>0.00223305713352499</v>
+        <v>0.001957845815250774</v>
       </c>
       <c r="AA3">
-        <v>0.002318634661060627</v>
+        <v>0.002029307416682201</v>
       </c>
       <c r="AB3">
-        <v>0.002385750759127895</v>
+        <v>0.002082257809612742</v>
       </c>
       <c r="AC3">
-        <v>0.00242898343788293</v>
+        <v>0.002111260384452579</v>
       </c>
       <c r="AD3">
-        <v>0.002500655801818991</v>
+        <v>0.002168779328676898</v>
       </c>
       <c r="AE3">
-        <v>0.002695868646197477</v>
+        <v>0.002350171865446566</v>
       </c>
       <c r="AF3">
-        <v>0.002793974927372325</v>
+        <v>0.002434196002800201</v>
       </c>
       <c r="AG3">
-        <v>0.002818910436654261</v>
+        <v>0.002444852072041816</v>
       </c>
       <c r="AH3">
-        <v>0.002871000052154244</v>
+        <v>0.002482735465295299</v>
       </c>
       <c r="AI3">
-        <v>0.002935034820310244</v>
+        <v>0.00253259621987767</v>
       </c>
       <c r="AJ3">
-        <v>0.002970659899284354</v>
+        <v>0.002553970681955313</v>
       </c>
       <c r="AK3">
-        <v>0.00297999404101556</v>
+        <v>0.002553970681955313</v>
       </c>
       <c r="AL3">
-        <v>0.002981410595974768</v>
+        <v>0.002553970681955313</v>
       </c>
       <c r="AM3">
-        <v>0.002986903508216589</v>
+        <v>0.002553970681955313</v>
       </c>
       <c r="AN3">
-        <v>0.003039366289705826</v>
+        <v>0.002592228247395427</v>
       </c>
       <c r="AO3">
-        <v>0.003352515200688124</v>
+        <v>0.002891874851241436</v>
       </c>
       <c r="AP3">
-        <v>0.00404889045063471</v>
+        <v>0.003575781117956673</v>
       </c>
       <c r="AQ3">
-        <v>0.004683318332365186</v>
+        <v>0.004197572982799921</v>
       </c>
       <c r="AR3">
-        <v>0.00521121377716346</v>
+        <v>0.004712545158759469</v>
       </c>
       <c r="AS3">
-        <v>0.005762309661293635</v>
+        <v>0.005250780331255705</v>
       </c>
       <c r="AT3">
-        <v>0.006124823180854388</v>
+        <v>0.005599924649432346</v>
       </c>
       <c r="AU3">
-        <v>0.006272553466600221</v>
+        <v>0.005733706596539357</v>
       </c>
       <c r="AV3">
-        <v>0.006328518162988614</v>
+        <v>0.005775475519372553</v>
       </c>
       <c r="AW3">
-        <v>0.006347263834448798</v>
+        <v>0.005779925060636395</v>
       </c>
       <c r="AX3">
-        <v>0.006349331383389259</v>
+        <v>0.005779925060636395</v>
       </c>
       <c r="AY3">
-        <v>0.006367447090867584</v>
+        <v>0.005783742939295984</v>
       </c>
       <c r="AZ3">
-        <v>0.006418852355387274</v>
+        <v>0.005820940136298754</v>
       </c>
       <c r="BA3">
-        <v>0.006477851563688283</v>
+        <v>0.005865751753242344</v>
       </c>
       <c r="BB3">
-        <v>0.006593140906368314</v>
+        <v>0.00596700528416764</v>
       </c>
       <c r="BC3">
-        <v>0.006847791999035164</v>
+        <v>0.006207996337340308</v>
       </c>
       <c r="BD3">
-        <v>0.007252603247377876</v>
+        <v>0.006599552435056466</v>
       </c>
       <c r="BE3">
-        <v>0.007644597406089679</v>
+        <v>0.006978256883395267</v>
       </c>
       <c r="BF3">
-        <v>0.007819751181045801</v>
+        <v>0.007139536263865347</v>
       </c>
       <c r="BG3">
-        <v>0.008059815534132705</v>
+        <v>0.007365901246062569</v>
       </c>
       <c r="BH3">
-        <v>0.00844244852311408</v>
+        <v>0.007735219283398416</v>
       </c>
       <c r="BI3">
-        <v>0.008951836848445301</v>
+        <v>0.008231634437660786</v>
       </c>
       <c r="BJ3">
-        <v>0.009288924068738252</v>
+        <v>0.008555283897600222</v>
       </c>
       <c r="BK3">
-        <v>0.009434588924543562</v>
+        <v>0.008686994845582354</v>
       </c>
       <c r="BL3">
-        <v>0.009581404240315743</v>
+        <v>0.008819859355608811</v>
       </c>
       <c r="BM3">
-        <v>0.009599117292805662</v>
+        <v>0.008823273493569064</v>
       </c>
       <c r="BN3">
-        <v>0.00967042167075232</v>
+        <v>0.008880423459573851</v>
       </c>
       <c r="BO3">
-        <v>0.009675266048212817</v>
+        <v>0.008880423459573851</v>
       </c>
       <c r="BP3">
-        <v>0.009677139027058882</v>
+        <v>0.008880423459573851</v>
       </c>
       <c r="BQ3">
-        <v>0.009739504299262959</v>
+        <v>0.008928610216608504</v>
       </c>
       <c r="BR3">
-        <v>0.009917873844126478</v>
+        <v>0.009093114037924222</v>
       </c>
       <c r="BS3">
-        <v>0.01000570358159726</v>
+        <v>0.009166833922105024</v>
       </c>
       <c r="BT3">
-        <v>0.01041347264985479</v>
+        <v>0.009561355815143001</v>
       </c>
       <c r="BU3">
-        <v>0.01072662156083709</v>
+        <v>0.009861002418989009</v>
       </c>
       <c r="BV3">
-        <v>0.01107523311079818</v>
+        <v>0.01019620728257069</v>
       </c>
       <c r="BW3">
-        <v>0.0116224275950407</v>
+        <v>0.01073053053552194</v>
       </c>
       <c r="BX3">
-        <v>0.01223606164736997</v>
+        <v>0.01133147250289451</v>
       </c>
       <c r="BY3">
-        <v>0.01271800817349143</v>
+        <v>0.01180037186442362</v>
       </c>
       <c r="BZ3">
-        <v>0.01323936655847795</v>
+        <v>0.0123087893541729</v>
       </c>
       <c r="CA3">
-        <v>0.01366411829624644</v>
+        <v>0.01272033970845531</v>
       </c>
       <c r="CB3">
-        <v>0.01386406821048851</v>
+        <v>0.01290648208802986</v>
       </c>
       <c r="CC3">
-        <v>0.01388938162275956</v>
+        <v>0.01291751707923072</v>
       </c>
       <c r="CD3">
-        <v>0.01391112144213352</v>
+        <v>0.01292496884176943</v>
       </c>
       <c r="CE3">
-        <v>0.01393131829555192</v>
+        <v>0.01293087347792975</v>
       </c>
       <c r="CF3">
-        <v>0.01421163458747969</v>
+        <v>0.01319759893349795</v>
       </c>
       <c r="CG3">
-        <v>0.0146764177440954</v>
+        <v>0.01364928864655195</v>
       </c>
       <c r="CH3">
-        <v>0.01496153283588499</v>
+        <v>0.0139208258413708</v>
       </c>
       <c r="CI3">
-        <v>0.01529383382631577</v>
+        <v>0.01423967616595272</v>
       </c>
       <c r="CJ3">
-        <v>0.01571361524422738</v>
+        <v>0.01464624279850631</v>
       </c>
       <c r="CK3">
-        <v>0.01614863859170008</v>
+        <v>0.01506809245865775</v>
       </c>
       <c r="CL3">
-        <v>0.01670075667580082</v>
+        <v>0.01560735258736429</v>
       </c>
       <c r="CM3">
-        <v>0.01815163963401996</v>
+        <v>0.01704780100198253</v>
       </c>
       <c r="CN3">
-        <v>0.1621644554869046</v>
+        <v>0.1614345834815836</v>
       </c>
       <c r="CO3">
-        <v>0.1634430646500847</v>
+        <v>0.1627022935855162</v>
       </c>
       <c r="CP3">
-        <v>0.2026421815212736</v>
+        <v>0.2019927595028672</v>
       </c>
       <c r="CQ3">
-        <v>0.2372384445250102</v>
+        <v>0.2366679605088249</v>
       </c>
       <c r="CR3">
-        <v>0.252805952076715</v>
+        <v>0.2522630973036949</v>
       </c>
       <c r="CS3">
-        <v>0.25868385290745</v>
+        <v>0.2581425005140782</v>
       </c>
       <c r="CT3">
-        <v>0.2626040347945611</v>
+        <v>0.2620589060262794</v>
       </c>
       <c r="CU3">
-        <v>0.2645672203380275</v>
+        <v>0.2640130383886821</v>
       </c>
       <c r="CV3">
-        <v>0.264745589882891</v>
+        <v>0.2641775422099978</v>
       </c>
       <c r="CW3">
-        <v>0.2655779427089219</v>
+        <v>0.2649977927000385</v>
       </c>
       <c r="CX3">
-        <v>0.2843970731669902</v>
+        <v>0.2838533200128304</v>
       </c>
       <c r="CY3">
-        <v>0.3330264017666187</v>
+        <v>0.3325994250946213</v>
       </c>
       <c r="CZ3">
-        <v>0.3376047312347773</v>
+        <v>0.3371757528039631</v>
       </c>
       <c r="DA3">
-        <v>0.3426515014894462</v>
+        <v>0.3422217843942678</v>
       </c>
       <c r="DB3">
-        <v>0.3735555685995064</v>
+        <v>0.3731948339427198</v>
       </c>
       <c r="DC3">
-        <v>0.3791414829386497</v>
+        <v>0.3787814633549225</v>
       </c>
       <c r="DD3">
-        <v>0.3902101636199066</v>
+        <v>0.3898656427317366</v>
       </c>
       <c r="DE3">
-        <v>0.4077757331140735</v>
+        <v>0.4074642290036893</v>
       </c>
       <c r="DF3">
-        <v>0.4206760647425846</v>
+        <v>0.420384998155069</v>
       </c>
       <c r="DG3">
-        <v>0.4275581332444027</v>
+        <v>0.4272712766543413</v>
       </c>
       <c r="DH3">
-        <v>0.4342112915528127</v>
+        <v>0.433928027731297</v>
       </c>
       <c r="DI3">
-        <v>0.4484692301422289</v>
+        <v>0.4482100644680839</v>
       </c>
       <c r="DJ3">
-        <v>0.4512873558610758</v>
+        <v>0.4510214422496112</v>
       </c>
       <c r="DK3">
-        <v>0.4589039212417427</v>
+        <v>0.4586441981105588</v>
       </c>
       <c r="DL3">
-        <v>0.4610549371798002</v>
+        <v>0.4607866673297059</v>
       </c>
       <c r="DM3">
-        <v>0.4783786276809325</v>
+        <v>0.4781427224109011</v>
       </c>
       <c r="DN3">
-        <v>0.4787830418092867</v>
+        <v>0.4785338803178422</v>
       </c>
       <c r="DO3">
-        <v>0.4788610919570391</v>
+        <v>0.4785977942428127</v>
       </c>
       <c r="DP3">
-        <v>0.4796328350048153</v>
+        <v>0.4793572715275939</v>
       </c>
       <c r="DQ3">
-        <v>0.4796344870667677</v>
+        <v>0.4793572715275939</v>
       </c>
       <c r="DR3">
-        <v>0.4846880183212419</v>
+        <v>0.4844100823479298</v>
       </c>
       <c r="DS3">
-        <v>0.4867299595624405</v>
+        <v>0.486443182763367</v>
       </c>
       <c r="DT3">
-        <v>0.4877192389339524</v>
+        <v>0.4874207829325156</v>
       </c>
       <c r="DU3">
-        <v>0.4930590661801821</v>
+        <v>0.4927606617074449</v>
       </c>
       <c r="DV3">
-        <v>0.5009774599521574</v>
+        <v>0.500686059803793</v>
       </c>
       <c r="DW3">
-        <v>0.5206945093843685</v>
+        <v>0.5204419272216531</v>
       </c>
       <c r="DX3">
-        <v>0.5243323142796111</v>
+        <v>0.5240751943462616</v>
       </c>
       <c r="DY3">
-        <v>0.5288544921493866</v>
+        <v>0.5285952190511635</v>
       </c>
       <c r="DZ3">
-        <v>0.5390859508547529</v>
+        <v>0.5388399189833447</v>
       </c>
       <c r="EA3">
-        <v>0.5391076906741268</v>
+        <v>0.5388473707458834</v>
       </c>
       <c r="EB3">
-        <v>0.5401733221434399</v>
+        <v>0.5399015288871165</v>
       </c>
       <c r="EC3">
-        <v>0.5416687788003755</v>
+        <v>0.5413866711880889</v>
       </c>
       <c r="ED3">
-        <v>0.5420607729590873</v>
+        <v>0.5417653756364277</v>
       </c>
       <c r="EE3">
-        <v>0.549748428737707</v>
+        <v>0.5494594135820683</v>
       </c>
       <c r="EF3">
-        <v>0.5627001373647386</v>
+        <v>0.5624316982638891</v>
       </c>
       <c r="EG3">
-        <v>0.5639644733283297</v>
+        <v>0.5636850966822603</v>
       </c>
       <c r="EH3">
-        <v>0.5677752347185917</v>
+        <v>0.5674917866583534</v>
       </c>
       <c r="EI3">
-        <v>0.5800828403641715</v>
+        <v>0.579818231612209</v>
       </c>
       <c r="EJ3">
-        <v>0.5850424188213512</v>
+        <v>0.5847768363027899</v>
       </c>
       <c r="EK3">
-        <v>0.5868206726701432</v>
+        <v>0.5865455383243617</v>
       </c>
       <c r="EL3">
-        <v>0.5903349868689419</v>
+        <v>0.5900549817746601</v>
       </c>
       <c r="EM3">
-        <v>0.5962989012972</v>
+        <v>0.596020630507926</v>
       </c>
       <c r="EN3">
-        <v>0.5968897731801848</v>
+        <v>0.5965987489304917</v>
       </c>
       <c r="EO3">
-        <v>0.5969545714983188</v>
+        <v>0.5966493752938731</v>
       </c>
       <c r="EP3">
-        <v>0.5969612358071269</v>
+        <v>0.5966493752938731</v>
       </c>
       <c r="EQ3">
-        <v>0.597052668064494</v>
+        <v>0.5967267074117134</v>
       </c>
       <c r="ER3">
-        <v>0.5977974492130467</v>
+        <v>0.5974591500977403</v>
       </c>
       <c r="ES3">
-        <v>0.5997197517576904</v>
+        <v>0.5993722892252126</v>
       </c>
       <c r="ET3">
-        <v>0.6018760986955944</v>
+        <v>0.6015201038186084</v>
       </c>
       <c r="EU3">
-        <v>0.6052671985979414</v>
+        <v>0.6049060007398681</v>
       </c>
       <c r="EV3">
-        <v>0.6127556163822986</v>
+        <v>0.6124002634698672</v>
       </c>
       <c r="EW3">
-        <v>0.6342370557637008</v>
+        <v>0.6339252783030076</v>
       </c>
       <c r="EX3">
-        <v>0.6641910789011193</v>
+        <v>0.6639457221990797</v>
       </c>
       <c r="EY3">
-        <v>0.6962939719766571</v>
+        <v>0.6961208302035822</v>
       </c>
       <c r="EZ3">
-        <v>0.7164306853967832</v>
+        <v>0.7162974931830166</v>
       </c>
       <c r="FA3">
-        <v>0.7165362303477438</v>
+        <v>0.7163889760476378</v>
       </c>
       <c r="FB3">
-        <v>0.720426686435711</v>
+        <v>0.7202755756086394</v>
       </c>
       <c r="FC3">
-        <v>0.7354005330045114</v>
+        <v>0.7352754506848969</v>
       </c>
       <c r="FD3">
-        <v>0.7686867350459736</v>
+        <v>0.7686370583061667</v>
       </c>
       <c r="FE3">
-        <v>0.8085668608975516</v>
+        <v>0.808610369463024</v>
       </c>
       <c r="FF3">
-        <v>0.8434734818923508</v>
+        <v>0.8435967653031803</v>
       </c>
       <c r="FG3">
-        <v>0.8684285491737235</v>
+        <v>0.8686047742577143</v>
       </c>
       <c r="FH3">
-        <v>0.8769224734291252</v>
+        <v>0.8771072546864777</v>
       </c>
       <c r="FI3">
-        <v>0.8771444661527326</v>
+        <v>0.8773154993112118</v>
       </c>
       <c r="FJ3">
-        <v>0.8781047861250784</v>
+        <v>0.8782640619956444</v>
       </c>
       <c r="FK3">
-        <v>0.8783594372177452</v>
+        <v>0.8785050530488171</v>
       </c>
       <c r="FL3">
-        <v>0.8783596015118605</v>
+        <v>0.8785050530488171</v>
       </c>
       <c r="FM3">
-        <v>0.8786966887321535</v>
+        <v>0.8788287025087566</v>
       </c>
       <c r="FN3">
-        <v>0.8837773075858476</v>
+        <v>0.883908673966778</v>
       </c>
       <c r="FO3">
-        <v>0.8949082062653128</v>
+        <v>0.8950552391051777</v>
       </c>
       <c r="FP3">
-        <v>0.9147959456926085</v>
+        <v>0.9149822567632422</v>
       </c>
       <c r="FQ3">
-        <v>0.9359544200833111</v>
+        <v>0.9361834357692832</v>
       </c>
       <c r="FR3">
-        <v>0.9438410998561996</v>
+        <v>0.9440770343535461</v>
       </c>
       <c r="FS3">
-        <v>0.948294765727948</v>
+        <v>0.9485283623260273</v>
       </c>
       <c r="FT3">
-        <v>0.9498114512842722</v>
+        <v>0.950034790767572</v>
       </c>
       <c r="FU3">
-        <v>0.9504670194153939</v>
+        <v>0.950677779883956</v>
       </c>
       <c r="FV3">
-        <v>0.9519433792728794</v>
+        <v>0.9521437738932468</v>
       </c>
       <c r="FW3">
-        <v>0.9548853056881612</v>
+        <v>0.9550792861849532</v>
       </c>
       <c r="FX3">
-        <v>0.9574674384138039</v>
+        <v>0.9576540346464468</v>
       </c>
       <c r="FY3">
-        <v>0.9625381786677826</v>
+        <v>0.9627241008682923</v>
       </c>
       <c r="FZ3">
-        <v>0.9686462174918903</v>
+        <v>0.9688342626115723</v>
       </c>
       <c r="GA3">
-        <v>0.9737627883445492</v>
+        <v>0.9739502830088159</v>
       </c>
       <c r="GB3">
-        <v>0.9781110122193341</v>
+        <v>0.9782958846726227</v>
       </c>
       <c r="GC3">
-        <v>0.9826382614889635</v>
+        <v>0.9828209944518006</v>
       </c>
       <c r="GD3">
-        <v>0.9845316531344398</v>
+        <v>0.9847051447253299</v>
       </c>
       <c r="GE3">
-        <v>0.984755837617984</v>
+        <v>0.9849155870198189</v>
       </c>
       <c r="GF3">
-        <v>0.9848842490742862</v>
+        <v>0.9850299980465733</v>
       </c>
       <c r="GG3">
-        <v>0.9878027826902416</v>
+        <v>0.9879420544630729</v>
       </c>
       <c r="GH3">
-        <v>0.991269084890423</v>
+        <v>0.9914033564561524</v>
       </c>
       <c r="GI3">
-        <v>0.9945693913953846</v>
+        <v>0.9946982151665095</v>
       </c>
       <c r="GJ3">
-        <v>0.9948561151071278</v>
+        <v>0.994971365318733</v>
       </c>
       <c r="GK3">
-        <v>0.9949151143154288</v>
+        <v>0.9950161769356766</v>
       </c>
       <c r="GL3">
-        <v>0.9952341110262427</v>
+        <v>0.9953216871072458</v>
       </c>
       <c r="GM3">
-        <v>0.9953000959943425</v>
+        <v>0.9953735033202524</v>
       </c>
       <c r="GN3">
-        <v>0.9954091316662027</v>
+        <v>0.9954684863180837</v>
       </c>
       <c r="GO3">
-        <v>0.9954369989814003</v>
+        <v>0.9954820820985043</v>
       </c>
       <c r="GP3">
-        <v>0.9960312462142878</v>
+        <v>0.9960635849721995</v>
       </c>
       <c r="GQ3">
-        <v>0.9970175354858858</v>
+        <v>0.9970381869789881</v>
       </c>
       <c r="GR3">
-        <v>0.9979580587588017</v>
+        <v>0.9979668995845627</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0005057482990703502</v>
+        <v>0.0004820387027005491</v>
       </c>
       <c r="C4">
-        <v>0.0006186974488627308</v>
+        <v>0.0005694149837091973</v>
       </c>
       <c r="D4">
-        <v>0.0006388386418257079</v>
+        <v>0.0005694149837091973</v>
       </c>
       <c r="E4">
-        <v>0.0006837166137432147</v>
+        <v>0.000588397186072562</v>
       </c>
       <c r="F4">
-        <v>0.0006867441610376496</v>
+        <v>0.000588397186072562</v>
       </c>
       <c r="G4">
-        <v>0.0007471226259266638</v>
+        <v>0.0006229534091658555</v>
       </c>
       <c r="H4">
-        <v>0.0007731080138788984</v>
+        <v>0.0006229534091658555</v>
       </c>
       <c r="I4">
-        <v>0.00077730692537118</v>
+        <v>0.0006229534091658555</v>
       </c>
       <c r="J4">
-        <v>0.0008171297292979791</v>
+        <v>0.0006368564639675736</v>
       </c>
       <c r="K4">
-        <v>0.0008940184551566448</v>
+        <v>0.0006880012656996582</v>
       </c>
       <c r="L4">
-        <v>0.0009282288850937603</v>
+        <v>0.0006962653237920385</v>
       </c>
       <c r="M4">
-        <v>0.001008928604945421</v>
+        <v>0.0007512391972547858</v>
       </c>
       <c r="N4">
-        <v>0.00119649636460064</v>
+        <v>0.0009135880471345312</v>
       </c>
       <c r="O4">
-        <v>0.001416206124196777</v>
+        <v>0.001108231364958062</v>
       </c>
       <c r="P4">
-        <v>0.001562004523928775</v>
+        <v>0.001228612718802949</v>
       </c>
       <c r="Q4">
-        <v>0.001662495173744056</v>
+        <v>0.001303471401999462</v>
       </c>
       <c r="R4">
-        <v>0.001768880393548503</v>
+        <v>0.001384252616522818</v>
       </c>
       <c r="S4">
-        <v>0.001970521433177853</v>
+        <v>0.001560741504042533</v>
       </c>
       <c r="T4">
-        <v>0.002317317172540384</v>
+        <v>0.001883073643570206</v>
       </c>
       <c r="U4">
-        <v>0.002586646112045312</v>
+        <v>0.002127571513627789</v>
       </c>
       <c r="V4">
-        <v>0.002700006331836937</v>
+        <v>0.002215360814577252</v>
       </c>
       <c r="W4">
-        <v>0.002737691033767667</v>
+        <v>0.002227115625134693</v>
       </c>
       <c r="X4">
-        <v>0.002746782382750955</v>
+        <v>0.002227115625134693</v>
       </c>
       <c r="Y4">
-        <v>0.002748941775746986</v>
+        <v>0.002227115625134693</v>
       </c>
       <c r="Z4">
-        <v>0.002750166510844735</v>
+        <v>0.002227115625134693</v>
       </c>
       <c r="AA4">
-        <v>0.002797375040757957</v>
+        <v>0.002248439440671542</v>
       </c>
       <c r="AB4">
-        <v>0.002804341978445151</v>
+        <v>0.002248439440671542</v>
       </c>
       <c r="AC4">
-        <v>0.00284284819037437</v>
+        <v>0.00226101965812216</v>
       </c>
       <c r="AD4">
-        <v>0.003135270789836849</v>
+        <v>0.002528720734656461</v>
       </c>
       <c r="AE4">
-        <v>0.003354408129434037</v>
+        <v>0.002722788917163572</v>
       </c>
       <c r="AF4">
-        <v>0.003531312099108858</v>
+        <v>0.002874423392570221</v>
       </c>
       <c r="AG4">
-        <v>0.003985804968273425</v>
+        <v>0.003304963531364357</v>
       </c>
       <c r="AH4">
-        <v>0.004489623937347321</v>
+        <v>0.003785063752145984</v>
       </c>
       <c r="AI4">
-        <v>0.00471259143693747</v>
+        <v>0.00398298026329909</v>
       </c>
       <c r="AJ4">
-        <v>0.004970488336463412</v>
+        <v>0.004215991864633131</v>
       </c>
       <c r="AK4">
-        <v>0.005135327276160411</v>
+        <v>0.004355504078681563</v>
       </c>
       <c r="AL4">
-        <v>0.005247365645954466</v>
+        <v>0.004441965259338216</v>
       </c>
       <c r="AM4">
-        <v>0.005304811313848871</v>
+        <v>0.004473574773492982</v>
       </c>
       <c r="AN4">
-        <v>0.005336339158790918</v>
+        <v>0.004479143521545883</v>
       </c>
       <c r="AO4">
-        <v>0.005341138823782095</v>
+        <v>0.004479143521545883</v>
       </c>
       <c r="AP4">
-        <v>0.005348566453768442</v>
+        <v>0.004479143521545883</v>
       </c>
       <c r="AQ4">
-        <v>0.005396040873681176</v>
+        <v>0.004500734488351525</v>
       </c>
       <c r="AR4">
-        <v>0.005475971023534251</v>
+        <v>0.00455493514130231</v>
       </c>
       <c r="AS4">
-        <v>0.005585029963333783</v>
+        <v>0.004638402758813366</v>
       </c>
       <c r="AT4">
-        <v>0.005620252295269038</v>
+        <v>0.004647683518937395</v>
       </c>
       <c r="AU4">
-        <v>0.005732927835061922</v>
+        <v>0.004734784892056861</v>
       </c>
       <c r="AV4">
-        <v>0.005939475914682252</v>
+        <v>0.004916204096482148</v>
       </c>
       <c r="AW4">
-        <v>0.006171771214255255</v>
+        <v>0.005123492654741409</v>
       </c>
       <c r="AX4">
-        <v>0.006299988764019569</v>
+        <v>0.00522620976252975</v>
       </c>
       <c r="AY4">
-        <v>0.006447607333748222</v>
+        <v>0.005348419920485061</v>
       </c>
       <c r="AZ4">
-        <v>0.006711677433262817</v>
+        <v>0.005587634004847867</v>
       </c>
       <c r="BA4">
-        <v>0.007013648212707745</v>
+        <v>0.005864928553877082</v>
       </c>
       <c r="BB4">
-        <v>0.007159446612439743</v>
+        <v>0.005985309907721968</v>
       </c>
       <c r="BC4">
-        <v>0.007216049295335697</v>
+        <v>0.006016072438115314</v>
       </c>
       <c r="BD4">
-        <v>0.007216980498133986</v>
+        <v>0.006016072438115314</v>
       </c>
       <c r="BE4">
-        <v>0.007218841796330564</v>
+        <v>0.006016072438115314</v>
       </c>
       <c r="BF4">
-        <v>0.007274351503228528</v>
+        <v>0.006045736807896522</v>
       </c>
       <c r="BG4">
-        <v>0.007366253523059597</v>
+        <v>0.006111966120294203</v>
       </c>
       <c r="BH4">
-        <v>0.007416915586966472</v>
+        <v>0.006136759851923883</v>
       </c>
       <c r="BI4">
-        <v>0.007447963106909401</v>
+        <v>0.006141845996519777</v>
       </c>
       <c r="BJ4">
-        <v>0.007597203256635073</v>
+        <v>0.006265685426559224</v>
       </c>
       <c r="BK4">
-        <v>0.007822420336221086</v>
+        <v>0.006465862188760708</v>
       </c>
       <c r="BL4">
-        <v>0.007871415503131024</v>
+        <v>0.006488981116341726</v>
       </c>
       <c r="BM4">
-        <v>0.007937459193009625</v>
+        <v>0.006529229437846967</v>
       </c>
       <c r="BN4">
-        <v>0.008106737682698463</v>
+        <v>0.006673202261227732</v>
       </c>
       <c r="BO4">
-        <v>0.008304193752335506</v>
+        <v>0.00684548632703409</v>
       </c>
       <c r="BP4">
-        <v>0.008418057372126206</v>
+        <v>0.00693378141589852</v>
       </c>
       <c r="BQ4">
-        <v>0.008558259501868492</v>
+        <v>0.007048539953424579</v>
       </c>
       <c r="BR4">
-        <v>0.008699480261608904</v>
+        <v>0.007164321952897051</v>
       </c>
       <c r="BS4">
-        <v>0.008709719057590083</v>
+        <v>0.007164321952897051</v>
       </c>
       <c r="BT4">
-        <v>0.008710696394088287</v>
+        <v>0.007164321952897051</v>
       </c>
       <c r="BU4">
-        <v>0.008710891023507928</v>
+        <v>0.007164321952897051</v>
       </c>
       <c r="BV4">
-        <v>0.008714139099901957</v>
+        <v>0.007164321952897051</v>
       </c>
       <c r="BW4">
-        <v>0.008756577515823949</v>
+        <v>0.007180853027046892</v>
       </c>
       <c r="BX4">
-        <v>0.008875489829605369</v>
+        <v>0.007274220758763073</v>
       </c>
       <c r="BY4">
-        <v>0.009000806909375015</v>
+        <v>0.007374023637958392</v>
       </c>
       <c r="BZ4">
-        <v>0.009197901179012723</v>
+        <v>0.00754594418753981</v>
       </c>
       <c r="CA4">
-        <v>0.009379924198678134</v>
+        <v>0.007702721995537076</v>
       </c>
       <c r="CB4">
-        <v>0.009500716698456098</v>
+        <v>0.007797978832053997</v>
       </c>
       <c r="CC4">
-        <v>0.009748644898000364</v>
+        <v>0.008020974446125539</v>
       </c>
       <c r="CD4">
-        <v>0.01002757041748765</v>
+        <v>0.008275114418266999</v>
       </c>
       <c r="CE4">
-        <v>0.01014093063727928</v>
+        <v>0.008362903719216462</v>
       </c>
       <c r="CF4">
-        <v>0.01019497858717993</v>
+        <v>0.008391099398045703</v>
       </c>
       <c r="CG4">
-        <v>0.01023426133710772</v>
+        <v>0.008404459837061505</v>
       </c>
       <c r="CH4">
-        <v>0.01030615144697557</v>
+        <v>0.008450582311490519</v>
       </c>
       <c r="CI4">
-        <v>0.01038531571683006</v>
+        <v>0.008504013451433128</v>
       </c>
       <c r="CJ4">
-        <v>0.01041399391677734</v>
+        <v>0.008506719036985137</v>
       </c>
       <c r="CK4">
-        <v>0.01041505799037539</v>
+        <v>0.008506719036985137</v>
       </c>
       <c r="CL4">
-        <v>0.01042529678635657</v>
+        <v>0.008506719036985137</v>
       </c>
       <c r="CM4">
-        <v>0.02302221376320133</v>
+        <v>0.02113728178875075</v>
       </c>
       <c r="CN4">
-        <v>0.1089511936052495</v>
+        <v>0.107447763581184</v>
       </c>
       <c r="CO4">
-        <v>0.1139532740960549</v>
+        <v>0.1124474631667639</v>
       </c>
       <c r="CP4">
-        <v>0.2017411039346862</v>
+        <v>0.2006256125510491</v>
       </c>
       <c r="CQ4">
-        <v>0.2512923338436028</v>
+        <v>0.2503857838076715</v>
       </c>
       <c r="CR4">
-        <v>0.2557441055354197</v>
+        <v>0.2548325641629364</v>
       </c>
       <c r="CS4">
-        <v>0.2617587869243637</v>
+        <v>0.2608496679954487</v>
       </c>
       <c r="CT4">
-        <v>0.2623235169233256</v>
+        <v>0.2613909681821863</v>
       </c>
       <c r="CU4">
-        <v>0.265282762017886</v>
+        <v>0.2643381420276216</v>
       </c>
       <c r="CV4">
-        <v>0.2681003340127069</v>
+        <v>0.2671429707362749</v>
       </c>
       <c r="CW4">
-        <v>0.300651167952873</v>
+        <v>0.2998221033626423</v>
       </c>
       <c r="CX4">
-        <v>0.3155282759255264</v>
+        <v>0.3147436733683189</v>
       </c>
       <c r="CY4">
-        <v>0.3156201779453575</v>
+        <v>0.3148099026807166</v>
       </c>
       <c r="CZ4">
-        <v>0.3453420008907238</v>
+        <v>0.3446466046850905</v>
       </c>
       <c r="DA4">
-        <v>0.4325215207304733</v>
+        <v>0.4322135585060976</v>
       </c>
       <c r="DB4">
-        <v>0.4340768662276143</v>
+        <v>0.4337501732504037</v>
       </c>
       <c r="DC4">
-        <v>0.4591405071815431</v>
+        <v>0.458906596825454</v>
       </c>
       <c r="DD4">
-        <v>0.4601739571796435</v>
+        <v>0.459918840420026</v>
       </c>
       <c r="DE4">
-        <v>0.4611005878779402</v>
+        <v>0.4608237580093827</v>
       </c>
       <c r="DF4">
-        <v>0.4914953378220696</v>
+        <v>0.4913365790925323</v>
       </c>
       <c r="DG4">
-        <v>0.5069002227937528</v>
+        <v>0.5067884296472714</v>
       </c>
       <c r="DH4">
-        <v>0.5070255398735224</v>
+        <v>0.5068882325264668</v>
       </c>
       <c r="DI4">
-        <v>0.5073897395328529</v>
+        <v>0.5072280511427705</v>
       </c>
       <c r="DJ4">
-        <v>0.5085732001306775</v>
+        <v>0.5083910169236696</v>
       </c>
       <c r="DK4">
-        <v>0.5087399186903711</v>
+        <v>0.5085324176738339</v>
       </c>
       <c r="DL4">
-        <v>0.513807500881056</v>
+        <v>0.513597929671551</v>
       </c>
       <c r="DM4">
-        <v>0.518535584372365</v>
+        <v>0.5183223325321856</v>
       </c>
       <c r="DN4">
-        <v>0.522964467864224</v>
+        <v>0.5227461161155885</v>
       </c>
       <c r="DO4">
-        <v>0.5261231618584178</v>
+        <v>0.5258936849615674</v>
       </c>
       <c r="DP4">
-        <v>0.5264977590377292</v>
+        <v>0.5262439504192729</v>
       </c>
       <c r="DQ4">
-        <v>0.5265863976775663</v>
+        <v>0.5263069008715872</v>
       </c>
       <c r="DR4">
-        <v>0.5266984360473603</v>
+        <v>0.5263933620522439</v>
       </c>
       <c r="DS4">
-        <v>0.5279502092450593</v>
+        <v>0.5276249644789913</v>
       </c>
       <c r="DT4">
-        <v>0.5304836099404024</v>
+        <v>0.5301442739001581</v>
       </c>
       <c r="DU4">
-        <v>0.5327632904362121</v>
+        <v>0.5324086595808734</v>
       </c>
       <c r="DV4">
-        <v>0.5400841387227552</v>
+        <v>0.5397381262122557</v>
       </c>
       <c r="DW4">
-        <v>0.5499449257046294</v>
+        <v>0.5496195799298906</v>
       </c>
       <c r="DX4">
-        <v>0.5549382041954509</v>
+        <v>0.5546104357625354</v>
       </c>
       <c r="DY4">
-        <v>0.5573965311909321</v>
+        <v>0.5570543153660781</v>
       </c>
       <c r="DZ4">
-        <v>0.5588543952882523</v>
+        <v>0.5584929863001853</v>
       </c>
       <c r="EA4">
-        <v>0.5588668743132293</v>
+        <v>0.5584929863001853</v>
       </c>
       <c r="EB4">
-        <v>0.5605123887102046</v>
+        <v>0.5601201976673081</v>
       </c>
       <c r="EC4">
-        <v>0.5605822905000761</v>
+        <v>0.5601643223899948</v>
       </c>
       <c r="ED4">
-        <v>0.5622980320969223</v>
+        <v>0.5618620940850121</v>
       </c>
       <c r="EE4">
-        <v>0.5638354800940962</v>
+        <v>0.5633807264312091</v>
       </c>
       <c r="EF4">
-        <v>0.5680456840863571</v>
+        <v>0.5675847931923012</v>
       </c>
       <c r="EG4">
-        <v>0.5724860040781951</v>
+        <v>0.572020067525584</v>
       </c>
       <c r="EH4">
-        <v>0.5750636828734569</v>
+        <v>0.5745838650831785</v>
       </c>
       <c r="EI4">
-        <v>0.5751899630832248</v>
+        <v>0.5746846356610519</v>
       </c>
       <c r="EJ4">
-        <v>0.575728974182234</v>
+        <v>0.5752000949482935</v>
       </c>
       <c r="EK4">
-        <v>0.5811351894722965</v>
+        <v>0.5806058463770558</v>
       </c>
       <c r="EL4">
-        <v>0.5828956810690604</v>
+        <v>0.5823485803469933</v>
       </c>
       <c r="EM4">
-        <v>0.5831349647586206</v>
+        <v>0.5825628904451952</v>
       </c>
       <c r="EN4">
-        <v>0.5831354991003196</v>
+        <v>0.5825628904451952</v>
       </c>
       <c r="EO4">
-        <v>0.5835108445696296</v>
+        <v>0.5829139077424693</v>
       </c>
       <c r="EP4">
-        <v>0.5839685467987883</v>
+        <v>0.5833476724650989</v>
       </c>
       <c r="EQ4">
-        <v>0.5849638458969587</v>
+        <v>0.5843215841880675</v>
       </c>
       <c r="ER4">
-        <v>0.5851331243866476</v>
+        <v>0.5844655570114482</v>
       </c>
       <c r="ES4">
-        <v>0.5851614815865954</v>
+        <v>0.584467940074313</v>
       </c>
       <c r="ET4">
-        <v>0.5853944972561671</v>
+        <v>0.5846759524197004</v>
       </c>
       <c r="EU4">
-        <v>0.5868108568535636</v>
+        <v>0.5860729219741556</v>
       </c>
       <c r="EV4">
-        <v>0.5912314578454378</v>
+        <v>0.5904883837689099</v>
       </c>
       <c r="EW4">
-        <v>0.6106918208096664</v>
+        <v>0.6100149497821683</v>
       </c>
       <c r="EX4">
-        <v>0.638767886758058</v>
+        <v>0.6381980880170269</v>
       </c>
       <c r="EY4">
-        <v>0.6663140947074234</v>
+        <v>0.6658488548314463</v>
       </c>
       <c r="EZ4">
-        <v>0.6722062009965928</v>
+        <v>0.6717428021199459</v>
       </c>
       <c r="FA4">
-        <v>0.6749219239916008</v>
+        <v>0.674445298700368</v>
       </c>
       <c r="FB4">
-        <v>0.6903587999632252</v>
+        <v>0.6899292920067712</v>
       </c>
       <c r="FC4">
-        <v>0.7204772169078626</v>
+        <v>0.7201644692839875</v>
       </c>
       <c r="FD4">
-        <v>0.7621366128312856</v>
+        <v>0.7619953710449134</v>
       </c>
       <c r="FE4">
-        <v>0.8036121807550466</v>
+        <v>0.8036415728041851</v>
       </c>
       <c r="FF4">
-        <v>0.8354075206966014</v>
+        <v>0.8355616276891326</v>
       </c>
       <c r="FG4">
-        <v>0.8469292116754226</v>
+        <v>0.8471118640271926</v>
       </c>
       <c r="FH4">
-        <v>0.8469410027484009</v>
+        <v>0.8471118640271926</v>
       </c>
       <c r="FI4">
-        <v>0.8495891314435332</v>
+        <v>0.8497464456690753</v>
       </c>
       <c r="FJ4">
-        <v>0.8509621981410093</v>
+        <v>0.8510999169604715</v>
       </c>
       <c r="FK4">
-        <v>0.8514254284401578</v>
+        <v>0.8515392359759082</v>
       </c>
       <c r="FL4">
-        <v>0.8515420575999434</v>
+        <v>0.8516303097233152</v>
       </c>
       <c r="FM4">
-        <v>0.8541946069950676</v>
+        <v>0.8542693330351139</v>
       </c>
       <c r="FN4">
-        <v>0.8660533189732693</v>
+        <v>0.8661581890571041</v>
       </c>
       <c r="FO4">
-        <v>0.8875813689336972</v>
+        <v>0.8877622502959017</v>
       </c>
       <c r="FP4">
-        <v>0.9125438278878121</v>
+        <v>0.9128170119066845</v>
       </c>
       <c r="FQ4">
-        <v>0.9357834998450937</v>
+        <v>0.9361408143504749</v>
       </c>
       <c r="FR4">
-        <v>0.9422388548332277</v>
+        <v>0.9426006821506578</v>
       </c>
       <c r="FS4">
-        <v>0.944916895428305</v>
+        <v>0.9452653175818408</v>
       </c>
       <c r="FT4">
-        <v>0.944973498111201</v>
+        <v>0.9452960801122342</v>
       </c>
       <c r="FU4">
-        <v>0.946812307307821</v>
+        <v>0.9471175031874742</v>
       </c>
       <c r="FV4">
-        <v>0.9480046469056292</v>
+        <v>0.9482893900865637</v>
       </c>
       <c r="FW4">
-        <v>0.9511260482998916</v>
+        <v>0.9513994894323484</v>
       </c>
       <c r="FX4">
-        <v>0.9550434312926908</v>
+        <v>0.9553093461754651</v>
       </c>
       <c r="FY4">
-        <v>0.9605225002826193</v>
+        <v>0.960788296891118</v>
       </c>
       <c r="FZ4">
-        <v>0.9668812812709309</v>
+        <v>0.9671511325854207</v>
       </c>
       <c r="GA4">
-        <v>0.9733070018591193</v>
+        <v>0.9735812254126451</v>
       </c>
       <c r="GB4">
-        <v>0.9762081431537866</v>
+        <v>0.9764700198384266</v>
       </c>
       <c r="GC4">
-        <v>0.9808232451453033</v>
+        <v>0.9810809052629965</v>
       </c>
       <c r="GD4">
-        <v>0.9832305344408783</v>
+        <v>0.9834735050654511</v>
       </c>
       <c r="GE4">
-        <v>0.9832396257898616</v>
+        <v>0.9834735050654511</v>
       </c>
       <c r="GF4">
-        <v>0.9841546607581796</v>
+        <v>0.9843667719196086</v>
       </c>
       <c r="GG4">
-        <v>0.9890889517491095</v>
+        <v>0.9892983604407036</v>
       </c>
       <c r="GH4">
-        <v>0.9907580630460414</v>
+        <v>0.9909492806414593</v>
       </c>
       <c r="GI4">
-        <v>0.991500299644677</v>
+        <v>0.9916689294438248</v>
       </c>
       <c r="GJ4">
-        <v>0.9915003559188909</v>
+        <v>0.9916689294438248</v>
       </c>
       <c r="GK4">
-        <v>0.9917090693785072</v>
+        <v>0.9918525242998896</v>
       </c>
       <c r="GL4">
-        <v>0.9917942656883506</v>
+        <v>0.9919120160932581</v>
       </c>
       <c r="GM4">
-        <v>0.9924756878870981</v>
+        <v>0.9925705620180391</v>
       </c>
       <c r="GN4">
-        <v>0.9927411553066101</v>
+        <v>0.9928111800506921</v>
       </c>
       <c r="GO4">
-        <v>0.9927411782133431</v>
+        <v>0.9928111800506921</v>
       </c>
       <c r="GP4">
-        <v>0.9932580917123929</v>
+        <v>0.9933044369163411</v>
       </c>
       <c r="GQ4">
-        <v>0.9951415406089308</v>
+        <v>0.9951707114432851</v>
       </c>
       <c r="GR4">
-        <v>0.997599867604412</v>
+        <v>0.9976145910468277</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.797903962823682E-05</v>
+        <v>1.670357480812638E-05</v>
       </c>
       <c r="C5">
-        <v>0.0001264251413858329</v>
+        <v>0.0001238963744418003</v>
       </c>
       <c r="D5">
-        <v>0.0001511559138744602</v>
+        <v>0.0001473533361554536</v>
       </c>
       <c r="E5">
-        <v>0.0002717169063815496</v>
+        <v>0.0002666639944546415</v>
       </c>
       <c r="F5">
-        <v>0.0003449811248666222</v>
+        <v>0.0003386662919287412</v>
       </c>
       <c r="G5">
-        <v>0.0003911393839121807</v>
+        <v>0.0003835559895228195</v>
       </c>
       <c r="H5">
-        <v>0.0005627704903632633</v>
+        <v>0.000553949272965027</v>
       </c>
       <c r="I5">
-        <v>0.0007165622871832198</v>
+        <v>0.0007064988764871849</v>
       </c>
       <c r="J5">
-        <v>0.0007320888328621683</v>
+        <v>0.0007207493565320137</v>
       </c>
       <c r="K5">
-        <v>0.0007321651198055909</v>
+        <v>0.0007207493565320137</v>
       </c>
       <c r="L5">
-        <v>0.0007334446756791327</v>
+        <v>0.0007207493565320137</v>
       </c>
       <c r="M5">
-        <v>0.0007345602881560645</v>
+        <v>0.0007207493565320137</v>
       </c>
       <c r="N5">
-        <v>0.000791255126983752</v>
+        <v>0.0007761782151683069</v>
       </c>
       <c r="O5">
-        <v>0.0009380372039486526</v>
+        <v>0.0009217163815884037</v>
       </c>
       <c r="P5">
-        <v>0.001124902360084732</v>
+        <v>0.001107347446765781</v>
       </c>
       <c r="Q5">
-        <v>0.001387750014649676</v>
+        <v>0.001368979624627739</v>
       </c>
       <c r="R5">
-        <v>0.001614153309968202</v>
+        <v>0.001594158515073812</v>
       </c>
       <c r="S5">
-        <v>0.001803454896053902</v>
+        <v>0.001782226607079447</v>
       </c>
       <c r="T5">
-        <v>0.002048609060984705</v>
+        <v>0.002026160960741444</v>
       </c>
       <c r="U5">
-        <v>0.002217992857482256</v>
+        <v>0.002194306383682257</v>
       </c>
       <c r="V5">
-        <v>0.002461758152441778</v>
+        <v>0.002436851527126452</v>
       </c>
       <c r="W5">
-        <v>0.002608540229406678</v>
+        <v>0.002582389693546548</v>
       </c>
       <c r="X5">
-        <v>0.002753177826415921</v>
+        <v>0.002725782854654503</v>
       </c>
       <c r="Y5">
-        <v>0.002995558221404079</v>
+        <v>0.002966942758853386</v>
       </c>
       <c r="Z5">
-        <v>0.003000495944301979</v>
+        <v>0.002970601822058547</v>
       </c>
       <c r="AA5">
-        <v>0.003027948195734333</v>
+        <v>0.002996780929426104</v>
       </c>
       <c r="AB5">
-        <v>0.003108016264078718</v>
+        <v>0.003075588743572319</v>
       </c>
       <c r="AC5">
-        <v>0.003188881152406627</v>
+        <v>0.00315519357290768</v>
       </c>
       <c r="AD5">
-        <v>0.003291173130291476</v>
+        <v>0.003256230741026218</v>
       </c>
       <c r="AE5">
-        <v>0.003299888364111265</v>
+        <v>0.003263668240571039</v>
       </c>
       <c r="AF5">
-        <v>0.003452580540953959</v>
+        <v>0.003415117954730117</v>
       </c>
       <c r="AG5">
-        <v>0.00360226911785876</v>
+        <v>0.003563563333126889</v>
       </c>
       <c r="AH5">
-        <v>0.003624107993407185</v>
+        <v>0.00358412768944102</v>
       </c>
       <c r="AI5">
-        <v>0.00362792156802833</v>
+        <v>0.003586662328974645</v>
       </c>
       <c r="AJ5">
-        <v>0.00362804683149574</v>
+        <v>0.003586662328974645</v>
       </c>
       <c r="AK5">
-        <v>0.00373123918936197</v>
+        <v>0.003688600097650401</v>
       </c>
       <c r="AL5">
-        <v>0.003766379302635358</v>
+        <v>0.003722468950237785</v>
       </c>
       <c r="AM5">
-        <v>0.00378671427021488</v>
+        <v>0.003741529030154387</v>
       </c>
       <c r="AN5">
-        <v>0.00378683953368229</v>
+        <v>0.003741529030154387</v>
       </c>
       <c r="AO5">
-        <v>0.00381801723703761</v>
+        <v>0.003771434502109224</v>
       </c>
       <c r="AP5">
-        <v>0.003932084568678973</v>
+        <v>0.00388424990872024</v>
       </c>
       <c r="AQ5">
-        <v>0.004004590437179726</v>
+        <v>0.003955493670428811</v>
       </c>
       <c r="AR5">
-        <v>0.00400642171094186</v>
+        <v>0.00395604552347771</v>
       </c>
       <c r="AS5">
-        <v>0.004013634545792716</v>
+        <v>0.003961980255994647</v>
       </c>
       <c r="AT5">
-        <v>0.004033546138380992</v>
+        <v>0.003980616857201246</v>
       </c>
       <c r="AU5">
-        <v>0.004033716063247479</v>
+        <v>0.003980616857201246</v>
       </c>
       <c r="AV5">
-        <v>0.004037760712163846</v>
+        <v>0.003983382627638866</v>
       </c>
       <c r="AW5">
-        <v>0.004037760806556924</v>
+        <v>0.003983382627638866</v>
       </c>
       <c r="AX5">
-        <v>0.004082311410635725</v>
+        <v>0.004026664276421534</v>
       </c>
       <c r="AY5">
-        <v>0.00411605062193808</v>
+        <v>0.004059131883843754</v>
       </c>
       <c r="AZ5">
-        <v>0.004129979804650057</v>
+        <v>0.004071784609598303</v>
       </c>
       <c r="BA5">
-        <v>0.004130015961049309</v>
+        <v>0.004071784609598303</v>
       </c>
       <c r="BB5">
-        <v>0.004131327109722198</v>
+        <v>0.004071816210137281</v>
       </c>
       <c r="BC5">
-        <v>0.004162535819076877</v>
+        <v>0.004101752695687352</v>
       </c>
       <c r="BD5">
-        <v>0.004210560794083836</v>
+        <v>0.004148509566552461</v>
       </c>
       <c r="BE5">
-        <v>0.00424533982736469</v>
+        <v>0.004182017250689634</v>
       </c>
       <c r="BF5">
-        <v>0.004278055002688219</v>
+        <v>0.004213460571263841</v>
       </c>
       <c r="BG5">
-        <v>0.00428759183349102</v>
+        <v>0.004221719869067187</v>
       </c>
       <c r="BH5">
-        <v>0.004290482621431246</v>
+        <v>0.004223331495854844</v>
       </c>
       <c r="BI5">
-        <v>0.004314473566935171</v>
+        <v>0.004246048449340364</v>
       </c>
       <c r="BJ5">
-        <v>0.004353430953129626</v>
+        <v>0.004283735510007514</v>
       </c>
       <c r="BK5">
-        <v>0.004361902074954464</v>
+        <v>0.004290928837754623</v>
       </c>
       <c r="BL5">
-        <v>0.004361955800023353</v>
+        <v>0.004290928837754623</v>
       </c>
       <c r="BM5">
-        <v>0.004376897308714399</v>
+        <v>0.0043045941374887</v>
       </c>
       <c r="BN5">
-        <v>0.004378728582476532</v>
+        <v>0.0043051459905376</v>
       </c>
       <c r="BO5">
-        <v>0.004379659076657292</v>
+        <v>0.0043051459905376</v>
       </c>
       <c r="BP5">
-        <v>0.004382859812891108</v>
+        <v>0.004307067641550238</v>
       </c>
       <c r="BQ5">
-        <v>0.004391575046710898</v>
+        <v>0.004314505141095059</v>
       </c>
       <c r="BR5">
-        <v>0.004500948154449326</v>
+        <v>0.004422625173808262</v>
       </c>
       <c r="BS5">
-        <v>0.004593810222529162</v>
+        <v>0.004514230121974633</v>
       </c>
       <c r="BT5">
-        <v>0.004656464511233622</v>
+        <v>0.00457561989043869</v>
       </c>
       <c r="BU5">
-        <v>0.004689147940557807</v>
+        <v>0.004607031457236393</v>
       </c>
       <c r="BV5">
-        <v>0.004802268538218746</v>
+        <v>0.004718899897935307</v>
       </c>
       <c r="BW5">
-        <v>0.004842730203382096</v>
+        <v>0.004758091606090866</v>
       </c>
       <c r="BX5">
-        <v>0.004882628807557089</v>
+        <v>0.004796720115318918</v>
       </c>
       <c r="BY5">
-        <v>0.004909617614999025</v>
+        <v>0.004822435665161163</v>
       </c>
       <c r="BZ5">
-        <v>0.004912498971239446</v>
+        <v>0.004824037857938429</v>
       </c>
       <c r="CA5">
-        <v>0.004912830743632586</v>
+        <v>0.004824037857938429</v>
       </c>
       <c r="CB5">
-        <v>0.004913382124391185</v>
+        <v>0.004824037857938429</v>
       </c>
       <c r="CC5">
-        <v>0.004920594959242041</v>
+        <v>0.004829972590455366</v>
       </c>
       <c r="CD5">
-        <v>0.004921613111820988</v>
+        <v>0.004829972590455366</v>
       </c>
       <c r="CE5">
-        <v>0.004931426232618077</v>
+        <v>0.004838508245938751</v>
       </c>
       <c r="CF5">
-        <v>0.004975385911709097</v>
+        <v>0.004881198824968343</v>
       </c>
       <c r="CG5">
-        <v>0.005031580226547134</v>
+        <v>0.004936127036996202</v>
       </c>
       <c r="CH5">
-        <v>0.00503447101448736</v>
+        <v>0.004937738663783859</v>
       </c>
       <c r="CI5">
-        <v>0.005059784972963928</v>
+        <v>0.004961778954354843</v>
       </c>
       <c r="CJ5">
-        <v>0.005092500148287457</v>
+        <v>0.00499322227492905</v>
       </c>
       <c r="CK5">
-        <v>0.00510813626596414</v>
+        <v>0.005007582353814653</v>
       </c>
       <c r="CL5">
-        <v>0.005109246022141193</v>
+        <v>0.005007582353814653</v>
       </c>
       <c r="CM5">
-        <v>0.008673956948431568</v>
+        <v>0.008571886696614928</v>
       </c>
       <c r="CN5">
-        <v>0.1409645442129812</v>
+        <v>0.1408936027500156</v>
       </c>
       <c r="CO5">
-        <v>0.1441865547463578</v>
+        <v>0.1441151227448745</v>
       </c>
       <c r="CP5">
-        <v>0.2092710634005671</v>
+        <v>0.2092142959868522</v>
       </c>
       <c r="CQ5">
-        <v>0.2314356759422564</v>
+        <v>0.2313830585644323</v>
       </c>
       <c r="CR5">
-        <v>0.2371821275234336</v>
+        <v>0.2371296380467612</v>
       </c>
       <c r="CS5">
-        <v>0.2373982092189656</v>
+        <v>0.2373444928088266</v>
       </c>
       <c r="CT5">
-        <v>0.2392200861812935</v>
+        <v>0.2391655362267492</v>
       </c>
       <c r="CU5">
-        <v>0.2401909046612193</v>
+        <v>0.2401353126692542</v>
       </c>
       <c r="CV5">
-        <v>0.2430517862020632</v>
+        <v>0.2429956152018992</v>
       </c>
       <c r="CW5">
-        <v>0.2445501246710812</v>
+        <v>0.2444930408657824</v>
       </c>
       <c r="CX5">
-        <v>0.2761786990170785</v>
+        <v>0.2761280837369114</v>
       </c>
       <c r="CY5">
-        <v>0.3309894938837235</v>
+        <v>0.3309510263283689</v>
       </c>
       <c r="CZ5">
-        <v>0.3362916227740882</v>
+        <v>0.3362531742693427</v>
       </c>
       <c r="DA5">
-        <v>0.3368482838125778</v>
+        <v>0.3368086918097767</v>
       </c>
       <c r="DB5">
-        <v>0.3553670774296538</v>
+        <v>0.3553307423069885</v>
       </c>
       <c r="DC5">
-        <v>0.3770802429806779</v>
+        <v>0.3770479472980438</v>
       </c>
       <c r="DD5">
-        <v>0.3844092793291311</v>
+        <v>0.3843774992505824</v>
       </c>
       <c r="DE5">
-        <v>0.4246043824979933</v>
+        <v>0.4245811695799384</v>
       </c>
       <c r="DF5">
-        <v>0.428473657417986</v>
+        <v>0.4284501125287817</v>
       </c>
       <c r="DG5">
-        <v>0.438757112205349</v>
+        <v>0.4387348066961186</v>
       </c>
       <c r="DH5">
-        <v>0.4423006404320774</v>
+        <v>0.4422779231500015</v>
       </c>
       <c r="DI5">
-        <v>0.4817865396156042</v>
+        <v>0.4817722157526395</v>
       </c>
       <c r="DJ5">
-        <v>0.4822756965054897</v>
+        <v>0.4822602126072467</v>
       </c>
       <c r="DK5">
-        <v>0.5208567017077276</v>
+        <v>0.520849389546915</v>
       </c>
       <c r="DL5">
-        <v>0.5350781134136631</v>
+        <v>0.5350730053567884</v>
       </c>
       <c r="DM5">
-        <v>0.5758451225706996</v>
+        <v>0.5758487217803239</v>
       </c>
       <c r="DN5">
-        <v>0.5763753829597351</v>
+        <v>0.5763778322036507</v>
       </c>
       <c r="DO5">
-        <v>0.5788818409079076</v>
+        <v>0.5788836243166375</v>
       </c>
       <c r="DP5">
-        <v>0.581193505760108</v>
+        <v>0.5811945756130775</v>
       </c>
       <c r="DQ5">
-        <v>0.5824060868350347</v>
+        <v>0.5824061738777851</v>
       </c>
       <c r="DR5">
-        <v>0.5854770697715341</v>
+        <v>0.5854766292769006</v>
       </c>
       <c r="DS5">
-        <v>0.58651026805017</v>
+        <v>0.5865088007999707</v>
       </c>
       <c r="DT5">
-        <v>0.5873991683317897</v>
+        <v>0.5873966389757811</v>
       </c>
       <c r="DU5">
-        <v>0.5877380340047829</v>
+        <v>0.5877343077950287</v>
       </c>
       <c r="DV5">
-        <v>0.5921792095129501</v>
+        <v>0.5921752914367286</v>
       </c>
       <c r="DW5">
-        <v>0.607339202199478</v>
+        <v>0.6073377181615444</v>
       </c>
       <c r="DX5">
-        <v>0.6074018564881825</v>
+        <v>0.6073991079300084</v>
       </c>
       <c r="DY5">
-        <v>0.6078501562289127</v>
+        <v>0.6078462376262421</v>
       </c>
       <c r="DZ5">
-        <v>0.6128919861246598</v>
+        <v>0.6128880228043339</v>
       </c>
       <c r="EA5">
-        <v>0.613049100431411</v>
+        <v>0.6130438957317386</v>
       </c>
       <c r="EB5">
-        <v>0.6146496999983145</v>
+        <v>0.6146436075455161</v>
       </c>
       <c r="EC5">
-        <v>0.6146515387926765</v>
+        <v>0.6146441669210072</v>
       </c>
       <c r="ED5">
-        <v>0.6146999879116747</v>
+        <v>0.6146913480397707</v>
       </c>
       <c r="EE5">
-        <v>0.616222491880193</v>
+        <v>0.6162129451232383</v>
       </c>
       <c r="EF5">
-        <v>0.6273028076510787</v>
+        <v>0.6272946954897651</v>
       </c>
       <c r="EG5">
-        <v>0.6287155840218659</v>
+        <v>0.6287065380943435</v>
       </c>
       <c r="EH5">
-        <v>0.6287325650675147</v>
+        <v>0.6287222434306828</v>
       </c>
       <c r="EI5">
-        <v>0.6300093855411132</v>
+        <v>0.6299980968314836</v>
       </c>
       <c r="EJ5">
-        <v>0.6325551871884721</v>
+        <v>0.6325432422821091</v>
       </c>
       <c r="EK5">
-        <v>0.6339389003598603</v>
+        <v>0.6339260145673616</v>
       </c>
       <c r="EL5">
-        <v>0.6340317624279401</v>
+        <v>0.634017619515528</v>
       </c>
       <c r="EM5">
-        <v>0.6340339803357943</v>
+        <v>0.6340185580973869</v>
       </c>
       <c r="EN5">
-        <v>0.6340807820408265</v>
+        <v>0.6340640913985996</v>
       </c>
       <c r="EO5">
-        <v>0.6344656711928679</v>
+        <v>0.6344477949717657</v>
       </c>
       <c r="EP5">
-        <v>0.6344751224926725</v>
+        <v>0.6344559687176174</v>
       </c>
       <c r="EQ5">
-        <v>0.634645664339146</v>
+        <v>0.6346252724742344</v>
       </c>
       <c r="ER5">
-        <v>0.6354938271216081</v>
+        <v>0.6354723631709807</v>
       </c>
       <c r="ES5">
-        <v>0.6376375572772809</v>
+        <v>0.6376153386301113</v>
       </c>
       <c r="ET5">
-        <v>0.6384980526894879</v>
+        <v>0.6384747649778605</v>
       </c>
       <c r="EU5">
-        <v>0.6396804716650383</v>
+        <v>0.6396561937540556</v>
       </c>
       <c r="EV5">
-        <v>0.6473299519068655</v>
+        <v>0.6473062681025799</v>
       </c>
       <c r="EW5">
-        <v>0.6715010504070654</v>
+        <v>0.6714820081892711</v>
       </c>
       <c r="EX5">
-        <v>0.6931913159585631</v>
+        <v>0.693176307570739</v>
       </c>
       <c r="EY5">
-        <v>0.7094335956227119</v>
+        <v>0.7094212864127404</v>
       </c>
       <c r="EZ5">
-        <v>0.7150490745065974</v>
+        <v>0.7150368611119771</v>
       </c>
       <c r="FA5">
-        <v>0.717478584956361</v>
+        <v>0.7174656868758928</v>
       </c>
       <c r="FB5">
-        <v>0.7293921597100169</v>
+        <v>0.729380900357669</v>
       </c>
       <c r="FC5">
-        <v>0.7540952591992164</v>
+        <v>0.7540887717634048</v>
       </c>
       <c r="FD5">
-        <v>0.7933916353866621</v>
+        <v>0.7933934949404603</v>
       </c>
       <c r="FE5">
-        <v>0.8298320346331626</v>
+        <v>0.8298415415169621</v>
       </c>
       <c r="FF5">
-        <v>0.8623925199598903</v>
+        <v>0.8624087236691493</v>
       </c>
       <c r="FG5">
-        <v>0.8797814776003285</v>
+        <v>0.8798006614015653</v>
       </c>
       <c r="FH5">
-        <v>0.8821815242507014</v>
+        <v>0.8822000161480242</v>
       </c>
       <c r="FI5">
-        <v>0.8843016710068619</v>
+        <v>0.8843194024301617</v>
       </c>
       <c r="FJ5">
-        <v>0.8859711852723403</v>
+        <v>0.8859880458252944</v>
       </c>
       <c r="FK5">
-        <v>0.8859820696201153</v>
+        <v>0.8859976529701857</v>
       </c>
       <c r="FL5">
-        <v>0.8861629127263759</v>
+        <v>0.8861772605102008</v>
       </c>
       <c r="FM5">
-        <v>0.887620910296228</v>
+        <v>0.8876343353921711</v>
       </c>
       <c r="FN5">
-        <v>0.8975052140918445</v>
+        <v>0.8975197807834192</v>
       </c>
       <c r="FO5">
-        <v>0.9114282888039489</v>
+        <v>0.9114449865126164</v>
       </c>
       <c r="FP5">
-        <v>0.9336946803435336</v>
+        <v>0.9337155530219956</v>
       </c>
       <c r="FQ5">
-        <v>0.9511473879826537</v>
+        <v>0.9511712563706212</v>
       </c>
       <c r="FR5">
-        <v>0.9579386623422266</v>
+        <v>0.9579629145928997</v>
       </c>
       <c r="FS5">
-        <v>0.9629804922379737</v>
+        <v>0.9630046997709915</v>
       </c>
       <c r="FT5">
-        <v>0.9649717752967988</v>
+        <v>0.9649951907866576</v>
       </c>
       <c r="FU5">
-        <v>0.9655103779856617</v>
+        <v>0.9655326455535155</v>
       </c>
       <c r="FV5">
-        <v>0.9660510441744821</v>
+        <v>0.9660721643258486</v>
       </c>
       <c r="FW5">
-        <v>0.9666220742926745</v>
+        <v>0.9666420544661346</v>
       </c>
       <c r="FX5">
-        <v>0.9678870197665185</v>
+        <v>0.9679060299580335</v>
       </c>
       <c r="FY5">
-        <v>0.9708642773049559</v>
+        <v>0.970882736998161</v>
       </c>
       <c r="FZ5">
-        <v>0.9764934934885573</v>
+        <v>0.9765120523624887</v>
       </c>
       <c r="GA5">
-        <v>0.9790348152360089</v>
+        <v>0.9790527168157173</v>
       </c>
       <c r="GB5">
-        <v>0.9804152261074653</v>
+        <v>0.9804321859920379</v>
       </c>
       <c r="GC5">
-        <v>0.9845585550217912</v>
+        <v>0.98457525007319</v>
       </c>
       <c r="GD5">
-        <v>0.9871663559678682</v>
+        <v>0.9871824100111734</v>
       </c>
       <c r="GE5">
-        <v>0.9872068176330315</v>
+        <v>0.9872216017193289</v>
       </c>
       <c r="GF5">
-        <v>0.9877819678211388</v>
+        <v>0.9877956129388679</v>
       </c>
       <c r="GG5">
-        <v>0.9901179869728356</v>
+        <v>0.9901309245011408</v>
       </c>
       <c r="GH5">
-        <v>0.9910273631540318</v>
+        <v>0.9910392435927308</v>
       </c>
       <c r="GI5">
-        <v>0.9913144160480962</v>
+        <v>0.9913250869399119</v>
       </c>
       <c r="GJ5">
-        <v>0.9920116738336786</v>
+        <v>0.9920212356709469</v>
       </c>
       <c r="GK5">
-        <v>0.9925606334223275</v>
+        <v>0.9925690498748325</v>
       </c>
       <c r="GL5">
-        <v>0.9926348989707918</v>
+        <v>0.9926420537475925</v>
       </c>
       <c r="GM5">
-        <v>0.9941773977388967</v>
+        <v>0.9941836505289894</v>
       </c>
       <c r="GN5">
-        <v>0.9947484278570892</v>
+        <v>0.9947535406692753</v>
       </c>
       <c r="GO5">
-        <v>0.9948132092457497</v>
+        <v>0.9948170580587942</v>
       </c>
       <c r="GP5">
-        <v>0.994823784447031</v>
+        <v>0.9948263559814569</v>
       </c>
       <c r="GQ5">
-        <v>0.9954736454935934</v>
+        <v>0.9954750963621792</v>
       </c>
       <c r="GR5">
-        <v>0.9968472577651905</v>
+        <v>0.9968477652731138</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.461025820949799E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001667236733082864</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0003440283161918892</v>
+        <v>1.332349403836854E-05</v>
       </c>
       <c r="E6">
-        <v>0.0005255863389047759</v>
+        <v>3.100594831396251E-05</v>
       </c>
       <c r="F6">
-        <v>0.0006866501724402287</v>
+        <v>3.100594831396251E-05</v>
       </c>
       <c r="G6">
-        <v>0.000786914578415961</v>
+        <v>3.100594831396251E-05</v>
       </c>
       <c r="H6">
-        <v>0.0009512184418213702</v>
+        <v>3.100594831396251E-05</v>
       </c>
       <c r="I6">
-        <v>0.00113736896434993</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="J6">
-        <v>0.001182546572536656</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="K6">
-        <v>0.001185169983331361</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="L6">
-        <v>0.001202918506618997</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="M6">
-        <v>0.001259238771358496</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="N6">
-        <v>0.001346001177876152</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="O6">
-        <v>0.001368589426969537</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="P6">
-        <v>0.001370723734483873</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="Q6">
-        <v>0.001370911830426324</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="R6">
-        <v>0.001406672032991033</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="S6">
-        <v>0.001518922453485688</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="T6">
-        <v>0.001590439230615251</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="U6">
-        <v>0.001675817067188479</v>
+        <v>5.339490068976335E-05</v>
       </c>
       <c r="V6">
-        <v>0.001871013979353947</v>
+        <v>8.50547985960444E-05</v>
       </c>
       <c r="W6">
-        <v>0.002062677911661218</v>
+        <v>0.000113094018514722</v>
       </c>
       <c r="X6">
-        <v>0.002167215697465431</v>
+        <v>0.000113094018514722</v>
       </c>
       <c r="Y6">
-        <v>0.002245884704307928</v>
+        <v>0.000113094018514722</v>
       </c>
       <c r="Z6">
-        <v>0.002395849558288855</v>
+        <v>0.000113094018514722</v>
       </c>
       <c r="AA6">
-        <v>0.002544779252311331</v>
+        <v>0.000113094018514722</v>
       </c>
       <c r="AB6">
-        <v>0.002799200642099733</v>
+        <v>0.0002054485059922038</v>
       </c>
       <c r="AC6">
-        <v>0.003113135429499473</v>
+        <v>0.0003587936748059624</v>
       </c>
       <c r="AD6">
-        <v>0.003142846192306985</v>
+        <v>0.0003587936748059624</v>
       </c>
       <c r="AE6">
-        <v>0.003143160592964366</v>
+        <v>0.0003587936748059624</v>
       </c>
       <c r="AF6">
-        <v>0.003158578692345537</v>
+        <v>0.0003587936748059624</v>
       </c>
       <c r="AG6">
-        <v>0.003177043301604431</v>
+        <v>0.0003587936748059624</v>
       </c>
       <c r="AH6">
-        <v>0.003177222776737227</v>
+        <v>0.0003587936748059624</v>
       </c>
       <c r="AI6">
-        <v>0.003210136745416174</v>
+        <v>0.0003587936748059624</v>
       </c>
       <c r="AJ6">
-        <v>0.003297689671902102</v>
+        <v>0.0003587936748059624</v>
       </c>
       <c r="AK6">
-        <v>0.003429096696627876</v>
+        <v>0.0003587936748059624</v>
       </c>
       <c r="AL6">
-        <v>0.003640606668138595</v>
+        <v>0.0004071715663755119</v>
       </c>
       <c r="AM6">
-        <v>0.003757170333460131</v>
+        <v>0.0004071715663755119</v>
       </c>
       <c r="AN6">
-        <v>0.003838690510188193</v>
+        <v>0.0004071715663755119</v>
       </c>
       <c r="AO6">
-        <v>0.004067472181005685</v>
+        <v>0.0004732498876102423</v>
       </c>
       <c r="AP6">
-        <v>0.004294974871874511</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="AQ6">
-        <v>0.004407236527368715</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="AR6">
-        <v>0.004463556792108214</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="AS6">
-        <v>0.004539998069040124</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="AT6">
-        <v>0.004581415623377766</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="AU6">
-        <v>0.00465934473524996</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="AV6">
-        <v>0.004660700937095526</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="AW6">
-        <v>0.004665362112908443</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="AX6">
-        <v>0.004666289339021227</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="AY6">
-        <v>0.004689992704069856</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="AZ6">
-        <v>0.004728855607510032</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="BA6">
-        <v>0.004779142953491672</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="BB6">
-        <v>0.004893194808914023</v>
+        <v>0.0005380174811497734</v>
       </c>
       <c r="BC6">
-        <v>0.005088391721079492</v>
+        <v>0.0005696773790560544</v>
       </c>
       <c r="BD6">
-        <v>0.005324580791599677</v>
+        <v>0.0006433469717175616</v>
       </c>
       <c r="BE6">
-        <v>0.005485631185135669</v>
+        <v>0.0006433469717175616</v>
       </c>
       <c r="BF6">
-        <v>0.005596986280666259</v>
+        <v>0.0006433469717175616</v>
       </c>
       <c r="BG6">
-        <v>0.005792183192831728</v>
+        <v>0.0006750068696238427</v>
       </c>
       <c r="BH6">
-        <v>0.005942926766781401</v>
+        <v>0.0006750068696238427</v>
       </c>
       <c r="BI6">
-        <v>0.006066906981805262</v>
+        <v>0.0006750068696238427</v>
       </c>
       <c r="BJ6">
-        <v>0.006256524924194652</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BK6">
-        <v>0.006332218451156574</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BL6">
-        <v>0.006346097675599511</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BM6">
-        <v>0.006346198336285471</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BN6">
-        <v>0.006348332643799807</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BO6">
-        <v>0.00635168661436519</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BP6">
-        <v>0.006378698116281042</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BQ6">
-        <v>0.006524556670426782</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BR6">
-        <v>0.006675313244375932</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BS6">
-        <v>0.006715648077757031</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BT6">
-        <v>0.006870592051538114</v>
+        <v>0.0007009493126131697</v>
       </c>
       <c r="BU6">
-        <v>0.007408411079951912</v>
+        <v>0.00108373613570918</v>
       </c>
       <c r="BV6">
-        <v>0.007669305549480507</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="BW6">
-        <v>0.007805363664019603</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="BX6">
-        <v>0.007949184088247147</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="BY6">
-        <v>0.007983571564866952</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="BZ6">
-        <v>0.007983923210552838</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="CA6">
-        <v>0.00798393435778939</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="CB6">
-        <v>0.007984298030064793</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="CC6">
-        <v>0.008000729726405281</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="CD6">
-        <v>0.008043237434699169</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="CE6">
-        <v>0.00812265927151145</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="CF6">
-        <v>0.008243827106648191</v>
+        <v>0.001182724382298798</v>
       </c>
       <c r="CG6">
-        <v>0.008462774777860387</v>
+        <v>0.001238724597421947</v>
       </c>
       <c r="CH6">
-        <v>0.008529539645180675</v>
+        <v>0.001238724597421947</v>
       </c>
       <c r="CI6">
-        <v>0.009894079390412753</v>
+        <v>0.002468753584758914</v>
       </c>
       <c r="CJ6">
-        <v>0.03911460121760172</v>
+        <v>0.03224622557921495</v>
       </c>
       <c r="CK6">
-        <v>0.04062270445707165</v>
+        <v>0.03362338169556858</v>
       </c>
       <c r="CL6">
-        <v>0.04323409375225949</v>
+        <v>0.03613121041587097</v>
       </c>
       <c r="CM6">
-        <v>0.04323875721307231</v>
+        <v>0.03613121041587097</v>
       </c>
       <c r="CN6">
-        <v>0.06276502942935505</v>
+        <v>0.05597379526652072</v>
       </c>
       <c r="CO6">
-        <v>0.121382197076664</v>
+        <v>0.1158776174532363</v>
       </c>
       <c r="CP6">
-        <v>0.1319253936534964</v>
+        <v>0.1265141423957719</v>
       </c>
       <c r="CQ6">
-        <v>0.1533350947941848</v>
+        <v>0.1482869079781309</v>
       </c>
       <c r="CR6">
-        <v>0.1586581535805355</v>
+        <v>0.1535737171711145</v>
       </c>
       <c r="CS6">
-        <v>0.1920718822394236</v>
+        <v>0.1876484827484283</v>
       </c>
       <c r="CT6">
-        <v>0.1927177102135023</v>
+        <v>0.1881419595917705</v>
       </c>
       <c r="CU6">
-        <v>0.302951795789086</v>
+        <v>0.3009439714177957</v>
       </c>
       <c r="CV6">
-        <v>0.3500424918990278</v>
+        <v>0.3490352038233273</v>
       </c>
       <c r="CW6">
-        <v>0.3507051317724317</v>
+        <v>0.3495459098828721</v>
       </c>
       <c r="CX6">
-        <v>0.3522680223097027</v>
+        <v>0.3509792132661534</v>
       </c>
       <c r="CY6">
-        <v>0.3778091092845715</v>
+        <v>0.3769859168692465</v>
       </c>
       <c r="CZ6">
-        <v>0.3811087389521357</v>
+        <v>0.3801990699521152</v>
       </c>
       <c r="DA6">
-        <v>0.4191412804256406</v>
+        <v>0.4190072997884841</v>
       </c>
       <c r="DB6">
-        <v>0.470093053380612</v>
+        <v>0.4710554514243374</v>
       </c>
       <c r="DC6">
-        <v>0.4707059838560111</v>
+        <v>0.4715152141639775</v>
       </c>
       <c r="DD6">
-        <v>0.4848926442866074</v>
+        <v>0.4858856436017058</v>
       </c>
       <c r="DE6">
-        <v>0.500035237678836</v>
+        <v>0.5012357348463856</v>
       </c>
       <c r="DF6">
-        <v>0.5296622664897092</v>
+        <v>0.5314298044289136</v>
       </c>
       <c r="DG6">
-        <v>0.5399613810763382</v>
+        <v>0.5418161886051358</v>
       </c>
       <c r="DH6">
-        <v>0.5443069059019238</v>
+        <v>0.5461011987967286</v>
       </c>
       <c r="DI6">
-        <v>0.5521067782888638</v>
+        <v>0.5539263028124921</v>
       </c>
       <c r="DJ6">
-        <v>0.5613881639163409</v>
+        <v>0.5632696952402058</v>
       </c>
       <c r="DK6">
-        <v>0.5624955516718942</v>
+        <v>0.5642361890289659</v>
       </c>
       <c r="DL6">
-        <v>0.5625831045983801</v>
+        <v>0.5642361890289659</v>
       </c>
       <c r="DM6">
-        <v>0.5629723484127572</v>
+        <v>0.5644667125987863</v>
       </c>
       <c r="DN6">
-        <v>0.5631608166951928</v>
+        <v>0.5644914768441478</v>
       </c>
       <c r="DO6">
-        <v>0.5661103260768097</v>
+        <v>0.5673458187072464</v>
       </c>
       <c r="DP6">
-        <v>0.5663517491971197</v>
+        <v>0.5674248522729904</v>
       </c>
       <c r="DQ6">
-        <v>0.5663549498857913</v>
+        <v>0.5674248522729904</v>
       </c>
       <c r="DR6">
-        <v>0.5682318032104609</v>
+        <v>0.5691799118504439</v>
       </c>
       <c r="DS6">
-        <v>0.5769214088616901</v>
+        <v>0.5779168347200214</v>
       </c>
       <c r="DT6">
-        <v>0.5815706956750837</v>
+        <v>0.5825131470947204</v>
       </c>
       <c r="DU6">
-        <v>0.586304078185102</v>
+        <v>0.5871956426490134</v>
       </c>
       <c r="DV6">
-        <v>0.5904618910182218</v>
+        <v>0.5912882813280561</v>
       </c>
       <c r="DW6">
-        <v>0.5905784432435438</v>
+        <v>0.5912882813280561</v>
       </c>
       <c r="DX6">
-        <v>0.5914852160571491</v>
+        <v>0.5920491803686293</v>
       </c>
       <c r="DY6">
-        <v>0.5916656349199078</v>
+        <v>0.592065695385915</v>
       </c>
       <c r="DZ6">
-        <v>0.5917619123460435</v>
+        <v>0.592065695385915</v>
       </c>
       <c r="EA6">
-        <v>0.5926686851596488</v>
+        <v>0.5928265944264882</v>
       </c>
       <c r="EB6">
-        <v>0.6000390278638286</v>
+        <v>0.6002115066693541</v>
       </c>
       <c r="EC6">
-        <v>0.6020616275826484</v>
+        <v>0.602115930461225</v>
       </c>
       <c r="ED6">
-        <v>0.6038541151107041</v>
+        <v>0.603784530054482</v>
       </c>
       <c r="EE6">
-        <v>0.6099674023653378</v>
+        <v>0.6098811833267208</v>
       </c>
       <c r="EF6">
-        <v>0.610126577728949</v>
+        <v>0.6098811833267208</v>
       </c>
       <c r="EG6">
-        <v>0.6103502491399716</v>
+        <v>0.609942024537671</v>
       </c>
       <c r="EH6">
-        <v>0.6118715343789125</v>
+        <v>0.6113326898664267</v>
       </c>
       <c r="EI6">
-        <v>0.612624201948703</v>
+        <v>0.6119356583536288</v>
       </c>
       <c r="EJ6">
-        <v>0.612717184654971</v>
+        <v>0.6119356583536288</v>
       </c>
       <c r="EK6">
-        <v>0.6131002096395978</v>
+        <v>0.6121598087255004</v>
       </c>
       <c r="EL6">
-        <v>0.613111465834146</v>
+        <v>0.6121598087255004</v>
       </c>
       <c r="EM6">
-        <v>0.6153110477458623</v>
+        <v>0.6142456078876642</v>
       </c>
       <c r="EN6">
-        <v>0.6153499106493024</v>
+        <v>0.6142456078876642</v>
       </c>
       <c r="EO6">
-        <v>0.6166162303984767</v>
+        <v>0.6153749787926055</v>
       </c>
       <c r="EP6">
-        <v>0.6209617552240623</v>
+        <v>0.6196599889841983</v>
       </c>
       <c r="EQ6">
-        <v>0.6229654060436426</v>
+        <v>0.6215449935138262</v>
       </c>
       <c r="ER6">
-        <v>0.62506978695918</v>
+        <v>0.6235332285332273</v>
       </c>
       <c r="ES6">
-        <v>0.6381227294352799</v>
+        <v>0.6367417980660737</v>
       </c>
       <c r="ET6">
-        <v>0.6646095443721904</v>
+        <v>0.6637177051607971</v>
       </c>
       <c r="EU6">
-        <v>0.6917968632809852</v>
+        <v>0.6914115046333511</v>
       </c>
       <c r="EV6">
-        <v>0.7031056638270889</v>
+        <v>0.7028326379093677</v>
       </c>
       <c r="EW6">
-        <v>0.7031058809673302</v>
+        <v>0.7028326379093677</v>
       </c>
       <c r="EX6">
-        <v>0.7063678618364055</v>
+        <v>0.7060072076485945</v>
       </c>
       <c r="EY6">
-        <v>0.7212381702395626</v>
+        <v>0.7210782550532711</v>
       </c>
       <c r="EZ6">
-        <v>0.7621640585969385</v>
+        <v>0.7628516524800023</v>
       </c>
       <c r="FA6">
-        <v>0.8055056638573558</v>
+        <v>0.8071007314464478</v>
       </c>
       <c r="FB6">
-        <v>0.8341355617082503</v>
+        <v>0.8362729185777712</v>
       </c>
       <c r="FC6">
-        <v>0.8532938239393038</v>
+        <v>0.8557383584385773</v>
       </c>
       <c r="FD6">
-        <v>0.8634110325332339</v>
+        <v>0.8659383212226566</v>
       </c>
       <c r="FE6">
-        <v>0.8642880923980317</v>
+        <v>0.8666687697585533</v>
       </c>
       <c r="FF6">
-        <v>0.8650137397989067</v>
+        <v>0.8672440473630614</v>
       </c>
       <c r="FG6">
-        <v>0.8657439562695983</v>
+        <v>0.8678240074540746</v>
       </c>
       <c r="FH6">
-        <v>0.8660225804084153</v>
+        <v>0.8679411654683664</v>
       </c>
       <c r="FI6">
-        <v>0.8663206123564533</v>
+        <v>0.8680782130462715</v>
       </c>
       <c r="FJ6">
-        <v>0.8691382667433624</v>
+        <v>0.8707974269165552</v>
       </c>
       <c r="FK6">
-        <v>0.8813046772550446</v>
+        <v>0.8830974583603928</v>
       </c>
       <c r="FL6">
-        <v>0.9079502081855848</v>
+        <v>0.9102360212096012</v>
       </c>
       <c r="FM6">
-        <v>0.9393334719259687</v>
+        <v>0.9422299202294765</v>
       </c>
       <c r="FN6">
-        <v>0.9489026765418939</v>
+        <v>0.9518682760925093</v>
       </c>
       <c r="FO6">
-        <v>0.9533520797633102</v>
+        <v>0.9562597432230793</v>
       </c>
       <c r="FP6">
-        <v>0.9571874336093723</v>
+        <v>0.9600219186096027</v>
       </c>
       <c r="FQ6">
-        <v>0.9573495738828646</v>
+        <v>0.9600219186096027</v>
       </c>
       <c r="FR6">
-        <v>0.9574761604477838</v>
+        <v>0.9600219186096027</v>
       </c>
       <c r="FS6">
-        <v>0.9589401978890224</v>
+        <v>0.9613539150952576</v>
       </c>
       <c r="FT6">
-        <v>0.9615645842836886</v>
+        <v>0.9638750635382509</v>
       </c>
       <c r="FU6">
-        <v>0.9657592651153286</v>
+        <v>0.9680054853793968</v>
       </c>
       <c r="FV6">
-        <v>0.9724396018472029</v>
+        <v>0.9746832638327947</v>
       </c>
       <c r="FW6">
-        <v>0.9775894896405042</v>
+        <v>0.9797926034596355</v>
       </c>
       <c r="FX6">
-        <v>0.9801385126381952</v>
+        <v>0.9822365177820137</v>
       </c>
       <c r="FY6">
-        <v>0.9842174644744801</v>
+        <v>0.9862483379206797</v>
       </c>
       <c r="FZ6">
-        <v>0.986647146176961</v>
+        <v>0.9885699485736564</v>
       </c>
       <c r="GA6">
-        <v>0.9876220869678303</v>
+        <v>0.9894007077053271</v>
       </c>
       <c r="GB6">
-        <v>0.9877544542525175</v>
+        <v>0.9894007077053271</v>
       </c>
       <c r="GC6">
-        <v>0.9890147547019333</v>
+        <v>0.9905239098951862</v>
       </c>
       <c r="GD6">
-        <v>0.9905040500421581</v>
+        <v>0.991881791249293</v>
       </c>
       <c r="GE6">
-        <v>0.9910267579611785</v>
+        <v>0.9922490918643309</v>
       </c>
       <c r="GF6">
-        <v>0.9911562187659824</v>
+        <v>0.9922490918643309</v>
       </c>
       <c r="GG6">
-        <v>0.9915264877511211</v>
+        <v>0.9924601695982566</v>
       </c>
       <c r="GH6">
-        <v>0.9915334883425401</v>
+        <v>0.9924601695982566</v>
       </c>
       <c r="GI6">
-        <v>0.9917916375321788</v>
+        <v>0.9925563444196737</v>
       </c>
       <c r="GJ6">
-        <v>0.9919903996942012</v>
+        <v>0.992591658066595</v>
       </c>
       <c r="GK6">
-        <v>0.9919904492179622</v>
+        <v>0.992591658066595</v>
       </c>
       <c r="GL6">
-        <v>0.9920407440759436</v>
+        <v>0.992591658066595</v>
       </c>
       <c r="GM6">
-        <v>0.9927911192458261</v>
+        <v>0.9931922772503142</v>
       </c>
       <c r="GN6">
-        <v>0.9951401440515443</v>
+        <v>0.9954312288838857</v>
       </c>
       <c r="GO6">
-        <v>0.9982480817268023</v>
+        <v>0.9984479316599879</v>
       </c>
       <c r="GP6">
-        <v>0.9999268605594219</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9999386230299498</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9999386555024625</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>109</v>
       </c>
       <c r="E2">
-        <v>0.01933178791621492</v>
+        <v>0.0200038870584477</v>
       </c>
       <c r="F2">
-        <v>0.5070709539763714</v>
+        <v>0.5070216377920763</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>125</v>
       </c>
       <c r="E3">
-        <v>0.01571361524422738</v>
+        <v>0.01560735258736429</v>
       </c>
       <c r="F3">
-        <v>0.5009774599521574</v>
+        <v>0.500686059803793</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>110</v>
       </c>
       <c r="E4">
-        <v>0.01041399391677734</v>
+        <v>0.008506719036985137</v>
       </c>
       <c r="F4">
-        <v>0.5069002227937528</v>
+        <v>0.5067884296472714</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>114</v>
       </c>
       <c r="E5">
-        <v>0.005092500148287457</v>
+        <v>0.005007582353814653</v>
       </c>
       <c r="F5">
-        <v>0.5208567017077276</v>
+        <v>0.520849389546915</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.04062270445707165</v>
+        <v>0.03613121041587097</v>
       </c>
       <c r="F6">
-        <v>0.500035237678836</v>
+        <v>0.5012357348463856</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>155</v>
       </c>
       <c r="E2">
-        <v>0.01933178791621492</v>
+        <v>0.0200038870584477</v>
       </c>
       <c r="F2">
-        <v>0.7023430451137415</v>
+        <v>0.7022267284406517</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>155</v>
       </c>
       <c r="E3">
-        <v>0.01571361524422738</v>
+        <v>0.01560735258736429</v>
       </c>
       <c r="F3">
-        <v>0.7164306853967832</v>
+        <v>0.7162974931830166</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>158</v>
       </c>
       <c r="E4">
-        <v>0.01041399391677734</v>
+        <v>0.008506719036985137</v>
       </c>
       <c r="F4">
-        <v>0.7204772169078626</v>
+        <v>0.7201644692839875</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.005092500148287457</v>
+        <v>0.005007582353814653</v>
       </c>
       <c r="F5">
-        <v>0.7094335956227119</v>
+        <v>0.7094212864127404</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>151</v>
       </c>
       <c r="E6">
-        <v>0.04062270445707165</v>
+        <v>0.03613121041587097</v>
       </c>
       <c r="F6">
-        <v>0.7031056638270889</v>
+        <v>0.7028326379093677</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>160</v>
       </c>
       <c r="E2">
-        <v>0.01933178791621492</v>
+        <v>0.0200038870584477</v>
       </c>
       <c r="F2">
-        <v>0.8120231190471967</v>
+        <v>0.8120363264996295</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3">
-        <v>0.01571361524422738</v>
+        <v>0.01560735258736429</v>
       </c>
       <c r="F3">
-        <v>0.8085668608975516</v>
+        <v>0.808610369463024</v>
       </c>
       <c r="G3">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>160</v>
       </c>
       <c r="E4">
-        <v>0.01041399391677734</v>
+        <v>0.008506719036985137</v>
       </c>
       <c r="F4">
-        <v>0.8036121807550466</v>
+        <v>0.8036415728041851</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5">
-        <v>0.005092500148287457</v>
+        <v>0.005007582353814653</v>
       </c>
       <c r="F5">
-        <v>0.8298320346331626</v>
+        <v>0.8298415415169621</v>
       </c>
       <c r="G5">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>156</v>
       </c>
       <c r="E6">
-        <v>0.04062270445707165</v>
+        <v>0.03613121041587097</v>
       </c>
       <c r="F6">
-        <v>0.8055056638573558</v>
+        <v>0.8071007314464478</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>171</v>
       </c>
       <c r="E2">
-        <v>0.01933178791621492</v>
+        <v>0.0200038870584477</v>
       </c>
       <c r="F2">
-        <v>0.9134422566085366</v>
+        <v>0.9135226702410485</v>
       </c>
       <c r="G2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>171</v>
       </c>
       <c r="E3">
-        <v>0.01571361524422738</v>
+        <v>0.01560735258736429</v>
       </c>
       <c r="F3">
-        <v>0.9147959456926085</v>
+        <v>0.9149822567632422</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>171</v>
       </c>
       <c r="E4">
-        <v>0.01041399391677734</v>
+        <v>0.008506719036985137</v>
       </c>
       <c r="F4">
-        <v>0.9125438278878121</v>
+        <v>0.9128170119066845</v>
       </c>
       <c r="G4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>170</v>
       </c>
       <c r="E5">
-        <v>0.005092500148287457</v>
+        <v>0.005007582353814653</v>
       </c>
       <c r="F5">
-        <v>0.9114282888039489</v>
+        <v>0.9114449865126164</v>
       </c>
       <c r="G5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>167</v>
       </c>
       <c r="E6">
-        <v>0.04062270445707165</v>
+        <v>0.03613121041587097</v>
       </c>
       <c r="F6">
-        <v>0.9079502081855848</v>
+        <v>0.9102360212096012</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>35</v>

--- a/on_trucks/Processed_Stand_Alone/35_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/35_11R22.xlsx
@@ -1994,22 +1994,22 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0006079688130648988</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0004076323243487863</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002434617156806275</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0002037400491273126</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001338607006398585</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3.174533450930292E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2021,46 +2021,46 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.848081170182891E-07</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.426299832138747E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001051562774020625</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0002158097081374859</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0004022287459522759</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0004731500739141115</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0003395413654276845</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0003416165807869099</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0003659252219741785</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002652574211912002</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>9.503938844310533E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>6.300000691749684E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2.787685951452398E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>4.869146266767618E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -2069,49 +2069,49 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.069007532164021E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.081324962302686E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.458988023098082E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0002037400491273126</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0001945400201784772</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0002971791047873112</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0002198065501439558</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0003264926146850618</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0003321063597286022</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0002483327964540609</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002382010494022296</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001763746169878819</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0001537153993820466</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>9.661778663484101E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.486557929645004E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -2120,91 +2120,91 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>2.525511772825213E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>7.931478381162901E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0001698027227614031</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0004610379088397942</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0004682867151424346</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0004135616298454327</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0006124106166434047</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0004634479946643003</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0003893867365329468</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0003292579025748043</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0001923427350949856</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0001051562774020625</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>2.787685951452398E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1.657924744184205E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <v>0</v>
       </c>
       <c r="BG2">
-        <v>3.139255170414986E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>7.183225424959597E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0001605017569335757</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0004036764359936558</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0006629274313255301</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0005325128372232815</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.000576657688417015</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0006107301047436156</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0004716702739665945</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0004649997664725472</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0002198065501439558</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0001032622035782063</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>7.282962439087263E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>2.949219511544031E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -2213,385 +2213,385 @@
         <v>0</v>
       </c>
       <c r="BW2">
-        <v>2.273214144615932E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0001099385501475119</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0002579565840206927</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0005470986068447252</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0005490641317198544</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0005022212571808625</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.000494717835147151</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.000391605454928707</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0002597725364259998</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0002242027228015759</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001145116277558798</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>6.947110848914097E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>1.584935852755935E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
         <v>0</v>
       </c>
       <c r="CK2">
-        <v>2.802173718755828E-06</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>5.188187179303497E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001255694727256543</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.05913437613377229</v>
+        <v>0.1362757667238219</v>
       </c>
       <c r="CO2">
-        <v>0.01253685793464029</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.01839858940579843</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.01605859852486385</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.06207189571094277</v>
+        <v>0.1500341479335924</v>
       </c>
       <c r="CS2">
-        <v>0.03750608682626367</v>
+        <v>0.0349759314748811</v>
       </c>
       <c r="CT2">
-        <v>1.02096876894054E-05</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.04424264297502439</v>
+        <v>0.0665277578034567</v>
       </c>
       <c r="CV2">
-        <v>0.0004658642801244579</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.01716136647844303</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.001829202589623579</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.07986777257312101</v>
+        <v>0.2333842163841401</v>
       </c>
       <c r="CZ2">
-        <v>0.08224035010115704</v>
+        <v>0.2444965937565822</v>
       </c>
       <c r="DA2">
-        <v>0.0006013874841747951</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.001592100779190079</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.01276321875111294</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.003452711093099468</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.01528987775700068</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.0217946416475863</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.001892162143167282</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0002124957274536671</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.01045348990429967</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0008042464433868931</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.006797469612713308</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.000284212381534165</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.004859392898302639</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.007429234519850049</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.003848379452210373</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>1.849279853783321E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.0003452630582467535</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0008940363874930637</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0004384498918960699</v>
+        <v>0</v>
       </c>
       <c r="DT2">
         <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001045963156434384</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.00522539364716287</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.006256399065351507</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.0003481781389487807</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.001467318438898227</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.004977211915998815</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0001356644440696257</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0009439371847432299</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.0004544419572226288</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>6.752441888833526E-05</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.004533630589179424</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.008975488752522721</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.00266740014029508</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.006432565167760049</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.005972916067947073</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.003708221514724413</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.002405452714093018</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0007406167783366688</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.00254666068356881</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>8.907822843726713E-05</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.000376748814311794</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.001393571018542545</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0009108013841316343</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.002335587427460902</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.00432168097100446</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.002709854524115942</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.001916458304958715</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.003574696686607262</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.01079556556810657</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.02473597114624602</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.03225602703276878</v>
+        <v>0.01038636803014365</v>
       </c>
       <c r="EZ2">
-        <v>0.01260673954664577</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0003333527769459869</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001999683756342036</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.02513771154269149</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.04134416507755215</v>
+        <v>0.05295223505581613</v>
       </c>
       <c r="FE2">
-        <v>0.0409946849054461</v>
+        <v>0.05131538420026445</v>
       </c>
       <c r="FF2">
-        <v>0.03423422460416599</v>
+        <v>0.01965159863730142</v>
       </c>
       <c r="FG2">
-        <v>0.02712693525122726</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.01125530510848487</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0004036764359936558</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0002494151386613594</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.00161152867458226</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0002726570218627734</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0001108462308909543</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.001274527998466768</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.005935229494393663</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.01901199778268942</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.02555982360135861</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.008475628855936215</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.007744972548949769</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.004378529726971321</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0007693396202012226</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>6.431193595523142E-05</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.00200965385215087</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.002153120231712385</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.003242847717422425</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.003187648525254928</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.001778358265917536</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.004791798340903018</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.004776414430788731</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.001701706130971134</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0001056211499202622</v>
+        <v>0</v>
       </c>
       <c r="GF2">
         <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.002647937591042875</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.003601349411035929</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.003568048754200062</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0006872006574697231</v>
+        <v>0</v>
       </c>
       <c r="GK2">
         <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0004440860217306946</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.001246398979538852</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0007705562110616279</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0004956963760234438</v>
+        <v>0</v>
       </c>
       <c r="GP2">
         <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0001599357271939214</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0007424650810217083</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.001373880014218916</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2776,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.127859932035045E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001393403742765469</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6.952466882489749E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2791,31 +2791,31 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.173668714272373E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.123417284763844E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0003128651698992002</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0003316518291147543</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0003816230567703271</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.000199509465011294</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>8.171591631518001E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.847105452280245E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2824,52 +2824,52 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.327252215202577E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>6.22743620209122E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>9.148286462120249E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0001154942496497931</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>3.399972267280328E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>9.363295843966365E-06</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>7.146160143142727E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>5.295039293054042E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>2.900257483983721E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>5.751894422431895E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0001813925367696676</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.402413735363483E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.065606924161584E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.788339325348226E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.986075458237141E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.137446207764344E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -2881,85 +2881,85 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>3.825756544011363E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0002996466038460093</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0006839062667152366</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0006217918648432482</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0005149721759595475</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0005382351724962359</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0003491443181766415</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001337819471070104</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>4.176892283319656E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>4.449541263842043E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>3.817878659588057E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>3.719719700276981E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>4.481161694359014E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0001012535309252956</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0002409910531726676</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.000391556097716158</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0003787044483388004</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0001612793804700806</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0002263649821972218</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0003693180373358474</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0004964151542623695</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0003236494599394357</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0001317109479821329</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001328645100264561</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>3.414137960253035E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>5.714996600478734E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -2968,403 +2968,403 @@
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>4.818675703465184E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0001645038213157191</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>7.371988418080162E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0003945218930379773</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0002996466038460093</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0003352048635816793</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0005343232529512517</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0006009419673725758</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0004688993615291068</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0005084174897492807</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0004115503542824072</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001861423795745476</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1.103499120086334E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>7.451762538711509E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>5.904636160322653E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0002667254555682005</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.000451689713053996</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0002715371948188466</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0003188503245819255</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0004065666325535852</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0004218496601514431</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0005392601287065407</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001440448414618234</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.144386782479601</v>
+        <v>0.6806026903483361</v>
       </c>
       <c r="CO3">
-        <v>0.001267710103932655</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.03929046591735093</v>
+        <v>0.05491438523401354</v>
       </c>
       <c r="CQ3">
-        <v>0.03467520100595777</v>
+        <v>0.02743752044443976</v>
       </c>
       <c r="CR3">
-        <v>0.01559513679487002</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.005879403210383194</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.003916405512201217</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.001954132362402693</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.0001645038213157191</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0008202504900406248</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.01885552731279194</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.04874610508179081</v>
+        <v>0.1112082976763844</v>
       </c>
       <c r="CZ3">
-        <v>0.004576327709341865</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.005046031590304621</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.03097304954845202</v>
+        <v>0.00539685387786929</v>
       </c>
       <c r="DC3">
-        <v>0.005586629412202652</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01108417937681415</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.01759858627195273</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.01292076915137971</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0068862784992723</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.006656751076955626</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.01428203673678688</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.002811377781527317</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.007622755860947698</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.002142469219146996</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.01735605508119524</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0003911579069411276</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>6.391392497053526E-05</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0007594772847811795</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
         <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.005052810820335799</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.002033100415437225</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0009776001691486271</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.005339878774929235</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.007925398096348155</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01975586741786007</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.003633267124608548</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.004520024704901883</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.01024469993218123</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>7.451762538711509E-06</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.00105415814123316</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.001485142300972432</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0003787044483388004</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.007694037945640565</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.01297228468182075</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.001253398418371197</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.003806689976093164</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.01232644495385565</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.004958604690580838</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.00176870202157192</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.003509443450298353</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.005965648733265868</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0005781184225657742</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>5.062636338141092E-05</v>
+        <v>0</v>
       </c>
       <c r="EP3">
         <v>0</v>
       </c>
       <c r="EQ3">
-        <v>7.733211784030769E-05</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0007324426860269085</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.001913139127472259</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.002147814593395807</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.003385896921259659</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.007494262729999107</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.02152501483314045</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.03002044389607208</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.03217510800450251</v>
+        <v>0.01255327898025699</v>
       </c>
       <c r="EZ3">
-        <v>0.02017666297943445</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>9.148286462120249E-05</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.003886599561001572</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.01499987507625749</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.03336160762126978</v>
+        <v>0.01961707492018592</v>
       </c>
       <c r="FE3">
-        <v>0.03997331115685732</v>
+        <v>0.0589796873733999</v>
       </c>
       <c r="FF3">
-        <v>0.03498639584015632</v>
+        <v>0.02929021114511428</v>
       </c>
       <c r="FG3">
-        <v>0.02500800895453401</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.008502480428763339</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0002082446247340739</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0009485626844326228</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0002409910531726676</v>
+        <v>0</v>
       </c>
       <c r="FL3">
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.0003236494599394357</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.005079971458021428</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.01114656513839969</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.01992701765806445</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.02120117900604098</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.007893598584262843</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.004451327972481223</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.001506428441544667</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.00064298911638394</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.001465994009290816</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.002935512291706417</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.002574748461493615</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.005070066221845419</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.006110161743280001</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.005116020397243574</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.00434560166380684</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.004525109779177896</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.001884150273529293</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0002104422944890118</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0001144110267545139</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.002912056416499591</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.00346130199307946</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.003294858710357014</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0002731501522234841</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>4.481161694359014E-05</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0003055101715691751</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>5.181621300668792E-05</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>9.498299783132891E-05</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>1.35957804205522E-05</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0005815028736951541</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0009746020067885878</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0009287126055747279</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.002033100415437225</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,22 +3540,22 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0004820387027005491</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.737628100864811E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.898220236336475E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.455622309329342E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3564,46 +3564,46 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.390305480171802E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.114480173208462E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.264058092380282E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>5.497387346274725E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001623488498797455</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001946433178235307</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001203813538448869</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>7.485868319651295E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>8.078121452335627E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001764888875197154</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0003223321395276726</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.000244497870057583</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>8.778930094946235E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.175481055744128E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -3615,46 +3615,46 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>2.132381553684904E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.25802174506184E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0002677010765343011</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0001940681825071104</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0001516344754066493</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0004305401387941361</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0004801002207816273</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0001979165111531053</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0002330116013340415</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0001395122140484324</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>8.646118065665256E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>3.160951415476657E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>5.568748052899883E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -3663,43 +3663,43 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>2.159096680564293E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>5.420065295078473E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>8.34676175110564E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>9.280760124028968E-06</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>8.710137311946575E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0001814192044252867</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0002072885582592605</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.000102717107788341</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0001222101579553106</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0002392140843628068</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0002772945490292141</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0001203813538448869</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>3.076253039334563E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -3708,43 +3708,43 @@
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>2.966436978120804E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>6.622931239768176E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>2.479373162967999E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>5.086144595893513E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0001238394300394461</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0002001767622014838</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>2.311892758101805E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>4.024832150524135E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0001439728233807649</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.000172284065806359</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>8.829508886443038E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.000114758537526059</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0001157819994724711</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
@@ -3759,46 +3759,46 @@
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>1.653107414984135E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>9.336773171618135E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>9.980287919531912E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001719205495814177</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.000156777807997267</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>9.525683651692039E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0002229956140715434</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0002541399721414598</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>8.778930094946235E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>2.819567882924165E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>1.3360439015802E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>4.612247442901412E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>5.343113994260894E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>2.705585552007969E-06</v>
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
@@ -3807,337 +3807,337 @@
         <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01263056275176561</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.08631048179243324</v>
+        <v>0.256035994226867</v>
       </c>
       <c r="CO4">
-        <v>0.004999699585579937</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.08817814938428517</v>
+        <v>0.2645455809981235</v>
       </c>
       <c r="CQ4">
-        <v>0.04976017125662236</v>
+        <v>0.08950312704119924</v>
       </c>
       <c r="CR4">
-        <v>0.004446780355264993</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.006017103832512239</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0005413001867376333</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.002947173845435277</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.002804828708653288</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.03267913262636742</v>
+        <v>0.01167740419765459</v>
       </c>
       <c r="CX4">
-        <v>0.01492157000567662</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>6.622931239768176E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.02983670200437389</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.08756695382100708</v>
+        <v>0.2617608126043192</v>
       </c>
       <c r="DB4">
-        <v>0.001536614744306135</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.02515642357505034</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.001012243594571963</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.0009049175893567432</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.03051282108314956</v>
+        <v>0.00180711671662174</v>
       </c>
       <c r="DG4">
-        <v>0.01545185055473913</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>9.980287919531912E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0003398186163037352</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.001162965780899135</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.0001414007501643088</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.005065511997717123</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.00472440286063459</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.004423783583402915</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.003147568845978903</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.0003502654577054795</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>6.295045231435187E-05</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>8.646118065665256E-05</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.001231602426747453</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.002519309421166704</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.002264385680715246</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.007329466631382357</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.009881453717634908</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.004990855832644799</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.002443879603542681</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.001438670934107164</v>
+        <v>0</v>
       </c>
       <c r="EA4">
         <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.001627211367122897</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>4.412472268668362E-05</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.001697771695017297</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.001518632346196997</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.004204066761092138</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.004435274333282795</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.002563797557594485</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0001007705778733945</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0005154592872416647</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.005405751428762317</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.001742733969937476</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0002143100982018176</v>
+        <v>0</v>
       </c>
       <c r="EN4">
         <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.000351017297274195</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0004337647226296182</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0009739117229685603</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0001439728233807649</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>2.383062864871043E-06</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0002080123453874001</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.001396969554455219</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.00441546179475428</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.01952656601325839</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.02818313823485861</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.02765076681441936</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.005893947288499538</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.002702496580422109</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.01548399330640329</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.0302351772772162</v>
+        <v>0.0005420982152571031</v>
       </c>
       <c r="FD4">
-        <v>0.04183090176092594</v>
+        <v>0.05337528121859238</v>
       </c>
       <c r="FE4">
-        <v>0.04164620175927172</v>
+        <v>0.05253373923457724</v>
       </c>
       <c r="FF4">
-        <v>0.0319200548849474</v>
+        <v>0.0082188455467878</v>
       </c>
       <c r="FG4">
-        <v>0.01155023633806004</v>
+        <v>0</v>
       </c>
       <c r="FH4">
         <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.002634581641882733</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.001353471291396184</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0004393190154367242</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>9.107374740706167E-05</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002639023311798703</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.01188885602199018</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0216040612387976</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.02505476161078278</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.02332380244379037</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.006459867800182964</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.002664635431182954</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>3.076253039334563E-05</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.001821423075240014</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.001171886899089443</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.003110099345784751</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.003909856743116681</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.005478950715652868</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.006362835694302711</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.006430092827224427</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.002888794425781487</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.004610885424569916</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.002392599802454556</v>
+        <v>0</v>
       </c>
       <c r="GE4">
         <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0008932668541576334</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.004931588521094989</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001650920200755611</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0007196488023654816</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
         <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.000183594856064765</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>5.949179336851992E-05</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0006585459247809961</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0002406180326531188</v>
+        <v>0</v>
       </c>
       <c r="GO4">
         <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0004932568656489017</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.001866274526944021</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.002443879603542681</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.002385408953172405</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,31 +4313,31 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.670357480812638E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001071927996336739</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.345696171365332E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001193106582991878</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>7.200229747409976E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4.488969759407824E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001703932834422075</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001525496035221579</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.42504800448288E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -4349,199 +4349,199 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.54288586362932E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001455381664200968</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001856310651773772</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0002616321778619578</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002251788904460737</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.000188068092005635</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0002439343536619973</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001681454229408133</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0002425451434441941</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0001455381664200968</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0001433931611079548</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0002411599041988827</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>3.659063205160735E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>2.617910736755679E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>7.880781414621483E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>7.960482933536138E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001010371681185371</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>7.437499544821089E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000151449714159078</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001484453783967722</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>2.056435631413106E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.534639533624792E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0001019377686757568</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>3.386885258738379E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1.906007991660212E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>2.99054719548367E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0001128154066110167</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>7.124376170857018E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>5.5185304889942E-07</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>5.93473251693702E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.863660120659871E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>2.76577043761993E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>4.328164878266865E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>3.246760742222005E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1.265272575454907E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>3.160053897702032E-08</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>2.99364855500711E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>4.67568708651092E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>3.350768413717291E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>3.144332057420811E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>8.259297803345264E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>1.611626787656546E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>2.271695348552059E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>3.768706066714962E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>7.193327747109004E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>1.366529973407766E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>5.5185304889942E-07</v>
+        <v>0</v>
       </c>
       <c r="BO5">
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>1.921651012638538E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>7.437499544821089E-06</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0001081200327132025</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>9.16049481663711E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>6.13897684640578E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>3.141156679770319E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0001118684406989142</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>3.919170815555877E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>3.862850922805187E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.571554984224513E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.602192777265901E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -4550,367 +4550,367 @@
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>5.93473251693702E-06</v>
+        <v>0</v>
       </c>
       <c r="CD5">
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>8.535655483385047E-06</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>4.269057902959214E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>5.49282120278592E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>1.611626787656546E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>2.404029057098324E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>3.144332057420811E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>1.436007888560233E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.003564304342800275</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1323217160534006</v>
+        <v>0.4625587581020468</v>
       </c>
       <c r="CO5">
-        <v>0.003221519994858962</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.06509917324197771</v>
+        <v>0.158652395940793</v>
       </c>
       <c r="CQ5">
-        <v>0.02216876257758008</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.005746579482328928</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.0002148547620653917</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.001821043417922595</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0009697764425049638</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.002860302532645032</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.001497425663883175</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.03163504287112911</v>
+        <v>0.007364424695432963</v>
       </c>
       <c r="CY5">
-        <v>0.05482294259145749</v>
+        <v>0.1121945896288471</v>
       </c>
       <c r="CZ5">
-        <v>0.005302147940973785</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0005555175404339795</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.01852205049721177</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.02171720499105534</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.007329551952538575</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.04020367032935604</v>
+        <v>0.04610232853893764</v>
       </c>
       <c r="DF5">
-        <v>0.003868942948843333</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.01028469416733685</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.00354311645388291</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.03949429260263797</v>
+        <v>0.04289530310805088</v>
       </c>
       <c r="DJ5">
-        <v>0.0004879968546072848</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0385891769396682</v>
+        <v>0.038803366133278</v>
       </c>
       <c r="DL5">
-        <v>0.01422361580987339</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.04077571642353545</v>
+        <v>0.04868849145690865</v>
       </c>
       <c r="DN5">
-        <v>0.0005291104233268012</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.002505792112986891</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002310951296439939</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001211598264707671</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.003070455399115445</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.001032171523070115</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0008878381758104221</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.000337668819247523</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.004440983641699967</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.01516242672481573</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>6.13897684640578E-05</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0004471296962337012</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.005041785178091758</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0001558729274047052</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.001599711813777548</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>5.593754911467226E-07</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>4.718111876348697E-05</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.001521597083467675</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.01108175036652676</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.001411842604578344</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>1.570533633936666E-05</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.001275853400800716</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.002545145450625536</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.001382772285252519</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>9.16049481663711E-05</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>9.385818588464657E-07</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>4.553330121270677E-05</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0003837035731660771</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>8.173745851658695E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0001693037566169148</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0008470906967463205</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.002142975459130674</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0008594263477492124</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.001181428776195137</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.007650074348524315</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.02417574008669117</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.02169429938146791</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.01624497884200135</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.005615574699236719</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.002428825763915766</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.0119152134817762</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.02470787140573581</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.03930472317705551</v>
+        <v>0.04203827878114644</v>
       </c>
       <c r="FE5">
-        <v>0.03644804657650182</v>
+        <v>0.02912353088205438</v>
       </c>
       <c r="FF5">
-        <v>0.03256718215218724</v>
+        <v>0.01157853273250424</v>
       </c>
       <c r="FG5">
-        <v>0.01739193773241599</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.002399354746458905</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.002119386282137477</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.001668643395132782</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>9.607144891311415E-06</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0001796075400151073</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.001457074881970269</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0098854453912481</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.01392520572919718</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.02227056650937916</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.01745570334862553</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.006791658222278508</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.005041785178091758</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.001990491015666224</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0005374547668578588</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0005395187723331279</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0005698901402859685</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.001263975491898938</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.002976707040127423</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.005629315364327784</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.002540664453228561</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.001379469176320616</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.004143064081152221</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.00260715993798335</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>3.919170815555877E-05</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0005740112195389329</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.002335311562272914</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0009083190915899529</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0002858433471811737</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.000696148731034918</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0005478142038856341</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>7.300387276004654E-05</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.001541596781396878</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0005698901402859685</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>6.351738951879241E-05</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>9.297922662738473E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0006487403807223886</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001372668910934542</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.003152234726885819</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5092,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.332349403836854E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.768245427559397E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.238895237580084E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>3.165989790628106E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.80392199186776E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>9.235448747748181E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0001533451688137586</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>4.837789156954955E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -5203,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>6.607832123473036E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>6.476759353953111E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>3.165989790628106E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>7.366959266150714E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>3.165989790628106E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2.594244298932706E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -5299,10 +5299,10 @@
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0003827868230960099</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>9.898824658961831E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -5335,268 +5335,268 @@
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>5.600021512314969E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
         <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.001230028987336967</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.02977747199445604</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.001377156116353635</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.002507828720302386</v>
+        <v>0</v>
       </c>
       <c r="CM6">
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01984258485064975</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.05990382218671556</v>
+        <v>0.1555359042874677</v>
       </c>
       <c r="CP6">
-        <v>0.01063652494253567</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.02177276558235895</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.005286809192983651</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.03407476557731378</v>
+        <v>0.01855380590056875</v>
       </c>
       <c r="CT6">
-        <v>0.0004934768433421369</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.1128020118260253</v>
+        <v>0.4360767357719276</v>
       </c>
       <c r="CV6">
-        <v>0.04809123240553154</v>
+        <v>0.09288888778663146</v>
       </c>
       <c r="CW6">
-        <v>0.0005107060595448299</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.001433303383281335</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.02600670360309302</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.00321315308286866</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.03880822983636893</v>
+        <v>0.04365731148538923</v>
       </c>
       <c r="DB6">
-        <v>0.05204815163585324</v>
+        <v>0.1138740560610175</v>
       </c>
       <c r="DC6">
-        <v>0.0004597627396401106</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.01437042943772829</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.01535009124467986</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.03019406958252806</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.01038638417622219</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.004285010191592772</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.007825104015763475</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.009343392427713655</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0009664937887600706</v>
+        <v>0</v>
       </c>
       <c r="DL6">
         <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0002305235698204917</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>2.476424536148084E-05</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002854341863098631</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>7.903356574400855E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
         <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001755059577453491</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.008736922869577472</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.004596312374698931</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.004682495554292958</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.004092638679042737</v>
+        <v>0</v>
       </c>
       <c r="DW6">
         <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0007608990405732235</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>1.651501728575582E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
         <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0007608990405732235</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.00738491224286583</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.001904423791870909</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.00166859959325699</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.006096653272238811</v>
+        <v>0</v>
       </c>
       <c r="EF6">
         <v>0</v>
       </c>
       <c r="EG6">
-        <v>6.084121095023105E-05</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.001390665328755796</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0006029684872020958</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
         <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0002241503718715512</v>
+        <v>0</v>
       </c>
       <c r="EL6">
         <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.002085799162163871</v>
+        <v>0</v>
       </c>
       <c r="EN6">
         <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.001129370904941252</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.004285010191592772</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.001885004529627902</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.001988235019401151</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.01320856953284635</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.02697590709472338</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.02769379947255405</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01142113327601652</v>
+        <v>0</v>
       </c>
       <c r="EW6">
         <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.003174569739226838</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01507104740467663</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0417733974267313</v>
+        <v>0.05938281337804509</v>
       </c>
       <c r="FA6">
-        <v>0.04424907896644549</v>
+        <v>0.07251236965166905</v>
       </c>
       <c r="FB6">
-        <v>0.02917218713132341</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.01946543986080606</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01019996278407929</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0007304485358967855</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0005752776045080802</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.000579960091013189</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0001171580142918055</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0001370475779051263</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.002719213870283655</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.01230003144383762</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.0271385628492084</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.03199389901987522</v>
+        <v>0.00751811567728352</v>
       </c>
       <c r="FN6">
-        <v>0.009638355863032858</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.004391467130569914</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.003762175386523498</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
         <v>0</v>
@@ -5605,58 +5605,58 @@
         <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.001331996485654866</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.002521148442993339</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.004130421841145824</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.00667777845339793</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.005109339626840827</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.002443914322378177</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.004011820138665946</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.002321610652976714</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0008307591316706518</v>
+        <v>0</v>
       </c>
       <c r="GB6">
         <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.001123202189859146</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.001357881354106736</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0003673006150378678</v>
+        <v>0</v>
       </c>
       <c r="GF6">
         <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.000211077733925718</v>
+        <v>0</v>
       </c>
       <c r="GH6">
         <v>0</v>
       </c>
       <c r="GI6">
-        <v>9.617482141715546E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>3.53136469213627E-05</v>
+        <v>0</v>
       </c>
       <c r="GK6">
         <v>0</v>
@@ -5665,16 +5665,16 @@
         <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.000600619183719262</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.002238951633571472</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.003016702776102225</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.001552068340012136</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0006079688130648988</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.001015601137413685</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001259062853094313</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.001462802902221625</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.001596663602861484</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001599838136312414</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001599838136312414</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001599838136312414</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001599838136312414</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001600822944429432</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.00164508594275082</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.001750242220152882</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001966051928290368</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002368280674242644</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.002841430748156755</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.00318097211358444</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.00352258869437135</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.003888513916345528</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.004153771337536728</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.004248810725979834</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.004311810732897331</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.004339687592411855</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.004344556738678623</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.004344556738678623</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.004344556738678623</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.004355246814000263</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.00439606006362329</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.004470649943854271</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.004674389992981583</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.00486893001316006</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.005166109117947372</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.005385915668091328</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.00571240828277639</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.006044514642504992</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.006292847438959053</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.006531048488361282</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.006707423105349164</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.006861138504731211</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.006957756291366052</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.006982621870662502</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.006982621870662502</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.006982621870662502</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.007007876988390754</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.007087191772202383</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.007256994494963786</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.007718032403803581</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.008186319118946015</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.008599880748791448</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.009212291365434853</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.009675739360099155</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0100651260966321</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0103943839992069</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.01058672673430189</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.01069188301170395</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.01071975987121848</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01073633911866032</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.01073633911866032</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01076773167036447</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.01083956392461406</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.01100006568154764</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0114037421175413</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.01206666954886683</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.01259918238609011</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.01317584007450712</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01378657017925074</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.01425824045321733</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.01472324021968988</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.01494304676983384</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.01504630897341204</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01511913859780291</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.01514863079291835</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01514863079291835</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01514863079291835</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01517136293436451</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01528130148451202</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01553925806853272</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01608635667537744</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0166354208070973</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.01713764206427816</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.01763235989942532</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.01802396535435402</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.01828373789078002</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0185079406135816</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.01862245224133748</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01869192334982661</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01869350828567937</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.01869350828567937</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.01869631045939812</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.01874819233119116</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0200038870584477</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.07913826319221999</v>
+        <v>0.1362757667238219</v>
       </c>
       <c r="CO2">
-        <v>0.09167512112686028</v>
+        <v>0.1362757667238219</v>
       </c>
       <c r="CP2">
-        <v>0.1100737105326587</v>
+        <v>0.1362757667238219</v>
       </c>
       <c r="CQ2">
-        <v>0.1261323090575226</v>
+        <v>0.1362757667238219</v>
       </c>
       <c r="CR2">
-        <v>0.1882042047684653</v>
+        <v>0.2863099146574143</v>
       </c>
       <c r="CS2">
-        <v>0.225710291594729</v>
+        <v>0.3212858461322954</v>
       </c>
       <c r="CT2">
-        <v>0.2257205012824184</v>
+        <v>0.3212858461322954</v>
       </c>
       <c r="CU2">
-        <v>0.2699631442574428</v>
+        <v>0.3878136039357521</v>
       </c>
       <c r="CV2">
-        <v>0.2704290085375673</v>
+        <v>0.3878136039357521</v>
       </c>
       <c r="CW2">
-        <v>0.2875903750160103</v>
+        <v>0.3878136039357521</v>
       </c>
       <c r="CX2">
-        <v>0.2894195776056339</v>
+        <v>0.3878136039357521</v>
       </c>
       <c r="CY2">
-        <v>0.3692873501787549</v>
+        <v>0.6211978203198922</v>
       </c>
       <c r="CZ2">
-        <v>0.451527700279912</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DA2">
-        <v>0.4521290877640868</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DB2">
-        <v>0.4537211885432769</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DC2">
-        <v>0.4664844072943898</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DD2">
-        <v>0.4699371183874893</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DE2">
-        <v>0.48522699614449</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DF2">
-        <v>0.5070216377920763</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DG2">
-        <v>0.5089137999352435</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DH2">
-        <v>0.5091262956626972</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DI2">
-        <v>0.5195797855669968</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DJ2">
-        <v>0.5203840320103837</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DK2">
-        <v>0.5271815016230971</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DL2">
-        <v>0.5274657140046313</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DM2">
-        <v>0.5323251069029339</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DN2">
-        <v>0.5397543414227839</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DO2">
-        <v>0.5436027208749943</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DP2">
-        <v>0.5436212136735321</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DQ2">
-        <v>0.5439664767317789</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DR2">
-        <v>0.544860513119272</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DS2">
-        <v>0.5452989630111681</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DT2">
-        <v>0.5452989630111681</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DU2">
-        <v>0.5463449261676024</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DV2">
-        <v>0.5515703198147653</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DW2">
-        <v>0.5578267188801168</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DX2">
-        <v>0.5581748970190656</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DY2">
-        <v>0.5596422154579639</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="DZ2">
-        <v>0.5646194273739628</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EA2">
-        <v>0.5647550918180324</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EB2">
-        <v>0.5656990290027757</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EC2">
-        <v>0.5661534709599984</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="ED2">
-        <v>0.5662209953788867</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EE2">
-        <v>0.5707546259680661</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EF2">
-        <v>0.5797301147205889</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EG2">
-        <v>0.582397514860884</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EH2">
-        <v>0.588830080028644</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EI2">
-        <v>0.594802996096591</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EJ2">
-        <v>0.5985112176113154</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EK2">
-        <v>0.6009166703254084</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EL2">
-        <v>0.6016572871037451</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EM2">
-        <v>0.6042039477873139</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EN2">
-        <v>0.6042930260157512</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EO2">
-        <v>0.604669774830063</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EP2">
-        <v>0.6060633458486056</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EQ2">
-        <v>0.6069741472327372</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="ER2">
-        <v>0.6093097346601981</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="ES2">
-        <v>0.6136314156312026</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="ET2">
-        <v>0.6163412701553186</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EU2">
-        <v>0.6182577284602773</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EV2">
-        <v>0.6218324251468845</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EW2">
-        <v>0.6326279907149911</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EX2">
-        <v>0.6573639618612371</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="EY2">
-        <v>0.6896199888940059</v>
+        <v>0.8760807821066181</v>
       </c>
       <c r="EZ2">
-        <v>0.7022267284406517</v>
+        <v>0.8760807821066181</v>
       </c>
       <c r="FA2">
-        <v>0.7025600812175977</v>
+        <v>0.8760807821066181</v>
       </c>
       <c r="FB2">
-        <v>0.7045597649739398</v>
+        <v>0.8760807821066181</v>
       </c>
       <c r="FC2">
-        <v>0.7296974765166313</v>
+        <v>0.8760807821066181</v>
       </c>
       <c r="FD2">
-        <v>0.7710416415941834</v>
+        <v>0.9290330171624342</v>
       </c>
       <c r="FE2">
-        <v>0.8120363264996295</v>
+        <v>0.9803484013626987</v>
       </c>
       <c r="FF2">
-        <v>0.8462705511037956</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8733974863550228</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8846527914635076</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8850564678995013</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8853058830381627</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.886917411712745</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8871900687346077</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.8873009149654987</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.8885754429639654</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.894510672458359</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9135226702410485</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9390824938424072</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9475581226983434</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9553030952472932</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9596816249742645</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9604509645944657</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9605152765304209</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9625249303825718</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9646780506142842</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9679208983317067</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9711085468569616</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9728869051228791</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9776787034637822</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9824551178945709</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9841568240255419</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9842624451754622</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9842624451754622</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9869103827665051</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9905117321775411</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9940797809317411</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9947669815892108</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9947669815892108</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9952110676109416</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9964574665904804</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.997228022801542</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9977237191775654</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9977237191775654</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9978836549047594</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9986261199857811</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7427,592 +7427,592 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.127859932035045E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0002106189735968973</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0002801436424217948</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002801436424217948</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002801436424217948</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0003118803295645185</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.000373114502412157</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0006859796723113572</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001017631501426111</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001399254558196438</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001598764023207733</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001680479939522913</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001680479939522913</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001698950994045715</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001698950994045715</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001698950994045715</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001701278246260918</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001707505682463009</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001798988547084211</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001914482796734004</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001948482519406808</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001957845815250774</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002029307416682201</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.002082257809612742</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002111260384452579</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002168779328676898</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002350171865446566</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002434196002800201</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002444852072041816</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002482735465295299</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00253259621987767</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002553970681955313</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.002553970681955313</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.002553970681955313</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.002553970681955313</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.002592228247395427</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.002891874851241436</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.003575781117956673</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.004197572982799921</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.004712545158759469</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.005250780331255705</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.005599924649432346</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.005733706596539357</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.005775475519372553</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.005779925060636395</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.005779925060636395</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.005783742939295984</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.005820940136298754</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.005865751753242344</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.00596700528416764</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.006207996337340308</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.006599552435056466</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.006978256883395267</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.007139536263865347</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.007365901246062569</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.007735219283398416</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.008231634437660786</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.008555283897600222</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.008686994845582354</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.008819859355608811</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.008823273493569064</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.008880423459573851</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.008880423459573851</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.008880423459573851</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.008928610216608504</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.009093114037924222</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.009166833922105024</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.009561355815143001</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.009861002418989009</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01019620728257069</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01073053053552194</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01133147250289451</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01180037186442362</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0123087893541729</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01272033970845531</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01290648208802986</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01291751707923072</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01292496884176943</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01293087347792975</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01319759893349795</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01364928864655195</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0139208258413708</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01423967616595272</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01464624279850631</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01506809245865775</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01560735258736429</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01704780100198253</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1614345834815836</v>
+        <v>0.6806026903483361</v>
       </c>
       <c r="CO3">
-        <v>0.1627022935855162</v>
+        <v>0.6806026903483361</v>
       </c>
       <c r="CP3">
-        <v>0.2019927595028672</v>
+        <v>0.7355170755823497</v>
       </c>
       <c r="CQ3">
-        <v>0.2366679605088249</v>
+        <v>0.7629545960267895</v>
       </c>
       <c r="CR3">
-        <v>0.2522630973036949</v>
+        <v>0.7629545960267895</v>
       </c>
       <c r="CS3">
-        <v>0.2581425005140782</v>
+        <v>0.7629545960267895</v>
       </c>
       <c r="CT3">
-        <v>0.2620589060262794</v>
+        <v>0.7629545960267895</v>
       </c>
       <c r="CU3">
-        <v>0.2640130383886821</v>
+        <v>0.7629545960267895</v>
       </c>
       <c r="CV3">
-        <v>0.2641775422099978</v>
+        <v>0.7629545960267895</v>
       </c>
       <c r="CW3">
-        <v>0.2649977927000385</v>
+        <v>0.7629545960267895</v>
       </c>
       <c r="CX3">
-        <v>0.2838533200128304</v>
+        <v>0.7629545960267895</v>
       </c>
       <c r="CY3">
-        <v>0.3325994250946213</v>
+        <v>0.8741628937031739</v>
       </c>
       <c r="CZ3">
-        <v>0.3371757528039631</v>
+        <v>0.8741628937031739</v>
       </c>
       <c r="DA3">
-        <v>0.3422217843942678</v>
+        <v>0.8741628937031739</v>
       </c>
       <c r="DB3">
-        <v>0.3731948339427198</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DC3">
-        <v>0.3787814633549225</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DD3">
-        <v>0.3898656427317366</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DE3">
-        <v>0.4074642290036893</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DF3">
-        <v>0.420384998155069</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DG3">
-        <v>0.4272712766543413</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DH3">
-        <v>0.433928027731297</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DI3">
-        <v>0.4482100644680839</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DJ3">
-        <v>0.4510214422496112</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DK3">
-        <v>0.4586441981105588</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DL3">
-        <v>0.4607866673297059</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DM3">
-        <v>0.4781427224109011</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DN3">
-        <v>0.4785338803178422</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DO3">
-        <v>0.4785977942428127</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DP3">
-        <v>0.4793572715275939</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DQ3">
-        <v>0.4793572715275939</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DR3">
-        <v>0.4844100823479298</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DS3">
-        <v>0.486443182763367</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DT3">
-        <v>0.4874207829325156</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DU3">
-        <v>0.4927606617074449</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DV3">
-        <v>0.500686059803793</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DW3">
-        <v>0.5204419272216531</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DX3">
-        <v>0.5240751943462616</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DY3">
-        <v>0.5285952190511635</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="DZ3">
-        <v>0.5388399189833447</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EA3">
-        <v>0.5388473707458834</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EB3">
-        <v>0.5399015288871165</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EC3">
-        <v>0.5413866711880889</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="ED3">
-        <v>0.5417653756364277</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EE3">
-        <v>0.5494594135820683</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EF3">
-        <v>0.5624316982638891</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EG3">
-        <v>0.5636850966822603</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EH3">
-        <v>0.5674917866583534</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EI3">
-        <v>0.579818231612209</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EJ3">
-        <v>0.5847768363027899</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EK3">
-        <v>0.5865455383243617</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EL3">
-        <v>0.5900549817746601</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EM3">
-        <v>0.596020630507926</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EN3">
-        <v>0.5965987489304917</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EO3">
-        <v>0.5966493752938731</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EP3">
-        <v>0.5966493752938731</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EQ3">
-        <v>0.5967267074117134</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="ER3">
-        <v>0.5974591500977403</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="ES3">
-        <v>0.5993722892252126</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="ET3">
-        <v>0.6015201038186084</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EU3">
-        <v>0.6049060007398681</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EV3">
-        <v>0.6124002634698672</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EW3">
-        <v>0.6339252783030076</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EX3">
-        <v>0.6639457221990797</v>
+        <v>0.8795597475810432</v>
       </c>
       <c r="EY3">
-        <v>0.6961208302035822</v>
+        <v>0.8921130265613002</v>
       </c>
       <c r="EZ3">
-        <v>0.7162974931830166</v>
+        <v>0.8921130265613002</v>
       </c>
       <c r="FA3">
-        <v>0.7163889760476378</v>
+        <v>0.8921130265613002</v>
       </c>
       <c r="FB3">
-        <v>0.7202755756086394</v>
+        <v>0.8921130265613002</v>
       </c>
       <c r="FC3">
-        <v>0.7352754506848969</v>
+        <v>0.8921130265613002</v>
       </c>
       <c r="FD3">
-        <v>0.7686370583061667</v>
+        <v>0.9117301014814861</v>
       </c>
       <c r="FE3">
-        <v>0.808610369463024</v>
+        <v>0.970709788854886</v>
       </c>
       <c r="FF3">
-        <v>0.8435967653031803</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8686047742577143</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8771072546864777</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8773154993112118</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8782640619956444</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8785050530488171</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.8785050530488171</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.8788287025087566</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.883908673966778</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.8950552391051777</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9149822567632422</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9361834357692832</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9440770343535461</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9485283623260273</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.950034790767572</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.950677779883956</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9521437738932468</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9550792861849532</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9576540346464468</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9627241008682923</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9688342626115723</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9739502830088159</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9782958846726227</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9828209944518006</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9847051447253299</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9849155870198189</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9850299980465733</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9879420544630729</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9914033564561524</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9946982151665095</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.994971365318733</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9950161769356766</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9953216871072458</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9953735033202524</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9954684863180837</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9954820820985043</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9960635849721995</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9970381869789881</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9979668995845627</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0004820387027005491</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0005694149837091973</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0005694149837091973</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.000588397186072562</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.000588397186072562</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0006229534091658555</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0006229534091658555</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0006229534091658555</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0006368564639675736</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0006880012656996582</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0006962653237920385</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0007512391972547858</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0009135880471345312</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001108231364958062</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001228612718802949</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001303471401999462</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001384252616522818</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001560741504042533</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001883073643570206</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.002127571513627789</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.002215360814577252</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.002227115625134693</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.002227115625134693</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002227115625134693</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.002227115625134693</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.002248439440671542</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.002248439440671542</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.00226101965812216</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002528720734656461</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002722788917163572</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002874423392570221</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.003304963531364357</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.003785063752145984</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00398298026329909</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.004215991864633131</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.004355504078681563</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.004441965259338216</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.004473574773492982</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.004479143521545883</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.004479143521545883</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.004479143521545883</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.004500734488351525</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.00455493514130231</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.004638402758813366</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.004647683518937395</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.004734784892056861</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.004916204096482148</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.005123492654741409</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.00522620976252975</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.005348419920485061</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.005587634004847867</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.005864928553877082</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.005985309907721968</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.006016072438115314</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.006016072438115314</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.006016072438115314</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.006045736807896522</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.006111966120294203</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.006136759851923883</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.006141845996519777</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.006265685426559224</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.006465862188760708</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.006488981116341726</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.006529229437846967</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.006673202261227732</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.00684548632703409</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.00693378141589852</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.007048539953424579</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.007164321952897051</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.007164321952897051</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.007164321952897051</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.007164321952897051</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.007164321952897051</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.007180853027046892</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.007274220758763073</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.007374023637958392</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.00754594418753981</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.007702721995537076</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.007797978832053997</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.008020974446125539</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.008275114418266999</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.008362903719216462</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.008391099398045703</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.008404459837061505</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.008450582311490519</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.008504013451433128</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.008506719036985137</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.008506719036985137</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.008506719036985137</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.02113728178875075</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.107447763581184</v>
+        <v>0.256035994226867</v>
       </c>
       <c r="CO4">
-        <v>0.1124474631667639</v>
+        <v>0.256035994226867</v>
       </c>
       <c r="CP4">
-        <v>0.2006256125510491</v>
+        <v>0.5205815752249905</v>
       </c>
       <c r="CQ4">
-        <v>0.2503857838076715</v>
+        <v>0.6100847022661897</v>
       </c>
       <c r="CR4">
-        <v>0.2548325641629364</v>
+        <v>0.6100847022661897</v>
       </c>
       <c r="CS4">
-        <v>0.2608496679954487</v>
+        <v>0.6100847022661897</v>
       </c>
       <c r="CT4">
-        <v>0.2613909681821863</v>
+        <v>0.6100847022661897</v>
       </c>
       <c r="CU4">
-        <v>0.2643381420276216</v>
+        <v>0.6100847022661897</v>
       </c>
       <c r="CV4">
-        <v>0.2671429707362749</v>
+        <v>0.6100847022661897</v>
       </c>
       <c r="CW4">
-        <v>0.2998221033626423</v>
+        <v>0.6217621064638443</v>
       </c>
       <c r="CX4">
-        <v>0.3147436733683189</v>
+        <v>0.6217621064638443</v>
       </c>
       <c r="CY4">
-        <v>0.3148099026807166</v>
+        <v>0.6217621064638443</v>
       </c>
       <c r="CZ4">
-        <v>0.3446466046850905</v>
+        <v>0.6217621064638443</v>
       </c>
       <c r="DA4">
-        <v>0.4322135585060976</v>
+        <v>0.8835229190681635</v>
       </c>
       <c r="DB4">
-        <v>0.4337501732504037</v>
+        <v>0.8835229190681635</v>
       </c>
       <c r="DC4">
-        <v>0.458906596825454</v>
+        <v>0.8835229190681635</v>
       </c>
       <c r="DD4">
-        <v>0.459918840420026</v>
+        <v>0.8835229190681635</v>
       </c>
       <c r="DE4">
-        <v>0.4608237580093827</v>
+        <v>0.8835229190681635</v>
       </c>
       <c r="DF4">
-        <v>0.4913365790925323</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DG4">
-        <v>0.5067884296472714</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DH4">
-        <v>0.5068882325264668</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DI4">
-        <v>0.5072280511427705</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DJ4">
-        <v>0.5083910169236696</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DK4">
-        <v>0.5085324176738339</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DL4">
-        <v>0.513597929671551</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DM4">
-        <v>0.5183223325321856</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DN4">
-        <v>0.5227461161155885</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DO4">
-        <v>0.5258936849615674</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DP4">
-        <v>0.5262439504192729</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DQ4">
-        <v>0.5263069008715872</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DR4">
-        <v>0.5263933620522439</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DS4">
-        <v>0.5276249644789913</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DT4">
-        <v>0.5301442739001581</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DU4">
-        <v>0.5324086595808734</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DV4">
-        <v>0.5397381262122557</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DW4">
-        <v>0.5496195799298906</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DX4">
-        <v>0.5546104357625354</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DY4">
-        <v>0.5570543153660781</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="DZ4">
-        <v>0.5584929863001853</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EA4">
-        <v>0.5584929863001853</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EB4">
-        <v>0.5601201976673081</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EC4">
-        <v>0.5601643223899948</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="ED4">
-        <v>0.5618620940850121</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EE4">
-        <v>0.5633807264312091</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EF4">
-        <v>0.5675847931923012</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EG4">
-        <v>0.572020067525584</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EH4">
-        <v>0.5745838650831785</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EI4">
-        <v>0.5746846356610519</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EJ4">
-        <v>0.5752000949482935</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EK4">
-        <v>0.5806058463770558</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EL4">
-        <v>0.5823485803469933</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EM4">
-        <v>0.5825628904451952</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EN4">
-        <v>0.5825628904451952</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EO4">
-        <v>0.5829139077424693</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EP4">
-        <v>0.5833476724650989</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EQ4">
-        <v>0.5843215841880675</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="ER4">
-        <v>0.5844655570114482</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="ES4">
-        <v>0.584467940074313</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="ET4">
-        <v>0.5846759524197004</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EU4">
-        <v>0.5860729219741556</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EV4">
-        <v>0.5904883837689099</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EW4">
-        <v>0.6100149497821683</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EX4">
-        <v>0.6381980880170269</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EY4">
-        <v>0.6658488548314463</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="EZ4">
-        <v>0.6717428021199459</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="FA4">
-        <v>0.674445298700368</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="FB4">
-        <v>0.6899292920067712</v>
+        <v>0.8853300357847852</v>
       </c>
       <c r="FC4">
-        <v>0.7201644692839875</v>
+        <v>0.8858721340000423</v>
       </c>
       <c r="FD4">
-        <v>0.7619953710449134</v>
+        <v>0.9392474152186346</v>
       </c>
       <c r="FE4">
-        <v>0.8036415728041851</v>
+        <v>0.9917811544532119</v>
       </c>
       <c r="FF4">
-        <v>0.8355616276891326</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FG4">
-        <v>0.8471118640271926</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FH4">
-        <v>0.8471118640271926</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FI4">
-        <v>0.8497464456690753</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FJ4">
-        <v>0.8510999169604715</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FK4">
-        <v>0.8515392359759082</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FL4">
-        <v>0.8516303097233152</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FM4">
-        <v>0.8542693330351139</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FN4">
-        <v>0.8661581890571041</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FO4">
-        <v>0.8877622502959017</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FP4">
-        <v>0.9128170119066845</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FQ4">
-        <v>0.9361408143504749</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FR4">
-        <v>0.9426006821506578</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FS4">
-        <v>0.9452653175818408</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FT4">
-        <v>0.9452960801122342</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FU4">
-        <v>0.9471175031874742</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FV4">
-        <v>0.9482893900865637</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FW4">
-        <v>0.9513994894323484</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FX4">
-        <v>0.9553093461754651</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FY4">
-        <v>0.960788296891118</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FZ4">
-        <v>0.9671511325854207</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GA4">
-        <v>0.9735812254126451</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GB4">
-        <v>0.9764700198384266</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GC4">
-        <v>0.9810809052629965</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GD4">
-        <v>0.9834735050654511</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GE4">
-        <v>0.9834735050654511</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GF4">
-        <v>0.9843667719196086</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GG4">
-        <v>0.9892983604407036</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GH4">
-        <v>0.9909492806414593</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GI4">
-        <v>0.9916689294438248</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GJ4">
-        <v>0.9916689294438248</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GK4">
-        <v>0.9918525242998896</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GL4">
-        <v>0.9919120160932581</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GM4">
-        <v>0.9925705620180391</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GN4">
-        <v>0.9928111800506921</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GO4">
-        <v>0.9928111800506921</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GP4">
-        <v>0.9933044369163411</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GQ4">
-        <v>0.9951707114432851</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GR4">
-        <v>0.9976145910468277</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.670357480812638E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001238963744418003</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001473533361554536</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0002666639944546415</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0003386662919287412</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0003835559895228195</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.000553949272965027</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0007064988764871849</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0007207493565320137</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0007207493565320137</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0007207493565320137</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0007207493565320137</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0007761782151683069</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0009217163815884037</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001107347446765781</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001368979624627739</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001594158515073812</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001782226607079447</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002026160960741444</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002194306383682257</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002436851527126452</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002582389693546548</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002725782854654503</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002966942758853386</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.002970601822058547</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.002996780929426104</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003075588743572319</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.00315519357290768</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.003256230741026218</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.003263668240571039</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.003415117954730117</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.003563563333126889</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.00358412768944102</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003586662328974645</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.003586662328974645</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.003688600097650401</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.003722468950237785</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.003741529030154387</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.003741529030154387</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.003771434502109224</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.00388424990872024</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.003955493670428811</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.00395604552347771</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.003961980255994647</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.003980616857201246</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.003980616857201246</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.003983382627638866</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.003983382627638866</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.004026664276421534</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.004059131883843754</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.004071784609598303</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.004071784609598303</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.004071816210137281</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.004101752695687352</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.004148509566552461</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.004182017250689634</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.004213460571263841</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.004221719869067187</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.004223331495854844</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.004246048449340364</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.004283735510007514</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.004290928837754623</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.004290928837754623</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0043045941374887</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0043051459905376</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0043051459905376</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.004307067641550238</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.004314505141095059</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.004422625173808262</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.004514230121974633</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.00457561989043869</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.004607031457236393</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.004718899897935307</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.004758091606090866</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.004796720115318918</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.004822435665161163</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.004824037857938429</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.004824037857938429</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.004824037857938429</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.004829972590455366</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.004829972590455366</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.004838508245938751</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.004881198824968343</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.004936127036996202</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.004937738663783859</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.004961778954354843</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.00499322227492905</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.005007582353814653</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.005007582353814653</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.008571886696614928</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1408936027500156</v>
+        <v>0.4625587581020468</v>
       </c>
       <c r="CO5">
-        <v>0.1441151227448745</v>
+        <v>0.4625587581020468</v>
       </c>
       <c r="CP5">
-        <v>0.2092142959868522</v>
+        <v>0.6212111540428398</v>
       </c>
       <c r="CQ5">
-        <v>0.2313830585644323</v>
+        <v>0.6212111540428398</v>
       </c>
       <c r="CR5">
-        <v>0.2371296380467612</v>
+        <v>0.6212111540428398</v>
       </c>
       <c r="CS5">
-        <v>0.2373444928088266</v>
+        <v>0.6212111540428398</v>
       </c>
       <c r="CT5">
-        <v>0.2391655362267492</v>
+        <v>0.6212111540428398</v>
       </c>
       <c r="CU5">
-        <v>0.2401353126692542</v>
+        <v>0.6212111540428398</v>
       </c>
       <c r="CV5">
-        <v>0.2429956152018992</v>
+        <v>0.6212111540428398</v>
       </c>
       <c r="CW5">
-        <v>0.2444930408657824</v>
+        <v>0.6212111540428398</v>
       </c>
       <c r="CX5">
-        <v>0.2761280837369114</v>
+        <v>0.6285755787382727</v>
       </c>
       <c r="CY5">
-        <v>0.3309510263283689</v>
+        <v>0.7407701683671198</v>
       </c>
       <c r="CZ5">
-        <v>0.3362531742693427</v>
+        <v>0.7407701683671198</v>
       </c>
       <c r="DA5">
-        <v>0.3368086918097767</v>
+        <v>0.7407701683671198</v>
       </c>
       <c r="DB5">
-        <v>0.3553307423069885</v>
+        <v>0.7407701683671198</v>
       </c>
       <c r="DC5">
-        <v>0.3770479472980438</v>
+        <v>0.7407701683671198</v>
       </c>
       <c r="DD5">
-        <v>0.3843774992505824</v>
+        <v>0.7407701683671198</v>
       </c>
       <c r="DE5">
-        <v>0.4245811695799384</v>
+        <v>0.7868724969060574</v>
       </c>
       <c r="DF5">
-        <v>0.4284501125287817</v>
+        <v>0.7868724969060574</v>
       </c>
       <c r="DG5">
-        <v>0.4387348066961186</v>
+        <v>0.7868724969060574</v>
       </c>
       <c r="DH5">
-        <v>0.4422779231500015</v>
+        <v>0.7868724969060574</v>
       </c>
       <c r="DI5">
-        <v>0.4817722157526395</v>
+        <v>0.8297678000141083</v>
       </c>
       <c r="DJ5">
-        <v>0.4822602126072467</v>
+        <v>0.8297678000141083</v>
       </c>
       <c r="DK5">
-        <v>0.520849389546915</v>
+        <v>0.8685711661473863</v>
       </c>
       <c r="DL5">
-        <v>0.5350730053567884</v>
+        <v>0.8685711661473863</v>
       </c>
       <c r="DM5">
-        <v>0.5758487217803239</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DN5">
-        <v>0.5763778322036507</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DO5">
-        <v>0.5788836243166375</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DP5">
-        <v>0.5811945756130775</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DQ5">
-        <v>0.5824061738777851</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DR5">
-        <v>0.5854766292769006</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DS5">
-        <v>0.5865088007999707</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DT5">
-        <v>0.5873966389757811</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DU5">
-        <v>0.5877343077950287</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DV5">
-        <v>0.5921752914367286</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DW5">
-        <v>0.6073377181615444</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DX5">
-        <v>0.6073991079300084</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DY5">
-        <v>0.6078462376262421</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="DZ5">
-        <v>0.6128880228043339</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EA5">
-        <v>0.6130438957317386</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EB5">
-        <v>0.6146436075455161</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EC5">
-        <v>0.6146441669210072</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="ED5">
-        <v>0.6146913480397707</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EE5">
-        <v>0.6162129451232383</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EF5">
-        <v>0.6272946954897651</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EG5">
-        <v>0.6287065380943435</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EH5">
-        <v>0.6287222434306828</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EI5">
-        <v>0.6299980968314836</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EJ5">
-        <v>0.6325432422821091</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EK5">
-        <v>0.6339260145673616</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EL5">
-        <v>0.634017619515528</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EM5">
-        <v>0.6340185580973869</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EN5">
-        <v>0.6340640913985996</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EO5">
-        <v>0.6344477949717657</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EP5">
-        <v>0.6344559687176174</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EQ5">
-        <v>0.6346252724742344</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="ER5">
-        <v>0.6354723631709807</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="ES5">
-        <v>0.6376153386301113</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="ET5">
-        <v>0.6384747649778605</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EU5">
-        <v>0.6396561937540556</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EV5">
-        <v>0.6473062681025799</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EW5">
-        <v>0.6714820081892711</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EX5">
-        <v>0.693176307570739</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EY5">
-        <v>0.7094212864127404</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="EZ5">
-        <v>0.7150368611119771</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="FA5">
-        <v>0.7174656868758928</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="FB5">
-        <v>0.729380900357669</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="FC5">
-        <v>0.7540887717634048</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="FD5">
-        <v>0.7933934949404603</v>
+        <v>0.9592979363854414</v>
       </c>
       <c r="FE5">
-        <v>0.8298415415169621</v>
+        <v>0.9884214672674957</v>
       </c>
       <c r="FF5">
-        <v>0.8624087236691493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.8798006614015653</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.8822000161480242</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.8843194024301617</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.8859880458252944</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.8859976529701857</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.8861772605102008</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.8876343353921711</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.8975197807834192</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9114449865126164</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9337155530219956</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9511712563706212</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9579629145928997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9630046997709915</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9649951907866576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9655326455535155</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9660721643258486</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9666420544661346</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9679060299580335</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.970882736998161</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9765120523624887</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9790527168157173</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9804321859920379</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.98457525007319</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9871824100111734</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9872216017193289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9877956129388679</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9901309245011408</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9910392435927308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9913250869399119</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9920212356709469</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9925690498748325</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9926420537475925</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9941836505289894</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9947535406692753</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9948170580587942</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9948263559814569</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9954750963621792</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9968477652731138</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9743,766 +9743,766 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.332349403836854E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3.100594831396251E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3.100594831396251E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3.100594831396251E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3.100594831396251E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>5.339490068976335E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>8.50547985960444E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.000113094018514722</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.000113094018514722</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.000113094018514722</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.000113094018514722</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.000113094018514722</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002054485059922038</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0003587936748059624</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0003587936748059624</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0003587936748059624</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0003587936748059624</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0003587936748059624</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0003587936748059624</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0003587936748059624</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0003587936748059624</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0003587936748059624</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0004071715663755119</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0004071715663755119</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0004071715663755119</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0004732498876102423</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0005380174811497734</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0005696773790560544</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0006433469717175616</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0006433469717175616</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0006433469717175616</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0006750068696238427</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0006750068696238427</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0006750068696238427</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0007009493126131697</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.00108373613570918</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.001182724382298798</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.001238724597421947</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.001238724597421947</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.002468753584758914</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.03224622557921495</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.03362338169556858</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.03613121041587097</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.03613121041587097</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.05597379526652072</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1158776174532363</v>
+        <v>0.1555359042874677</v>
       </c>
       <c r="CP6">
-        <v>0.1265141423957719</v>
+        <v>0.1555359042874677</v>
       </c>
       <c r="CQ6">
-        <v>0.1482869079781309</v>
+        <v>0.1555359042874677</v>
       </c>
       <c r="CR6">
-        <v>0.1535737171711145</v>
+        <v>0.1555359042874677</v>
       </c>
       <c r="CS6">
-        <v>0.1876484827484283</v>
+        <v>0.1740897101880365</v>
       </c>
       <c r="CT6">
-        <v>0.1881419595917705</v>
+        <v>0.1740897101880365</v>
       </c>
       <c r="CU6">
-        <v>0.3009439714177957</v>
+        <v>0.6101664459599641</v>
       </c>
       <c r="CV6">
-        <v>0.3490352038233273</v>
+        <v>0.7030553337465955</v>
       </c>
       <c r="CW6">
-        <v>0.3495459098828721</v>
+        <v>0.7030553337465955</v>
       </c>
       <c r="CX6">
-        <v>0.3509792132661534</v>
+        <v>0.7030553337465955</v>
       </c>
       <c r="CY6">
-        <v>0.3769859168692465</v>
+        <v>0.7030553337465955</v>
       </c>
       <c r="CZ6">
-        <v>0.3801990699521152</v>
+        <v>0.7030553337465955</v>
       </c>
       <c r="DA6">
-        <v>0.4190072997884841</v>
+        <v>0.7467126452319847</v>
       </c>
       <c r="DB6">
-        <v>0.4710554514243374</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DC6">
-        <v>0.4715152141639775</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DD6">
-        <v>0.4858856436017058</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DE6">
-        <v>0.5012357348463856</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DF6">
-        <v>0.5314298044289136</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DG6">
-        <v>0.5418161886051358</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DH6">
-        <v>0.5461011987967286</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DI6">
-        <v>0.5539263028124921</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DJ6">
-        <v>0.5632696952402058</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DK6">
-        <v>0.5642361890289659</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DL6">
-        <v>0.5642361890289659</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DM6">
-        <v>0.5644667125987863</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DN6">
-        <v>0.5644914768441478</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DO6">
-        <v>0.5673458187072464</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DP6">
-        <v>0.5674248522729904</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DQ6">
-        <v>0.5674248522729904</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DR6">
-        <v>0.5691799118504439</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DS6">
-        <v>0.5779168347200214</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DT6">
-        <v>0.5825131470947204</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DU6">
-        <v>0.5871956426490134</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DV6">
-        <v>0.5912882813280561</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DW6">
-        <v>0.5912882813280561</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DX6">
-        <v>0.5920491803686293</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DY6">
-        <v>0.592065695385915</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="DZ6">
-        <v>0.592065695385915</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EA6">
-        <v>0.5928265944264882</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EB6">
-        <v>0.6002115066693541</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EC6">
-        <v>0.602115930461225</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="ED6">
-        <v>0.603784530054482</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EE6">
-        <v>0.6098811833267208</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EF6">
-        <v>0.6098811833267208</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EG6">
-        <v>0.609942024537671</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EH6">
-        <v>0.6113326898664267</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EI6">
-        <v>0.6119356583536288</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EJ6">
-        <v>0.6119356583536288</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EK6">
-        <v>0.6121598087255004</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EL6">
-        <v>0.6121598087255004</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EM6">
-        <v>0.6142456078876642</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EN6">
-        <v>0.6142456078876642</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EO6">
-        <v>0.6153749787926055</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EP6">
-        <v>0.6196599889841983</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EQ6">
-        <v>0.6215449935138262</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="ER6">
-        <v>0.6235332285332273</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="ES6">
-        <v>0.6367417980660737</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="ET6">
-        <v>0.6637177051607971</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EU6">
-        <v>0.6914115046333511</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EV6">
-        <v>0.7028326379093677</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EW6">
-        <v>0.7028326379093677</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EX6">
-        <v>0.7060072076485945</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EY6">
-        <v>0.7210782550532711</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="EZ6">
-        <v>0.7628516524800023</v>
+        <v>0.9199695146710473</v>
       </c>
       <c r="FA6">
-        <v>0.8071007314464478</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FB6">
-        <v>0.8362729185777712</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FC6">
-        <v>0.8557383584385773</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FD6">
-        <v>0.8659383212226566</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FE6">
-        <v>0.8666687697585533</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FF6">
-        <v>0.8672440473630614</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FG6">
-        <v>0.8678240074540746</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FH6">
-        <v>0.8679411654683664</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FI6">
-        <v>0.8680782130462715</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FJ6">
-        <v>0.8707974269165552</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FK6">
-        <v>0.8830974583603928</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FL6">
-        <v>0.9102360212096012</v>
+        <v>0.9924818843227163</v>
       </c>
       <c r="FM6">
-        <v>0.9422299202294765</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.9518682760925093</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.9562597432230793</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.9600219186096027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9600219186096027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.9600219186096027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.9613539150952576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.9638750635382509</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9680054853793968</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.9746832638327947</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9797926034596355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9822365177820137</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9862483379206797</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9885699485736564</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9894007077053271</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.9894007077053271</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9905239098951862</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.991881791249293</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9922490918643309</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9922490918643309</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9924601695982566</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9924601695982566</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9925563444196737</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.992591658066595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.992591658066595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.992591658066595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9931922772503142</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9954312288838857</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9984479316599879</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.0200038870584477</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5070216377920763</v>
+        <v>0.6211978203198922</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>0.01560735258736429</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.500686059803793</v>
+        <v>0.6806026903483361</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.008506719036985137</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5067884296472714</v>
+        <v>0.5205815752249905</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.005007582353814653</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.520849389546915</v>
+        <v>0.6212111540428398</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.03613121041587097</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5012357348463856</v>
+        <v>0.6101664459599641</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>0.0200038870584477</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7022267284406517</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01560735258736429</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7162974931830166</v>
+        <v>0.7355170755823497</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.008506719036985137</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7201644692839875</v>
+        <v>0.8835229190681635</v>
       </c>
       <c r="G4">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.005007582353814653</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7094212864127404</v>
+        <v>0.7407701683671198</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.03613121041587097</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7028326379093677</v>
+        <v>0.7030553337465955</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>0.0200038870584477</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8120363264996295</v>
+        <v>0.8656944140764744</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.01560735258736429</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.808610369463024</v>
+        <v>0.8741628937031739</v>
       </c>
       <c r="G3">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.008506719036985137</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8036415728041851</v>
+        <v>0.8835229190681635</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="E5">
-        <v>0.005007582353814653</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8298415415169621</v>
+        <v>0.8297678000141083</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.03613121041587097</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8071007314464478</v>
+        <v>0.8605867012930022</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E2">
-        <v>0.0200038870584477</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9135226702410485</v>
+        <v>0.9290330171624342</v>
       </c>
       <c r="G2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E3">
-        <v>0.01560735258736429</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9149822567632422</v>
+        <v>0.9117301014814861</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E4">
-        <v>0.008506719036985137</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9128170119066845</v>
+        <v>0.9392474152186346</v>
       </c>
       <c r="G4">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="E5">
-        <v>0.005007582353814653</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9114449865126164</v>
+        <v>0.917259657604295</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E6">
-        <v>0.03613121041587097</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9102360212096012</v>
+        <v>0.9199695146710473</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>35</v>

--- a/on_trucks/Processed_Stand_Alone/35_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/35_11R22.xlsx
@@ -704,43 +704,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.154422316616989</v>
+        <v>0.128366961095535</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01736470812212444</v>
       </c>
       <c r="J2">
-        <v>0.009398898352196625</v>
+        <v>0.03132822860068542</v>
       </c>
       <c r="K2">
-        <v>0.001068300037557083</v>
+        <v>0.02575402057932749</v>
       </c>
       <c r="L2">
-        <v>0.1648801760207075</v>
+        <v>0.135364571779992</v>
       </c>
       <c r="M2">
-        <v>0.07742347362076905</v>
+        <v>0.07684514332758995</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1014062778943169</v>
+        <v>0.09289262694246307</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.00499426271133303</v>
+        <v>0.02838097866819084</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.2282352527449316</v>
+        <v>0.1777570102978007</v>
       </c>
       <c r="T2">
-        <v>0.2366818627370674</v>
+        <v>0.1834088445830651</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.01790393341961749</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.02392281281466479</v>
       </c>
       <c r="Z2">
-        <v>0.02148917926413189</v>
+        <v>0.03941813262610791</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -767,13 +767,13 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.01240181408660274</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.003692627310854004</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.005197585745379003</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.540800754885816</v>
+        <v>0.3886058366686349</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1046257392043892</v>
+        <v>0.09626332128338566</v>
       </c>
       <c r="K3">
-        <v>0.08547127869664645</v>
+        <v>0.08342521051509075</v>
       </c>
       <c r="L3">
-        <v>0.006284418693380451</v>
+        <v>0.03035090546199613</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.003325010665583751</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -853,52 +853,52 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01981582428207998</v>
+        <v>0.03942021251599685</v>
       </c>
       <c r="S3">
-        <v>0.1438689181828321</v>
+        <v>0.1225657211041282</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.001006851822022903</v>
       </c>
       <c r="V3">
-        <v>0.07010645885468628</v>
+        <v>0.07312707348396712</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.002510612679063486</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.01780294296885688</v>
       </c>
       <c r="Y3">
-        <v>0.01459921635392355</v>
+        <v>0.03592382636670458</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.02291171644436973</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.006125798212298019</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.005487330317467433</v>
       </c>
       <c r="AC3">
-        <v>0.0008347373233730235</v>
+        <v>0.02669830386291756</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.008174429900630787</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01359265352287301</v>
+        <v>0.03524918637279549</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.001025709354089844</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -939,25 +939,25 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.01790854677863318</v>
       </c>
       <c r="H4">
-        <v>0.2315051720378952</v>
+        <v>0.1945614784703233</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2376143229253223</v>
+        <v>0.1990393465220526</v>
       </c>
       <c r="K4">
-        <v>0.1119489067689926</v>
+        <v>0.1069294670015149</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.002052300980319676</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -969,25 +969,25 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.05607673617426395</v>
+        <v>0.06597644221998542</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.02340140227032999</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.04677913009459594</v>
+        <v>0.05916150934487948</v>
       </c>
       <c r="U4">
-        <v>0.235615098901689</v>
+        <v>0.1975739609801598</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03146991380544042</v>
+        <v>0.04794020350689343</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.04899071929180046</v>
+        <v>0.06078255370803198</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.02467278821687625</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.3654554449303588</v>
+        <v>0.277331516974568</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1518003540255069</v>
+        <v>0.1300069097627094</v>
       </c>
       <c r="K5">
-        <v>0.01535355493884878</v>
+        <v>0.03592082458859371</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.04544047060823558</v>
+        <v>0.05666707975357218</v>
       </c>
       <c r="S5">
-        <v>0.1191391528573917</v>
+        <v>0.1074855712222533</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1103,40 +1103,40 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.003763118629103665</v>
+        <v>0.02792870762327553</v>
       </c>
       <c r="W5">
-        <v>0.01391835815570472</v>
+        <v>0.03493119311548932</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.003399280695184361</v>
       </c>
       <c r="Y5">
-        <v>0.0726743537960967</v>
+        <v>0.07544604320589668</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.009875756410654579</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.07041972080619333</v>
+        <v>0.07389137433169543</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.06754296903270417</v>
+        <v>0.07190772712122924</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.01850827847178638</v>
       </c>
       <c r="AG5">
-        <v>0.07449250221985582</v>
+        <v>0.07669973672309192</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04474631166252167</v>
+        <v>0.05421744278880267</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1180,31 +1180,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01013798846345578</v>
+        <v>0.03200130279132225</v>
       </c>
       <c r="I6">
-        <v>0.1496918887153984</v>
+        <v>0.121585214943277</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01141494757828295</v>
       </c>
       <c r="K6">
-        <v>0.01686180098680657</v>
+        <v>0.03631752347258326</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.05971599607303156</v>
+        <v>0.06382694055814168</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3339634981643324</v>
+        <v>0.2398747908216323</v>
       </c>
       <c r="P6">
-        <v>0.1085425611943438</v>
+        <v>0.09517020443405366</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1213,40 +1213,40 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.03161078537942034</v>
+        <v>0.04578534715771936</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.07620508734879267</v>
+        <v>0.07441179201443614</v>
       </c>
       <c r="V6">
-        <v>0.1223265466199807</v>
+        <v>0.1040185658001265</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.01976460910958036</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.02195530373332243</v>
       </c>
       <c r="Z6">
-        <v>0.04619753539191616</v>
+        <v>0.05514902763775495</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.01085558920781953</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.005128120159215984</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.008523277791929108</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1431,100 +1431,100 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.154422316616989</v>
+        <v>0.128366961095535</v>
       </c>
       <c r="I2">
-        <v>0.154422316616989</v>
+        <v>0.1457316692176595</v>
       </c>
       <c r="J2">
-        <v>0.1638212149691856</v>
+        <v>0.1770598978183449</v>
       </c>
       <c r="K2">
-        <v>0.1648895150067427</v>
+        <v>0.2028139183976723</v>
       </c>
       <c r="L2">
-        <v>0.3297696910274501</v>
+        <v>0.3381784901776643</v>
       </c>
       <c r="M2">
-        <v>0.4071931646482192</v>
+        <v>0.4150236335052543</v>
       </c>
       <c r="N2">
-        <v>0.4071931646482192</v>
+        <v>0.4150236335052543</v>
       </c>
       <c r="O2">
-        <v>0.5085994425425361</v>
+        <v>0.5079162604477173</v>
       </c>
       <c r="P2">
-        <v>0.5085994425425361</v>
+        <v>0.5079162604477173</v>
       </c>
       <c r="Q2">
-        <v>0.5135937052538692</v>
+        <v>0.5362972391159082</v>
       </c>
       <c r="R2">
-        <v>0.5135937052538692</v>
+        <v>0.5362972391159082</v>
       </c>
       <c r="S2">
-        <v>0.7418289579988008</v>
+        <v>0.7140542494137089</v>
       </c>
       <c r="T2">
-        <v>0.9785108207358681</v>
+        <v>0.8974630939967739</v>
       </c>
       <c r="U2">
-        <v>0.9785108207358681</v>
+        <v>0.8974630939967739</v>
       </c>
       <c r="V2">
-        <v>0.9785108207358681</v>
+        <v>0.8974630939967739</v>
       </c>
       <c r="W2">
-        <v>0.9785108207358681</v>
+        <v>0.9153670274163914</v>
       </c>
       <c r="X2">
-        <v>0.9785108207358681</v>
+        <v>0.9153670274163914</v>
       </c>
       <c r="Y2">
-        <v>0.9785108207358681</v>
+        <v>0.9392898402310562</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9787079728571642</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9787079728571642</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9787079728571642</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9911097869437669</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9911097869437669</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9948024142546209</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9948024142546209</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9948024142546209</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1550,100 +1550,100 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.540800754885816</v>
+        <v>0.3886058366686349</v>
       </c>
       <c r="I3">
-        <v>0.540800754885816</v>
+        <v>0.3886058366686349</v>
       </c>
       <c r="J3">
-        <v>0.6454264940902052</v>
+        <v>0.4848691579520205</v>
       </c>
       <c r="K3">
-        <v>0.7308977727868518</v>
+        <v>0.5682943684671112</v>
       </c>
       <c r="L3">
-        <v>0.7371821914802322</v>
+        <v>0.5986452739291074</v>
       </c>
       <c r="M3">
-        <v>0.7371821914802322</v>
+        <v>0.6019702845946912</v>
       </c>
       <c r="N3">
-        <v>0.7371821914802322</v>
+        <v>0.6019702845946912</v>
       </c>
       <c r="O3">
-        <v>0.7371821914802322</v>
+        <v>0.6019702845946912</v>
       </c>
       <c r="P3">
-        <v>0.7371821914802322</v>
+        <v>0.6019702845946912</v>
       </c>
       <c r="Q3">
-        <v>0.7371821914802322</v>
+        <v>0.6019702845946912</v>
       </c>
       <c r="R3">
-        <v>0.7569980157623122</v>
+        <v>0.641390497110688</v>
       </c>
       <c r="S3">
-        <v>0.9008669339451443</v>
+        <v>0.7639562182148162</v>
       </c>
       <c r="T3">
-        <v>0.9008669339451443</v>
+        <v>0.7639562182148162</v>
       </c>
       <c r="U3">
-        <v>0.9008669339451443</v>
+        <v>0.7649630700368391</v>
       </c>
       <c r="V3">
-        <v>0.9709733927998305</v>
+        <v>0.8380901435208061</v>
       </c>
       <c r="W3">
-        <v>0.9709733927998305</v>
+        <v>0.8406007561998696</v>
       </c>
       <c r="X3">
-        <v>0.9709733927998305</v>
+        <v>0.8584036991687265</v>
       </c>
       <c r="Y3">
-        <v>0.9855726091537541</v>
+        <v>0.894327525535431</v>
       </c>
       <c r="Z3">
-        <v>0.9855726091537541</v>
+        <v>0.9172392419798008</v>
       </c>
       <c r="AA3">
-        <v>0.9855726091537541</v>
+        <v>0.9233650401920988</v>
       </c>
       <c r="AB3">
-        <v>0.9855726091537541</v>
+        <v>0.9288523705095661</v>
       </c>
       <c r="AC3">
-        <v>0.9864073464771271</v>
+        <v>0.9555506743724838</v>
       </c>
       <c r="AD3">
-        <v>0.9864073464771271</v>
+        <v>0.9555506743724838</v>
       </c>
       <c r="AE3">
-        <v>0.9864073464771271</v>
+        <v>0.9637251042731145</v>
       </c>
       <c r="AF3">
-        <v>0.9864073464771271</v>
+        <v>0.9637251042731145</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.99897429064591</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.99897429064591</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.99897429064591</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.99897429064591</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.99897429064591</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1666,103 +1666,103 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.01790854677863318</v>
       </c>
       <c r="H4">
-        <v>0.2315051720378952</v>
+        <v>0.2124700252489565</v>
       </c>
       <c r="I4">
-        <v>0.2315051720378952</v>
+        <v>0.2124700252489565</v>
       </c>
       <c r="J4">
-        <v>0.4691194949632175</v>
+        <v>0.4115093717710091</v>
       </c>
       <c r="K4">
-        <v>0.5810684017322101</v>
+        <v>0.5184388387725241</v>
       </c>
       <c r="L4">
-        <v>0.5810684017322101</v>
+        <v>0.5184388387725241</v>
       </c>
       <c r="M4">
-        <v>0.5810684017322101</v>
+        <v>0.5204911397528438</v>
       </c>
       <c r="N4">
-        <v>0.5810684017322101</v>
+        <v>0.5204911397528438</v>
       </c>
       <c r="O4">
-        <v>0.5810684017322101</v>
+        <v>0.5204911397528438</v>
       </c>
       <c r="P4">
-        <v>0.5810684017322101</v>
+        <v>0.5204911397528438</v>
       </c>
       <c r="Q4">
-        <v>0.6371451379064741</v>
+        <v>0.5864675819728292</v>
       </c>
       <c r="R4">
-        <v>0.6371451379064741</v>
+        <v>0.6098689842431592</v>
       </c>
       <c r="S4">
-        <v>0.6371451379064741</v>
+        <v>0.6098689842431592</v>
       </c>
       <c r="T4">
-        <v>0.68392426800107</v>
+        <v>0.6690304935880387</v>
       </c>
       <c r="U4">
-        <v>0.9195393669027589</v>
+        <v>0.8666044545681985</v>
       </c>
       <c r="V4">
-        <v>0.9195393669027589</v>
+        <v>0.8666044545681985</v>
       </c>
       <c r="W4">
-        <v>0.9510092807081993</v>
+        <v>0.9145446580750919</v>
       </c>
       <c r="X4">
-        <v>0.9510092807081993</v>
+        <v>0.9145446580750919</v>
       </c>
       <c r="Y4">
-        <v>0.9510092807081993</v>
+        <v>0.9145446580750919</v>
       </c>
       <c r="Z4">
-        <v>0.9999999999999998</v>
+        <v>0.9753272117831239</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1788,100 +1788,100 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.3654554449303588</v>
+        <v>0.277331516974568</v>
       </c>
       <c r="I5">
-        <v>0.3654554449303588</v>
+        <v>0.277331516974568</v>
       </c>
       <c r="J5">
-        <v>0.5172557989558657</v>
+        <v>0.4073384267372774</v>
       </c>
       <c r="K5">
-        <v>0.5326093538947145</v>
+        <v>0.4432592513258711</v>
       </c>
       <c r="L5">
-        <v>0.5326093538947145</v>
+        <v>0.4432592513258711</v>
       </c>
       <c r="M5">
-        <v>0.5326093538947145</v>
+        <v>0.4432592513258711</v>
       </c>
       <c r="N5">
-        <v>0.5326093538947145</v>
+        <v>0.4432592513258711</v>
       </c>
       <c r="O5">
-        <v>0.5326093538947145</v>
+        <v>0.4432592513258711</v>
       </c>
       <c r="P5">
-        <v>0.5326093538947145</v>
+        <v>0.4432592513258711</v>
       </c>
       <c r="Q5">
-        <v>0.5326093538947145</v>
+        <v>0.4432592513258711</v>
       </c>
       <c r="R5">
-        <v>0.5780498245029501</v>
+        <v>0.4999263310794432</v>
       </c>
       <c r="S5">
-        <v>0.6971889773603417</v>
+        <v>0.6074119023016965</v>
       </c>
       <c r="T5">
-        <v>0.6971889773603417</v>
+        <v>0.6074119023016965</v>
       </c>
       <c r="U5">
-        <v>0.6971889773603417</v>
+        <v>0.6074119023016965</v>
       </c>
       <c r="V5">
-        <v>0.7009520959894453</v>
+        <v>0.635340609924972</v>
       </c>
       <c r="W5">
-        <v>0.71487045414515</v>
+        <v>0.6702718030404613</v>
       </c>
       <c r="X5">
-        <v>0.71487045414515</v>
+        <v>0.6736710837356457</v>
       </c>
       <c r="Y5">
-        <v>0.7875448079412467</v>
+        <v>0.7491171269415423</v>
       </c>
       <c r="Z5">
-        <v>0.7875448079412467</v>
+        <v>0.7491171269415423</v>
       </c>
       <c r="AA5">
-        <v>0.7875448079412467</v>
+        <v>0.7589928833521968</v>
       </c>
       <c r="AB5">
-        <v>0.7875448079412467</v>
+        <v>0.7589928833521968</v>
       </c>
       <c r="AC5">
-        <v>0.85796452874744</v>
+        <v>0.8328842576838923</v>
       </c>
       <c r="AD5">
-        <v>0.85796452874744</v>
+        <v>0.8328842576838923</v>
       </c>
       <c r="AE5">
-        <v>0.9255074977801442</v>
+        <v>0.9047919848051216</v>
       </c>
       <c r="AF5">
-        <v>0.9255074977801442</v>
+        <v>0.923300263276908</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1895,82 +1895,82 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04474631166252167</v>
+        <v>0.05421744278880267</v>
       </c>
       <c r="E6">
-        <v>0.04474631166252167</v>
+        <v>0.05421744278880267</v>
       </c>
       <c r="F6">
-        <v>0.04474631166252167</v>
+        <v>0.05421744278880267</v>
       </c>
       <c r="G6">
-        <v>0.04474631166252167</v>
+        <v>0.05421744278880267</v>
       </c>
       <c r="H6">
-        <v>0.05488430012597745</v>
+        <v>0.08621874558012492</v>
       </c>
       <c r="I6">
-        <v>0.2045761888413759</v>
+        <v>0.2078039605234019</v>
       </c>
       <c r="J6">
-        <v>0.2045761888413759</v>
+        <v>0.2192189081016848</v>
       </c>
       <c r="K6">
-        <v>0.2214379898281824</v>
+        <v>0.2555364315742681</v>
       </c>
       <c r="L6">
-        <v>0.2214379898281824</v>
+        <v>0.2555364315742681</v>
       </c>
       <c r="M6">
-        <v>0.281153985901214</v>
+        <v>0.3193633721324098</v>
       </c>
       <c r="N6">
-        <v>0.281153985901214</v>
+        <v>0.3193633721324098</v>
       </c>
       <c r="O6">
-        <v>0.6151174840655464</v>
+        <v>0.5592381629540422</v>
       </c>
       <c r="P6">
-        <v>0.7236600452598902</v>
+        <v>0.6544083673880958</v>
       </c>
       <c r="Q6">
-        <v>0.7236600452598902</v>
+        <v>0.6544083673880958</v>
       </c>
       <c r="R6">
-        <v>0.7236600452598902</v>
+        <v>0.6544083673880958</v>
       </c>
       <c r="S6">
-        <v>0.7552708306393106</v>
+        <v>0.7001937145458151</v>
       </c>
       <c r="T6">
-        <v>0.7552708306393106</v>
+        <v>0.7001937145458151</v>
       </c>
       <c r="U6">
-        <v>0.8314759179881033</v>
+        <v>0.7746055065602513</v>
       </c>
       <c r="V6">
-        <v>0.9538024646080839</v>
+        <v>0.8786240723603778</v>
       </c>
       <c r="W6">
-        <v>0.9538024646080839</v>
+        <v>0.8786240723603778</v>
       </c>
       <c r="X6">
-        <v>0.9538024646080839</v>
+        <v>0.8983886814699581</v>
       </c>
       <c r="Y6">
-        <v>0.9538024646080839</v>
+        <v>0.9203439852032805</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9754930128410355</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.986348602048855</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.986348602048855</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9914767222080709</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5085994425425361</v>
+        <v>0.5079162604477173</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -2109,16 +2109,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.540800754885816</v>
+        <v>0.5682943684671112</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5810684017322101</v>
+        <v>0.5184388387725241</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2191,16 +2191,16 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5172557989558657</v>
+        <v>0.6074119023016965</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -2229,19 +2229,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>14</v>
       </c>
       <c r="E6">
-        <v>0.04474631166252167</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6151174840655464</v>
+        <v>0.5592381629540422</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7418289579988008</v>
+        <v>0.7140542494137089</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -2368,16 +2368,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7308977727868518</v>
+        <v>0.7639562182148162</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9195393669027589</v>
+        <v>0.8666044545681985</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -2450,16 +2450,16 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7009520959894453</v>
+        <v>0.7491171269415423</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -2488,19 +2488,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>0.04474631166252167</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7236600452598902</v>
+        <v>0.7001937145458151</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9785108207358681</v>
+        <v>0.8974630939967739</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -2627,16 +2627,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9008669339451443</v>
+        <v>0.8380901435208061</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9195393669027589</v>
+        <v>0.8666044545681985</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.85796452874744</v>
+        <v>0.8328842576838923</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -2747,19 +2747,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8786240723603778</v>
+      </c>
+      <c r="G6">
         <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0.04474631166252167</v>
-      </c>
-      <c r="F6">
-        <v>0.8314759179881033</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -2845,16 +2845,16 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9785108207358681</v>
+        <v>0.9153670274163914</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -2886,16 +2886,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9008669339451443</v>
+        <v>0.9172392419798008</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -2927,16 +2927,16 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9195393669027589</v>
+        <v>0.9145446580750919</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9255074977801442</v>
+        <v>0.9047919848051216</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -3006,19 +3006,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>0.04474631166252167</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9538024646080839</v>
+        <v>0.9203439852032805</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>35</v>
